--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amose\Documents\GitHub\CTLiverSegmentation\SPIE_Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmo276\Documents\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728EFE23-6572-430E-A7A8-EE9ABE1F0E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC583881-358E-49A5-AF4E-4D55BF41FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -21,18 +21,30 @@
     <sheet name="Progressive Pre-Training" sheetId="5" r:id="rId6"/>
     <sheet name="Joint Training" sheetId="1" r:id="rId7"/>
     <sheet name="Contrastive Pre-Trained" sheetId="10" r:id="rId8"/>
+    <sheet name="Scan-Based Contrastive" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="24">
   <si>
     <t>Iteration</t>
   </si>
@@ -101,6 +113,9 @@
   </si>
   <si>
     <t>Hausdorff</t>
+  </si>
+  <si>
+    <t>Scan-Based Contrastive vs Standard</t>
   </si>
 </sst>
 </file>
@@ -198,10 +213,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -597,16 +612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F49CB-B145-40E7-8FE4-38A3938E89FA}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -614,7 +629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -630,7 +645,7 @@
         <v>1.2510259496342979E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -646,7 +661,7 @@
         <v>3.9205137650218612E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -654,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -670,7 +685,7 @@
         <v>0.18141858150684043</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -686,12 +701,15 @@
         <v>0.6315852060160605</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -699,8 +717,15 @@
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Standard Pre-Training'!B2:B11, 2, 1)</f>
         <v>0.93206183606003201</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Scan-Based Contrastive'!B2:B11, 2, 3)</f>
+        <v>0.126372672384688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -708,13 +733,20 @@
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Standard Pre-Training'!C2:C11, 2, 1)</f>
         <v>0.9854985916873148</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Scan-Based Contrastive'!C2:C11, 2, 3)</f>
+        <v>5.478842049624267E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -723,7 +755,7 @@
         <v>0.85619522263495229</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -732,12 +764,12 @@
         <v>2.9371611984156704E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -746,7 +778,7 @@
         <v>0.73831284993915558</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -755,7 +787,7 @@
         <v>0.39625705698771296</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -764,7 +796,7 @@
         <v>0.73789228846612565</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -773,12 +805,12 @@
         <v>8.3169199108705419E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -787,7 +819,7 @@
         <v>1.8361830828737818E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -796,7 +828,7 @@
         <v>6.0426543279582655E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -805,7 +837,7 @@
         <v>3.3099555627477564E-12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -814,12 +846,12 @@
         <v>2.9079273386444404E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -828,7 +860,7 @@
         <v>1.6236105699244489E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -837,7 +869,7 @@
         <v>0.10091238524975189</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -846,7 +878,7 @@
         <v>6.1288711675184551E-10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -869,12 +901,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -896,7 +928,7 @@
         <v>15.8362</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -907,7 +939,7 @@
         <v>20.207100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -918,7 +950,7 @@
         <v>13.5512</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -929,7 +961,7 @@
         <v>12.761100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -940,7 +972,7 @@
         <v>15.4732</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -951,7 +983,7 @@
         <v>18.6403</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -962,7 +994,7 @@
         <v>15.3317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -973,7 +1005,7 @@
         <v>15.512</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -984,7 +1016,7 @@
         <v>14.584199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -995,7 +1027,7 @@
         <v>15.769600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1040,7 @@
         <v>15.766659999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1037,14 +1069,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1066,7 +1098,7 @@
         <v>0.42370000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1077,7 +1109,7 @@
         <v>0.41749999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1088,7 +1120,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1099,7 +1131,7 @@
         <v>0.22009999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1110,7 +1142,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1121,7 +1153,7 @@
         <v>0.32340000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1132,7 +1164,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1143,7 +1175,7 @@
         <v>0.4103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1154,7 +1186,7 @@
         <v>0.42749999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1165,7 +1197,7 @@
         <v>0.30159999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1210,7 @@
         <v>0.34517999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1207,12 +1239,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1234,7 +1266,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1245,7 +1277,7 @@
         <v>0.50919999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1256,7 +1288,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1267,7 +1299,7 @@
         <v>0.49719999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1278,7 +1310,7 @@
         <v>0.47889999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1289,7 +1321,7 @@
         <v>0.53469999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1300,7 +1332,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1311,7 +1343,7 @@
         <v>0.50580000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1322,7 +1354,7 @@
         <v>0.45660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1333,7 +1365,7 @@
         <v>0.49959999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1378,7 @@
         <v>0.4889099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1375,12 +1407,12 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1414,7 +1446,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1431,7 +1463,7 @@
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1448,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1465,7 +1497,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1482,7 +1514,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1499,7 +1531,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1516,7 +1548,7 @@
         <v>0.18160000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1533,7 +1565,7 @@
         <v>0.52080000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1550,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1567,7 +1599,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1588,7 +1620,7 @@
         <v>0.38001999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1625,12 +1657,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1664,7 +1696,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1681,7 +1713,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1698,7 +1730,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1715,7 +1747,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1732,7 +1764,7 @@
         <v>0.52449999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1749,7 +1781,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1766,7 +1798,7 @@
         <v>0.52410000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1783,7 +1815,7 @@
         <v>0.52249999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1800,7 +1832,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1817,7 +1849,7 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1870,7 @@
         <v>0.5202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1875,12 +1907,12 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="5" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1914,7 +1946,7 @@
         <v>0.49490000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1931,7 +1963,7 @@
         <v>0.49740000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1948,7 +1980,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1965,7 +1997,7 @@
         <v>0.48080000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1982,7 +2014,7 @@
         <v>0.45129999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1999,7 +2031,7 @@
         <v>0.4834</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2016,7 +2048,7 @@
         <v>0.49640000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2033,7 +2065,7 @@
         <v>0.47849999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2050,7 +2082,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2067,7 +2099,7 @@
         <v>0.49669999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2088,7 +2120,7 @@
         <v>0.48183999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2122,18 +2154,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="C2" s="4">
+        <v>13.6275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10.0221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>11.6205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16.0549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12.0365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.9274</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9.3767999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8.7723999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>12.695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9.9344999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10.547000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.9073500000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
+        <v>11.468720000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>8.9840908771499414E-3</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>2.2232341566085916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,140 +2343,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.90149999999999997</v>
+        <v>0.9022</v>
       </c>
       <c r="C2" s="4">
-        <v>13.6275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.1250999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>0.89570000000000005</v>
+        <v>0.89980000000000004</v>
       </c>
       <c r="C3" s="6">
-        <v>10.0221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10.0106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.90949999999999998</v>
+        <v>0.89239999999999997</v>
       </c>
       <c r="C4" s="4">
-        <v>11.6205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13.8286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.90169999999999995</v>
-      </c>
-      <c r="C5" s="6">
-        <v>16.0549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.91120000000000001</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="C6" s="4">
-        <v>12.0365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13.5275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>0.9274</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="C7" s="6">
-        <v>9.3767999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.0457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.90490000000000004</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="C8" s="4">
-        <v>8.7723999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.8329000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>0.90939999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C9" s="6">
-        <v>12.695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.8215000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.91279999999999994</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="C10" s="4">
-        <v>9.9344999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>0.89939999999999998</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C11" s="6">
-        <v>10.547000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.489000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.9073500000000001</v>
+        <v>0.87925555555555557</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
-        <v>11.468720000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11.53221111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="6">
         <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>8.9840908771499414E-3</v>
+        <v>2.5462036010063666E-2</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>2.2232341566085916</v>
+        <v>2.1377041928459506</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmo276\Documents\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC583881-358E-49A5-AF4E-4D55BF41FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2FD5E0-A0AE-4B39-8AD7-995BEB548512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="H10">
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Scan-Based Contrastive'!B2:B11, 2, 3)</f>
-        <v>0.126372672384688</v>
+        <v>9.511709742137027E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -738,7 +738,7 @@
       </c>
       <c r="H11">
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Scan-Based Contrastive'!C2:C11, 2, 3)</f>
-        <v>5.478842049624267E-4</v>
+        <v>2.569038231566314E-4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2155,7 +2155,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2322,7 +2322,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2380,8 +2380,12 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="6">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10.906000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -2455,11 +2459,11 @@
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.87925555555555557</v>
+        <v>0.88073999999999997</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
-        <v>11.53221111111111</v>
+        <v>11.46959</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2468,11 +2472,11 @@
       </c>
       <c r="B13" s="6">
         <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>2.5462036010063666E-2</v>
+        <v>2.4460498768422548E-2</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>2.1377041928459506</v>
+        <v>2.0251518475029098</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmo276\Documents\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2FD5E0-A0AE-4B39-8AD7-995BEB548512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D84974-A9AB-4EA8-AD35-CB77D2D32E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Standard Pre-Training" sheetId="8" r:id="rId5"/>
     <sheet name="Progressive Pre-Training" sheetId="5" r:id="rId6"/>
     <sheet name="Joint Training" sheetId="1" r:id="rId7"/>
-    <sheet name="Contrastive Pre-Trained" sheetId="10" r:id="rId8"/>
+    <sheet name="Class-Based Contrastive" sheetId="10" r:id="rId8"/>
     <sheet name="Scan-Based Contrastive" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>Iteration</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Scan-Based Contrastive vs Standard</t>
+  </si>
+  <si>
+    <t>Full Training Set for fine-tuning</t>
+  </si>
+  <si>
+    <t>45% of training set for fine-tuning</t>
+  </si>
+  <si>
+    <t>Reduced Supervised Contrastive vs Standard</t>
   </si>
 </sst>
 </file>
@@ -612,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F49CB-B145-40E7-8FE4-38A3938E89FA}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,7 +650,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="7">
-        <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Contrastive Pre-Trained'!B2:B11, 2, 3)</f>
+        <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Class-Based Contrastive'!B2:B11, 2, 3)</f>
         <v>1.2510259496342979E-3</v>
       </c>
     </row>
@@ -657,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="7">
-        <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Contrastive Pre-Trained'!C2:C11, 2, 3)</f>
+        <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Class-Based Contrastive'!C2:C11, 2, 3)</f>
         <v>3.9205137650218612E-4</v>
       </c>
     </row>
@@ -681,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="H6">
-        <f>_xlfn.T.TEST('Joint Training'!B2:B11, 'Contrastive Pre-Trained'!B2:B11, 2, 3)</f>
+        <f>_xlfn.T.TEST('Joint Training'!B2:B11, 'Class-Based Contrastive'!B2:B11, 2, 3)</f>
         <v>0.18141858150684043</v>
       </c>
     </row>
@@ -697,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="H7">
-        <f>_xlfn.T.TEST('Joint Training'!C2:C11, 'Contrastive Pre-Trained'!C2:C11, 2, 3)</f>
+        <f>_xlfn.T.TEST('Joint Training'!C2:C11, 'Class-Based Contrastive'!C2:C11, 2, 3)</f>
         <v>0.6315852060160605</v>
       </c>
     </row>
@@ -745,6 +754,9 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -754,6 +766,13 @@
         <f>_xlfn.T.TEST('Standard Encoder'!B2:B11, 'Progressive Encoder'!B2:B11, 2, 1)</f>
         <v>0.85619522263495229</v>
       </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Class-Based Contrastive'!F2:F11, 2, 3)</f>
+        <v>0.16459025818455977</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -762,6 +781,13 @@
       <c r="C15">
         <f>_xlfn.T.TEST('Standard Encoder'!C2:C11, 'Progressive Encoder'!C2:C11, 2, 1)</f>
         <v>2.9371611984156704E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Class-Based Contrastive'!G2:G11, 2, 3)</f>
+        <v>0.28946197248303779</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2152,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2163,9 +2189,12 @@
     <col min="1" max="1" width="17.26953125" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2175,8 +2204,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2186,8 +2224,17 @@
       <c r="C2" s="4">
         <v>13.6275</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.81659999999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>17.0245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2197,8 +2244,17 @@
       <c r="C3" s="6">
         <v>10.0221</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="G3" s="6">
+        <v>17.1648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2208,8 +2264,17 @@
       <c r="C4" s="4">
         <v>11.6205</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15.6084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2219,8 +2284,17 @@
       <c r="C5" s="6">
         <v>16.0549</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.8246</v>
+      </c>
+      <c r="G5" s="6">
+        <v>15.540100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2230,8 +2304,13 @@
       <c r="C6" s="4">
         <v>12.0365</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2241,8 +2320,17 @@
       <c r="C7" s="6">
         <v>9.3767999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>17.4953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2252,8 +2340,17 @@
       <c r="C8" s="4">
         <v>8.7723999999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15.0158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2263,8 +2360,17 @@
       <c r="C9" s="6">
         <v>12.695</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="G9" s="6">
+        <v>17.284500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2274,8 +2380,13 @@
       <c r="C10" s="4">
         <v>9.9344999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2285,8 +2396,17 @@
       <c r="C11" s="6">
         <v>10.547000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="G11" s="6">
+        <v>18.0246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2298,8 +2418,19 @@
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
         <v>11.468720000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.8384625</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
+        <v>16.644749999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2308,8 +2439,27 @@
         <v>8.9840908771499414E-3</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <f t="shared" ref="C13" si="2">_xlfn.STDEV.S(C2:C11)</f>
         <v>2.2232341566085916</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <f>_xlfn.STDEV.S(F2:F11)</f>
+        <v>1.5665880806024646E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13" si="3">_xlfn.STDEV.S(G2:G11)</f>
+        <v>1.0953873744023159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmo276\Documents\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D84974-A9AB-4EA8-AD35-CB77D2D32E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5FCBB-7166-44A6-BBF7-C9ADD588EBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -621,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F49CB-B145-40E7-8FE4-38A3938E89FA}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -771,7 +771,7 @@
       </c>
       <c r="H14">
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Class-Based Contrastive'!F2:F11, 2, 3)</f>
-        <v>0.16459025818455977</v>
+        <v>0.21935888052727795</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -787,7 +787,7 @@
       </c>
       <c r="H15">
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Class-Based Contrastive'!G2:G11, 2, 3)</f>
-        <v>0.28946197248303779</v>
+        <v>0.17754690626965675</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2180,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2307,8 +2307,12 @@
       <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="G6" s="4">
+        <v>16.856100000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
@@ -2383,8 +2387,12 @@
       <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>31.640699999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
@@ -2423,11 +2431,11 @@
       </c>
       <c r="F12" s="4">
         <f>AVERAGE(F2:F11)</f>
-        <v>0.8384625</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
-        <v>16.644749999999998</v>
+        <v>18.165479999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2447,11 +2455,11 @@
       </c>
       <c r="F13" s="6">
         <f>_xlfn.STDEV.S(F2:F11)</f>
-        <v>1.5665880806024646E-2</v>
+        <v>1.5752036905323289E-2</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" ref="G13" si="3">_xlfn.STDEV.S(G2:G11)</f>
-        <v>1.0953873744023159</v>
+        <v>4.8327137809355598</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmo276\Documents\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5FCBB-7166-44A6-BBF7-C9ADD588EBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3A104-617D-40CB-A657-3700C5B6CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>Iteration</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Reduced Supervised Contrastive vs Standard</t>
+  </si>
+  <si>
+    <t>Full Data</t>
+  </si>
+  <si>
+    <t>Reduced Data (45% of total)</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F49CB-B145-40E7-8FE4-38A3938E89FA}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2477,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2488,9 +2494,12 @@
     <col min="1" max="1" width="15.90625" customWidth="1"/>
     <col min="2" max="2" width="14.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,8 +2509,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2511,8 +2529,17 @@
       <c r="C2" s="4">
         <v>8.1250999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>18.3917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2522,8 +2549,17 @@
       <c r="C3" s="6">
         <v>10.0106</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.43619999999999998</v>
+      </c>
+      <c r="G3" s="6">
+        <v>31.482299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2533,8 +2569,17 @@
       <c r="C4" s="4">
         <v>13.8286</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>32.652299999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2544,8 +2589,17 @@
       <c r="C5" s="6">
         <v>10.906000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="G5" s="6">
+        <v>32.242800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2555,8 +2609,17 @@
       <c r="C6" s="4">
         <v>13.5275</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.8206</v>
+      </c>
+      <c r="G6" s="4">
+        <v>27.710599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2566,8 +2629,17 @@
       <c r="C7" s="6">
         <v>14.0457</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G7" s="6">
+        <v>40.376300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2577,8 +2649,17 @@
       <c r="C8" s="4">
         <v>9.8329000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.43419999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>31.841899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2588,8 +2669,17 @@
       <c r="C9" s="6">
         <v>9.8215000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.433</v>
+      </c>
+      <c r="G9" s="6">
+        <v>25.587199999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2599,8 +2689,17 @@
       <c r="C10" s="4">
         <v>12.109</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>16.2973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2610,8 +2709,17 @@
       <c r="C11" s="6">
         <v>12.489000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="G11" s="6">
+        <v>22.040900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2623,8 +2731,19 @@
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
         <v>11.46959</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.50995000000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
+        <v>27.862330000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2633,8 +2752,27 @@
         <v>2.4460498768422548E-2</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <f t="shared" ref="C13" si="2">_xlfn.STDEV.S(C2:C11)</f>
         <v>2.0251518475029098</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <f>_xlfn.STDEV.S(F2:F11)</f>
+        <v>0.17811499562548527</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13" si="3">_xlfn.STDEV.S(G2:G11)</f>
+        <v>7.3801834712288725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmo276\Documents\GitHub\CTLiverSegmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3A104-617D-40CB-A657-3700C5B6CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492DEF7-F449-4E59-8AFA-82662DCF3D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -23,28 +23,17 @@
     <sheet name="Class-Based Contrastive" sheetId="10" r:id="rId8"/>
     <sheet name="Scan-Based Contrastive" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
   <si>
     <t>Iteration</t>
   </si>
@@ -132,6 +121,33 @@
   <si>
     <t>Reduced Data (45% of total)</t>
   </si>
+  <si>
+    <t>1 scan</t>
+  </si>
+  <si>
+    <t>2 scans</t>
+  </si>
+  <si>
+    <t>3 scans</t>
+  </si>
+  <si>
+    <t>4 scans</t>
+  </si>
+  <si>
+    <t>5 scans</t>
+  </si>
+  <si>
+    <t>6 scans</t>
+  </si>
+  <si>
+    <t>7 scans</t>
+  </si>
+  <si>
+    <t>8 scans</t>
+  </si>
+  <si>
+    <t>9 scans</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -220,11 +236,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -233,11 +267,1013 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -250,6 +1286,891 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU-Net</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Class-Based Contrastive'!$B$24,'Class-Based Contrastive'!$B$33,'Class-Based Contrastive'!$B$42,'Class-Based Contrastive'!$B$51,'Class-Based Contrastive'!$B$65)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21834627896645695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30036000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54744000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FFD-4BB5-8DB6-344E63913EF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class-Based Contrastive'!$I$38:$M$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FFD-4BB5-8DB6-344E63913EF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="489832575"/>
+        <c:axId val="611697791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="489832575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611697791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611697791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489832575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6A4566-E908-39DB-D567-516AA12F25B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C3C4CFA2-164F-4739-9F43-8FD268FC5A31}" name="Table134" displayName="Table134" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
@@ -257,6 +2178,96 @@
     <tableColumn id="1" xr3:uid="{048EEBC9-D2B1-4FDD-A2D7-4B9CD7601C94}" name="Iteration"/>
     <tableColumn id="2" xr3:uid="{63D903ED-C769-4CD7-9354-E2182A0F6E12}" name="Dice Score"/>
     <tableColumn id="3" xr3:uid="{2E45C299-4A8E-49B6-81CF-0B3AC25C6202}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="52" dataDxfId="20" headerRowBorderDxfId="54" tableBorderDxfId="55" totalsRowBorderDxfId="53">
+  <autoFilter ref="A45:C50" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
+    <sortCondition ref="A45:A50"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8C282437-5725-4450-98B8-52345604C1B8}" name="Iteration" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{FDFE7725-A109-42E9-9D36-FB6E7851F5AA}" name="Dice Score" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{FCE2B995-C997-4072-817E-1F89D4BF5E05}" name="Hausdorff Distance" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="48" dataDxfId="16" headerRowBorderDxfId="50" tableBorderDxfId="51" totalsRowBorderDxfId="49">
+  <autoFilter ref="A54:C64" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C64">
+    <sortCondition ref="A54:A64"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{807ADEC1-BDA7-41E3-8ABE-F75B7F1FF8B9}" name="Iteration" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{8AA33A74-4033-4307-9039-21C28EA58802}" name="Dice Score" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{0EB4CD20-1D14-47DC-8D82-310CBBEAE9FF}" name="Hausdorff Distance" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C73" totalsRowShown="0" headerRowDxfId="44" dataDxfId="12" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+  <autoFilter ref="A68:C73" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:C73">
+    <sortCondition ref="A68:A73"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B338A6E6-9803-43D8-BB91-85284C2EA5F0}" name="Iteration" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{79BDC265-4F0D-4265-86B8-ADA88F408442}" name="Dice Score" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{453BB242-4868-402B-8F1F-6E493000904A}" name="Hausdorff Distance" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A77:C82" totalsRowShown="0" headerRowDxfId="40" dataDxfId="8" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
+  <autoFilter ref="A77:C82" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
+    <sortCondition ref="A77:A82"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A86:C91" totalsRowShown="0" headerRowDxfId="36" dataDxfId="4" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+  <autoFilter ref="A86:C91" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C91">
+    <sortCondition ref="A86:A91"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A95:C100" totalsRowShown="0" headerRowDxfId="32" dataDxfId="0" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+  <autoFilter ref="A95:C100" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:C100">
+    <sortCondition ref="A95:A100"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -323,6 +2334,51 @@
     <tableColumn id="3" xr3:uid="{4299D94B-C521-4BAB-B01B-C6C8DF5C4B4B}" name="Hausdorff Distance"/>
     <tableColumn id="4" xr3:uid="{7B5159A6-E47A-4D2C-85A1-CCCD80A99A07}" name="Classification Accuracy"/>
     <tableColumn id="5" xr3:uid="{2E7C771C-ABF3-430E-AECC-03F696AB624A}" name="Classification F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="69" tableBorderDxfId="70" totalsRowBorderDxfId="68">
+  <autoFilter ref="A18:C25" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C25">
+    <sortCondition descending="1" ref="B18:B25"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="60" dataDxfId="28" headerRowBorderDxfId="62" tableBorderDxfId="63" totalsRowBorderDxfId="61">
+  <autoFilter ref="A27:C34" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C34">
+    <sortCondition descending="1" ref="B27:B34"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="56" dataDxfId="24" headerRowBorderDxfId="58" tableBorderDxfId="59" totalsRowBorderDxfId="57">
+  <autoFilter ref="A36:C41" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
+    <sortCondition descending="1" ref="B36:B41"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,12 +2687,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -644,7 +2700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -660,7 +2716,7 @@
         <v>1.2510259496342979E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -676,7 +2732,7 @@
         <v>3.9205137650218612E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -684,7 +2740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -700,7 +2756,7 @@
         <v>0.18141858150684043</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -716,7 +2772,7 @@
         <v>0.6315852060160605</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -724,7 +2780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -740,7 +2796,7 @@
         <v>9.511709742137027E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -756,7 +2812,7 @@
         <v>2.569038231566314E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -764,7 +2820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -780,7 +2836,7 @@
         <v>0.21935888052727795</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -796,12 +2852,12 @@
         <v>0.17754690626965675</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -810,7 +2866,7 @@
         <v>0.73831284993915558</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -819,7 +2875,7 @@
         <v>0.39625705698771296</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -828,7 +2884,7 @@
         <v>0.73789228846612565</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -837,12 +2893,12 @@
         <v>8.3169199108705419E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -851,7 +2907,7 @@
         <v>1.8361830828737818E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -860,7 +2916,7 @@
         <v>6.0426543279582655E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -869,7 +2925,7 @@
         <v>3.3099555627477564E-12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -878,12 +2934,12 @@
         <v>2.9079273386444404E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -892,7 +2948,7 @@
         <v>1.6236105699244489E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -901,7 +2957,7 @@
         <v>0.10091238524975189</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -910,7 +2966,7 @@
         <v>6.1288711675184551E-10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -933,12 +2989,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +3005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -960,7 +3016,7 @@
         <v>15.8362</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -971,7 +3027,7 @@
         <v>20.207100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -982,7 +3038,7 @@
         <v>13.5512</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -993,7 +3049,7 @@
         <v>12.761100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1004,7 +3060,7 @@
         <v>15.4732</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1015,7 +3071,7 @@
         <v>18.6403</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1026,7 +3082,7 @@
         <v>15.3317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1037,7 +3093,7 @@
         <v>15.512</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1048,7 +3104,7 @@
         <v>14.584199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1059,7 +3115,7 @@
         <v>15.769600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +3128,7 @@
         <v>15.766659999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1101,14 +3157,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1130,7 +3186,7 @@
         <v>0.42370000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1141,7 +3197,7 @@
         <v>0.41749999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1152,7 +3208,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1163,7 +3219,7 @@
         <v>0.22009999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1174,7 +3230,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1185,7 +3241,7 @@
         <v>0.32340000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1196,7 +3252,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1207,7 +3263,7 @@
         <v>0.4103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1218,7 +3274,7 @@
         <v>0.42749999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1229,7 +3285,7 @@
         <v>0.30159999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +3298,7 @@
         <v>0.34517999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1271,12 +3327,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1298,7 +3354,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1309,7 +3365,7 @@
         <v>0.50919999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1320,7 +3376,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1331,7 +3387,7 @@
         <v>0.49719999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1342,7 +3398,7 @@
         <v>0.47889999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1353,7 +3409,7 @@
         <v>0.53469999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1364,7 +3420,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1375,7 +3431,7 @@
         <v>0.50580000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1386,7 +3442,7 @@
         <v>0.45660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1397,7 +3453,7 @@
         <v>0.49959999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +3466,7 @@
         <v>0.4889099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1439,12 +3495,12 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +3517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1478,7 +3534,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1495,7 +3551,7 @@
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1512,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1529,7 +3585,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1546,7 +3602,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1563,7 +3619,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1580,7 +3636,7 @@
         <v>0.18160000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1597,7 +3653,7 @@
         <v>0.52080000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1614,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1631,7 +3687,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +3708,7 @@
         <v>0.38001999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1689,12 +3745,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +3767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1728,7 +3784,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1745,7 +3801,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1762,7 +3818,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1779,7 +3835,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1796,7 +3852,7 @@
         <v>0.52449999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1813,7 +3869,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1830,7 +3886,7 @@
         <v>0.52410000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1847,7 +3903,7 @@
         <v>0.52249999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1864,7 +3920,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1881,7 +3937,7 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +3958,7 @@
         <v>0.5202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1939,12 +3995,12 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.7265625" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +4017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1978,7 +4034,7 @@
         <v>0.49490000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1995,7 +4051,7 @@
         <v>0.49740000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2012,7 +4068,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2029,7 +4085,7 @@
         <v>0.48080000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2046,7 +4102,7 @@
         <v>0.45129999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2063,7 +4119,7 @@
         <v>0.4834</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2080,7 +4136,7 @@
         <v>0.49640000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2097,7 +4153,7 @@
         <v>0.47849999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2114,7 +4170,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2131,7 +4187,7 @@
         <v>0.49669999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2152,7 +4208,7 @@
         <v>0.48183999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2184,23 +4240,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2240,7 +4296,7 @@
         <v>17.0245</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2260,7 +4316,7 @@
         <v>17.1648</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2280,7 +4336,7 @@
         <v>15.6084</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2300,7 +4356,7 @@
         <v>15.540100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2320,7 +4376,7 @@
         <v>16.856100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2340,7 +4396,7 @@
         <v>17.4953</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2360,7 +4416,7 @@
         <v>15.0158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2380,7 +4436,7 @@
         <v>17.284500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2400,7 +4456,7 @@
         <v>31.640699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2420,7 +4476,7 @@
         <v>18.0246</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2444,7 +4500,7 @@
         <v>18.165479999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +4524,7 @@
         <v>4.8327137809355598</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2476,8 +4532,945 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.253</v>
+      </c>
+      <c r="C19" s="10">
+        <v>70.4739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="C20" s="10">
+        <v>82.251199999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="C21" s="10">
+        <v>76.764799999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="C22" s="10">
+        <v>82.526499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>100.0067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="10">
+        <f>AVERAGE(B16:B23)</f>
+        <v>0.22061999999999998</v>
+      </c>
+      <c r="C24" s="10">
+        <f>AVERAGE(C16:C23)</f>
+        <v>82.404619999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11">
+        <f>_xlfn.STDEV.S(B19:B24)</f>
+        <v>2.3950231731655544E-2</v>
+      </c>
+      <c r="C25" s="11">
+        <f>_xlfn.STDEV.S(C19:C24)</f>
+        <v>9.8389152055294371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>0</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="C28" s="10">
+        <v>38.649799999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>1</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.2681</v>
+      </c>
+      <c r="C29" s="10">
+        <v>41.766399999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>2</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="C30" s="10">
+        <v>46.368699999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>3</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="C31" s="10">
+        <v>57.719799999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.2505</v>
+      </c>
+      <c r="C32" s="10">
+        <v>32.921500000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="10">
+        <f>AVERAGE(B23:B32)</f>
+        <v>0.21834627896645695</v>
+      </c>
+      <c r="C33" s="10">
+        <f>AVERAGE(C23:C32)</f>
+        <v>51.209554400691175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="11">
+        <f>_xlfn.STDEV.S(B28:B33)</f>
+        <v>1.9046528227549139E-2</v>
+      </c>
+      <c r="C34" s="11">
+        <f>_xlfn.STDEV.S(C28:C33)</f>
+        <v>8.9284533318218777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>0</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="C37" s="10">
+        <v>16.1876</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="C38" s="10">
+        <v>35.795699999999997</v>
+      </c>
+      <c r="I38">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="J38">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="K38">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="L38">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="M38">
+        <v>0.85673999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>2</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0.2571</v>
+      </c>
+      <c r="C39" s="10">
+        <v>29.940899999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>3</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="C40" s="10">
+        <v>34.3887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>4</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="C41" s="10">
+        <v>46.819699999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="10">
+        <f>AVERAGE(B37:B41)</f>
+        <v>0.30036000000000007</v>
+      </c>
+      <c r="C42" s="10">
+        <f>AVERAGE(C37:C41)</f>
+        <v>32.626519999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="11">
+        <f>_xlfn.STDEV.S(B37:B41)</f>
+        <v>9.9729724756463523E-2</v>
+      </c>
+      <c r="C43" s="11">
+        <f>_xlfn.STDEV.S(C37:C41)</f>
+        <v>11.0910547772518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>0</v>
+      </c>
+      <c r="B46" s="10">
+        <v>0.57669999999999999</v>
+      </c>
+      <c r="C46" s="10">
+        <v>23.358699999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.44240000000000002</v>
+      </c>
+      <c r="C47" s="10">
+        <v>20.8932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>2</v>
+      </c>
+      <c r="B48" s="10">
+        <v>0.439</v>
+      </c>
+      <c r="C48" s="10">
+        <v>21.8781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>3</v>
+      </c>
+      <c r="B49" s="10">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="C49" s="10">
+        <v>9.9643999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>4</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0.439</v>
+      </c>
+      <c r="C50" s="10">
+        <v>25.486699999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="10">
+        <f>AVERAGE(B46:B50)</f>
+        <v>0.54744000000000004</v>
+      </c>
+      <c r="C51" s="10">
+        <f>AVERAGE(C46:C50)</f>
+        <v>20.316219999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="11">
+        <f>_xlfn.STDEV.S(B46:B50)</f>
+        <v>0.17396687328339239</v>
+      </c>
+      <c r="C52" s="11">
+        <f>_xlfn.STDEV.S(C46:C50)</f>
+        <v>6.0399317121139786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10">
+        <v>0.81659999999999999</v>
+      </c>
+      <c r="C55" s="10">
+        <v>17.0245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>1</v>
+      </c>
+      <c r="B56" s="10">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="C56" s="10">
+        <v>17.1648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>2</v>
+      </c>
+      <c r="B57" s="10">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C57" s="10">
+        <v>15.6084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>3</v>
+      </c>
+      <c r="B58" s="10">
+        <v>0.8246</v>
+      </c>
+      <c r="C58" s="10">
+        <v>15.540100000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>4</v>
+      </c>
+      <c r="B59" s="10">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="C59" s="10">
+        <v>16.856100000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>5</v>
+      </c>
+      <c r="B60" s="10">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="C60" s="10">
+        <v>17.4953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>6</v>
+      </c>
+      <c r="B61" s="10">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="C61" s="10">
+        <v>15.0158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>7</v>
+      </c>
+      <c r="B62" s="10">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="C62" s="10">
+        <v>17.284500000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>8</v>
+      </c>
+      <c r="B63" s="10">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="C63" s="10">
+        <v>31.640699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>9</v>
+      </c>
+      <c r="B64" s="10">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="C64" s="10">
+        <v>18.0246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="10">
+        <f>AVERAGE(B55:B64)</f>
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="C65" s="10">
+        <f t="shared" ref="C65" si="4">AVERAGE(C55:C64)</f>
+        <v>18.165479999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="11">
+        <f>_xlfn.STDEV.S(B55:B64)</f>
+        <v>1.5752036905323289E-2</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" ref="C66" si="5">_xlfn.STDEV.S(C55:C64)</f>
+        <v>4.8327137809355598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>0</v>
+      </c>
+      <c r="B69" s="10">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="C69" s="10">
+        <v>10.6111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>1</v>
+      </c>
+      <c r="B70" s="10">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="C70" s="10">
+        <v>11.936199999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>2</v>
+      </c>
+      <c r="B71" s="10">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="C71" s="10">
+        <v>13.663399999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>3</v>
+      </c>
+      <c r="B72" s="10">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="C72" s="10">
+        <v>13.081200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>4</v>
+      </c>
+      <c r="B73" s="10">
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="C73" s="10">
+        <v>17.328399999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="10">
+        <f>AVERAGE(B69:B73)</f>
+        <v>0.65205999999999997</v>
+      </c>
+      <c r="C74" s="10">
+        <f>AVERAGE(C69:C73)</f>
+        <v>13.324059999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="11">
+        <f>_xlfn.STDEV.S(B69:B73)</f>
+        <v>0.18764143465663469</v>
+      </c>
+      <c r="C75" s="11">
+        <f>_xlfn.STDEV.S(C69:C73)</f>
+        <v>2.5246375379448058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>0</v>
+      </c>
+      <c r="B78" s="10">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="C78" s="10">
+        <v>11.702999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>1</v>
+      </c>
+      <c r="B79" s="10">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="C79" s="10">
+        <v>9.4191000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>2</v>
+      </c>
+      <c r="B80" s="10">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="C80" s="10">
+        <v>10.1508</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>3</v>
+      </c>
+      <c r="B81" s="10">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="C81" s="10">
+        <v>15.7141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>4</v>
+      </c>
+      <c r="B82" s="10">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="C82" s="10">
+        <v>12.8386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="10">
+        <f>AVERAGE(B78:B82)</f>
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="C83" s="10">
+        <f>AVERAGE(C78:C82)</f>
+        <v>11.965120000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="11">
+        <f>_xlfn.STDEV.S(B78:B82)</f>
+        <v>1.3580132547217658E-2</v>
+      </c>
+      <c r="C84" s="11">
+        <f>_xlfn.STDEV.S(C78:C82)</f>
+        <v>2.4829669826640859</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>0</v>
+      </c>
+      <c r="B87" s="10">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="C87" s="10">
+        <v>16.116399999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>1</v>
+      </c>
+      <c r="B88" s="10">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="C88" s="10">
+        <v>20.9849</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>2</v>
+      </c>
+      <c r="B89" s="10">
+        <v>0.4677</v>
+      </c>
+      <c r="C89" s="10">
+        <v>17.2774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>3</v>
+      </c>
+      <c r="B90" s="10">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="C90" s="10">
+        <v>10.2127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>4</v>
+      </c>
+      <c r="B91" s="10">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="C91" s="10">
+        <v>16.1006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="10">
+        <f>AVERAGE(B87:B91)</f>
+        <v>0.62194000000000005</v>
+      </c>
+      <c r="C92" s="10">
+        <f>AVERAGE(C87:C91)</f>
+        <v>16.138399999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="11">
+        <f>_xlfn.STDEV.S(B87:B91)</f>
+        <v>0.22465565428005579</v>
+      </c>
+      <c r="C93" s="11">
+        <f>_xlfn.STDEV.S(C87:C91)</f>
+        <v>3.8698099623883366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>0</v>
+      </c>
+      <c r="B96" s="10">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="C96" s="10">
+        <v>12.242000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>1</v>
+      </c>
+      <c r="B97" s="10">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="C97" s="10">
+        <v>7.6818999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>2</v>
+      </c>
+      <c r="B98" s="10">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="C98" s="10">
+        <v>9.7201000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>3</v>
+      </c>
+      <c r="B99" s="10">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="C99" s="10">
+        <v>11.8787</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>4</v>
+      </c>
+      <c r="B100" s="10">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="C100" s="10">
+        <v>12.665699999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="10">
+        <f>AVERAGE(B96:B100)</f>
+        <v>0.90047999999999995</v>
+      </c>
+      <c r="C101" s="10">
+        <f>AVERAGE(C96:C100)</f>
+        <v>10.837680000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="11">
+        <f>_xlfn.STDEV.S(B96:B100)</f>
+        <v>9.3395396032138443E-3</v>
+      </c>
+      <c r="C102" s="11">
+        <f>_xlfn.STDEV.S(C96:C100)</f>
+        <v>2.0979410673324392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="9">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2485,21 +5478,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +5512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2539,7 +5532,7 @@
         <v>18.3917</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2559,7 +5552,7 @@
         <v>31.482299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2579,7 +5572,7 @@
         <v>32.652299999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2599,7 +5592,7 @@
         <v>32.242800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2619,7 +5612,7 @@
         <v>27.710599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2639,7 +5632,7 @@
         <v>40.376300000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2659,7 +5652,7 @@
         <v>31.841899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2679,7 +5672,7 @@
         <v>25.587199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2699,7 +5692,7 @@
         <v>16.2973</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2719,7 +5712,7 @@
         <v>22.040900000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2743,7 +5736,7 @@
         <v>27.862330000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -2767,7 +5760,7 @@
         <v>7.3801834712288725</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmo276\Documents\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492DEF7-F449-4E59-8AFA-82662DCF3D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F15711-7A8C-4FB2-9375-473BF9F3F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -23,10 +23,21 @@
     <sheet name="Class-Based Contrastive" sheetId="10" r:id="rId8"/>
     <sheet name="Scan-Based Contrastive" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -258,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,21 +280,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -339,6 +341,26 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -347,426 +369,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -797,6 +400,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -805,19 +462,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -848,6 +513,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -856,19 +575,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -899,6 +626,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -907,19 +688,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -950,6 +739,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -958,19 +801,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1001,6 +852,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1009,19 +914,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1052,6 +965,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1060,19 +1027,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1103,6 +1078,60 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1111,19 +1140,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1154,6 +1191,48 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1162,6 +1241,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1169,12 +1254,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -1203,75 +1282,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,10 +1336,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('Class-Based Contrastive'!$B$24,'Class-Based Contrastive'!$B$33,'Class-Based Contrastive'!$B$42,'Class-Based Contrastive'!$B$51,'Class-Based Contrastive'!$B$65)</c:f>
+              <c:f>('Class-Based Contrastive'!$B$24,'Class-Based Contrastive'!$B$33,'Class-Based Contrastive'!$B$42,'Class-Based Contrastive'!$B$65,'Class-Based Contrastive'!$B$74,'Class-Based Contrastive'!$B$83,'Class-Based Contrastive'!$B$92,'Class-Based Contrastive'!$B$101,'Class-Based Contrastive'!$B$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.22061999999999998</c:v>
                 </c:pt>
@@ -1340,10 +1350,22 @@
                   <c:v>0.30036000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54744000000000004</c:v>
+                  <c:v>0.84099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84099999999999997</c:v>
+                  <c:v>0.65205999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62194000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90047999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9073500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,10 +1397,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Class-Based Contrastive'!$I$38:$M$38</c:f>
+              <c:f>'Class-Based Contrastive'!$I$38:$R$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.85673999999999995</c:v>
                 </c:pt>
@@ -1392,6 +1414,21 @@
                   <c:v>0.85673999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.85673999999999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -1574,7 +1611,365 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU-Net</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Class-Based Contrastive'!$C$24,'Class-Based Contrastive'!$C$33,'Class-Based Contrastive'!$C$42,'Class-Based Contrastive'!$C$51,'Class-Based Contrastive'!$C$65,'Class-Based Contrastive'!$C$74,'Class-Based Contrastive'!$C$83,'Class-Based Contrastive'!$C$92,'Class-Based Contrastive'!$C$101,'Class-Based Contrastive'!$C$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>82.404619999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.209554400691175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.626519999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.316219999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.165479999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.324059999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.965120000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.138399999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.837680000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.468720000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F96-4C84-A2A8-56CA26A73A7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class-Based Contrastive'!$I$39:$R$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.7667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F96-4C84-A2A8-56CA26A73A7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1587492192"/>
+        <c:axId val="1585764000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1587492192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1585764000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1585764000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587492192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2130,6 +2525,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2168,6 +3079,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478511B6-4DC6-C0EE-48ED-288D07C13EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2184,90 +3131,90 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="52" dataDxfId="20" headerRowBorderDxfId="54" tableBorderDxfId="55" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A45:C50" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
     <sortCondition ref="A45:A50"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8C282437-5725-4450-98B8-52345604C1B8}" name="Iteration" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{FDFE7725-A109-42E9-9D36-FB6E7851F5AA}" name="Dice Score" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{FCE2B995-C997-4072-817E-1F89D4BF5E05}" name="Hausdorff Distance" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{8C282437-5725-4450-98B8-52345604C1B8}" name="Iteration" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{FDFE7725-A109-42E9-9D36-FB6E7851F5AA}" name="Dice Score" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{FCE2B995-C997-4072-817E-1F89D4BF5E05}" name="Hausdorff Distance" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="48" dataDxfId="16" headerRowBorderDxfId="50" tableBorderDxfId="51" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A54:C64" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C64">
     <sortCondition ref="A54:A64"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{807ADEC1-BDA7-41E3-8ABE-F75B7F1FF8B9}" name="Iteration" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{8AA33A74-4033-4307-9039-21C28EA58802}" name="Dice Score" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{0EB4CD20-1D14-47DC-8D82-310CBBEAE9FF}" name="Hausdorff Distance" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{807ADEC1-BDA7-41E3-8ABE-F75B7F1FF8B9}" name="Iteration" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{8AA33A74-4033-4307-9039-21C28EA58802}" name="Dice Score" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{0EB4CD20-1D14-47DC-8D82-310CBBEAE9FF}" name="Hausdorff Distance" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C73" totalsRowShown="0" headerRowDxfId="44" dataDxfId="12" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C73" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A68:C73" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:C73">
     <sortCondition ref="A68:A73"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B338A6E6-9803-43D8-BB91-85284C2EA5F0}" name="Iteration" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{79BDC265-4F0D-4265-86B8-ADA88F408442}" name="Dice Score" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{453BB242-4868-402B-8F1F-6E493000904A}" name="Hausdorff Distance" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B338A6E6-9803-43D8-BB91-85284C2EA5F0}" name="Iteration" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{79BDC265-4F0D-4265-86B8-ADA88F408442}" name="Dice Score" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{453BB242-4868-402B-8F1F-6E493000904A}" name="Hausdorff Distance" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A77:C82" totalsRowShown="0" headerRowDxfId="40" dataDxfId="8" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A77:C82" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A77:C82" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
     <sortCondition ref="A77:A82"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A86:C91" totalsRowShown="0" headerRowDxfId="36" dataDxfId="4" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A86:C91" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A86:C91" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C91">
     <sortCondition ref="A86:A91"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A95:C100" totalsRowShown="0" headerRowDxfId="32" dataDxfId="0" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A95:C100" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A95:C100" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:C100">
     <sortCondition ref="A95:A100"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2340,45 +3287,45 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="69" tableBorderDxfId="70" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="A18:C25" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C25">
     <sortCondition descending="1" ref="B18:B25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="60" dataDxfId="28" headerRowBorderDxfId="62" tableBorderDxfId="63" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A27:C34" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C34">
     <sortCondition descending="1" ref="B27:B34"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="56" dataDxfId="24" headerRowBorderDxfId="58" tableBorderDxfId="59" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="A36:C41" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
     <sortCondition descending="1" ref="B36:B41"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2687,12 +3634,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2700,7 +3647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2716,7 +3663,7 @@
         <v>1.2510259496342979E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2732,7 +3679,7 @@
         <v>3.9205137650218612E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2740,7 +3687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +3703,7 @@
         <v>0.18141858150684043</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2772,7 +3719,7 @@
         <v>0.6315852060160605</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2780,7 +3727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +3743,7 @@
         <v>9.511709742137027E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +3759,7 @@
         <v>2.569038231566314E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2820,7 +3767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2836,7 +3783,7 @@
         <v>0.21935888052727795</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2852,12 +3799,12 @@
         <v>0.17754690626965675</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2866,7 +3813,7 @@
         <v>0.73831284993915558</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +3822,7 @@
         <v>0.39625705698771296</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2884,7 +3831,7 @@
         <v>0.73789228846612565</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2893,12 +3840,12 @@
         <v>8.3169199108705419E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2907,7 +3854,7 @@
         <v>1.8361830828737818E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +3863,7 @@
         <v>6.0426543279582655E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2925,7 +3872,7 @@
         <v>3.3099555627477564E-12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2934,12 +3881,12 @@
         <v>2.9079273386444404E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2948,7 +3895,7 @@
         <v>1.6236105699244489E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2957,7 +3904,7 @@
         <v>0.10091238524975189</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2966,7 +3913,7 @@
         <v>6.1288711675184551E-10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2986,15 +3933,15 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3016,7 +3963,7 @@
         <v>15.8362</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3027,7 +3974,7 @@
         <v>20.207100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3038,7 +3985,7 @@
         <v>13.5512</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3049,7 +3996,7 @@
         <v>12.761100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3060,7 +4007,7 @@
         <v>15.4732</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3071,7 +4018,7 @@
         <v>18.6403</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3082,7 +4029,7 @@
         <v>15.3317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3093,7 +4040,7 @@
         <v>15.512</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3104,7 +4051,7 @@
         <v>14.584199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3115,7 +4062,7 @@
         <v>15.769600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3128,7 +4075,7 @@
         <v>15.766659999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3157,14 +4104,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +4122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3186,7 +4133,7 @@
         <v>0.42370000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3197,7 +4144,7 @@
         <v>0.41749999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3208,7 +4155,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3219,7 +4166,7 @@
         <v>0.22009999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3230,7 +4177,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3241,7 +4188,7 @@
         <v>0.32340000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3252,7 +4199,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3263,7 +4210,7 @@
         <v>0.4103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3274,7 +4221,7 @@
         <v>0.42749999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3285,7 +4232,7 @@
         <v>0.30159999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3298,7 +4245,7 @@
         <v>0.34517999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3327,12 +4274,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3343,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3354,7 +4301,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3365,7 +4312,7 @@
         <v>0.50919999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3376,7 +4323,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3387,7 +4334,7 @@
         <v>0.49719999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3398,7 +4345,7 @@
         <v>0.47889999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3409,7 +4356,7 @@
         <v>0.53469999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3420,7 +4367,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3431,7 +4378,7 @@
         <v>0.50580000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3442,7 +4389,7 @@
         <v>0.45660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3453,7 +4400,7 @@
         <v>0.49959999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +4413,7 @@
         <v>0.4889099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3495,12 +4442,12 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +4464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3534,7 +4481,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3551,7 +4498,7 @@
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3568,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3585,7 +4532,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3602,7 +4549,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3619,7 +4566,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3636,7 +4583,7 @@
         <v>0.18160000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3653,7 +4600,7 @@
         <v>0.52080000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3670,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3687,7 +4634,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3708,7 +4655,7 @@
         <v>0.38001999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3745,12 +4692,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3767,7 +4714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3784,7 +4731,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3801,7 +4748,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3818,7 +4765,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3835,7 +4782,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3852,7 +4799,7 @@
         <v>0.52449999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3869,7 +4816,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3886,7 +4833,7 @@
         <v>0.52410000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3903,7 +4850,7 @@
         <v>0.52249999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3920,7 +4867,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3937,7 +4884,7 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3958,7 +4905,7 @@
         <v>0.5202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3995,12 +4942,12 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="5" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4017,7 +4964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4034,7 +4981,7 @@
         <v>0.49490000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4051,7 +4998,7 @@
         <v>0.49740000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4068,7 +5015,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4085,7 +5032,7 @@
         <v>0.48080000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4102,7 +5049,7 @@
         <v>0.45129999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4119,7 +5066,7 @@
         <v>0.4834</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4136,7 +5083,7 @@
         <v>0.49640000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4153,7 +5100,7 @@
         <v>0.47849999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4170,7 +5117,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4187,7 +5134,7 @@
         <v>0.49669999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4208,7 +5155,7 @@
         <v>0.48183999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4240,23 +5187,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +5223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4296,7 +5243,7 @@
         <v>17.0245</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4316,7 +5263,7 @@
         <v>17.1648</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4336,7 +5283,7 @@
         <v>15.6084</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4356,7 +5303,7 @@
         <v>15.540100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4376,7 +5323,7 @@
         <v>16.856100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4396,7 +5343,7 @@
         <v>17.4953</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4416,7 +5363,7 @@
         <v>15.0158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4436,7 +5383,7 @@
         <v>17.284500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4456,7 +5403,7 @@
         <v>31.640699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4476,7 +5423,7 @@
         <v>18.0246</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4500,7 +5447,7 @@
         <v>18.165479999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -4524,7 +5471,7 @@
         <v>4.8327137809355598</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4532,7 +5479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -4546,88 +5493,88 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>0</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>0.253</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>70.4739</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>0.24560000000000001</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>82.251199999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>2</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>0.20669999999999999</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>76.764799999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>3</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>0.20430000000000001</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>82.526499999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>4</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>0.19350000000000001</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>100.0067</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <f>AVERAGE(B16:B23)</f>
         <v>0.22061999999999998</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <f>AVERAGE(C16:C23)</f>
         <v>82.404619999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <f>_xlfn.STDEV.S(B19:B24)</f>
         <v>2.3950231731655544E-2</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <f>_xlfn.STDEV.S(C19:C24)</f>
         <v>9.8389152055294371</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
@@ -4641,88 +5588,88 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
         <v>0</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>0.26850000000000002</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>38.649799999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
         <v>1</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>0.2681</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>41.766399999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>2</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="6">
         <v>0.26469999999999999</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>46.368699999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
         <v>3</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="6">
         <v>0.25690000000000002</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="6">
         <v>57.719799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
         <v>4</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="6">
         <v>0.2505</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>32.921500000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="6">
         <f>AVERAGE(B23:B32)</f>
         <v>0.21834627896645695</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="6">
         <f>AVERAGE(C23:C32)</f>
         <v>51.209554400691175</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <f>_xlfn.STDEV.S(B28:B33)</f>
         <v>1.9046528227549139E-2</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <f>_xlfn.STDEV.S(C28:C33)</f>
         <v>8.9284533318218777</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>0</v>
       </c>
@@ -4736,25 +5683,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
         <v>0</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="6">
         <v>0.47860000000000003</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="6">
         <v>16.1876</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
         <v>1</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="6">
         <v>0.26050000000000001</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="6">
         <v>35.795699999999997</v>
       </c>
       <c r="I38">
@@ -4772,67 +5719,112 @@
       <c r="M38">
         <v>0.85673999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="N38">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="O38">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="P38">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="Q38">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="R38">
+        <v>0.85673999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
         <v>2</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="6">
         <v>0.2571</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="6">
         <v>29.940899999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="I39">
+        <v>15.7667</v>
+      </c>
+      <c r="J39">
+        <v>15.7667</v>
+      </c>
+      <c r="K39">
+        <v>15.7667</v>
+      </c>
+      <c r="L39">
+        <v>15.7667</v>
+      </c>
+      <c r="M39">
+        <v>15.7667</v>
+      </c>
+      <c r="N39">
+        <v>15.7667</v>
+      </c>
+      <c r="O39">
+        <v>15.7667</v>
+      </c>
+      <c r="P39">
+        <v>15.7667</v>
+      </c>
+      <c r="Q39">
+        <v>15.7667</v>
+      </c>
+      <c r="R39">
+        <v>15.7667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
         <v>3</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="6">
         <v>0.25669999999999998</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="6">
         <v>34.3887</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
         <v>4</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="6">
         <v>0.24890000000000001</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="6">
         <v>46.819699999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="6">
         <f>AVERAGE(B37:B41)</f>
         <v>0.30036000000000007</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="6">
         <f>AVERAGE(C37:C41)</f>
         <v>32.626519999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <f>_xlfn.STDEV.S(B37:B41)</f>
         <v>9.9729724756463523E-2</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <f>_xlfn.STDEV.S(C37:C41)</f>
         <v>11.0910547772518</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>0</v>
       </c>
@@ -4846,88 +5838,88 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
         <v>0</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="6">
         <v>0.57669999999999999</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="6">
         <v>23.358699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
         <v>1</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="6">
         <v>0.44240000000000002</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="6">
         <v>20.8932</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
         <v>2</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="6">
         <v>0.439</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="6">
         <v>21.8781</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
         <v>3</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="6">
         <v>0.84009999999999996</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="6">
         <v>9.9643999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
         <v>4</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="6">
         <v>0.439</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="6">
         <v>25.486699999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="6">
         <f>AVERAGE(B46:B50)</f>
         <v>0.54744000000000004</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="6">
         <f>AVERAGE(C46:C50)</f>
         <v>20.316219999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <f>_xlfn.STDEV.S(B46:B50)</f>
         <v>0.17396687328339239</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <f>_xlfn.STDEV.S(C46:C50)</f>
         <v>6.0399317121139786</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>0</v>
       </c>
@@ -4941,143 +5933,143 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
         <v>0</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="6">
         <v>0.81659999999999999</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="6">
         <v>17.0245</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
         <v>1</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="6">
         <v>0.85340000000000005</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="6">
         <v>17.1648</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
         <v>2</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="6">
         <v>0.83699999999999997</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="6">
         <v>15.6084</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
         <v>3</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="6">
         <v>0.8246</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="6">
         <v>15.540100000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
         <v>4</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="6">
         <v>0.86250000000000004</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="6">
         <v>16.856100000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
         <v>5</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="6">
         <v>0.83589999999999998</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="6">
         <v>17.4953</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
         <v>6</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="6">
         <v>0.82840000000000003</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="6">
         <v>15.0158</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
         <v>7</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="6">
         <v>0.84860000000000002</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="6">
         <v>17.284500000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
         <v>8</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="6">
         <v>0.83979999999999999</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="6">
         <v>31.640699999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
         <v>9</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="6">
         <v>0.86319999999999997</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="6">
         <v>18.0246</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="6">
         <f>AVERAGE(B55:B64)</f>
         <v>0.84099999999999997</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="6">
         <f t="shared" ref="C65" si="4">AVERAGE(C55:C64)</f>
         <v>18.165479999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <f>_xlfn.STDEV.S(B55:B64)</f>
         <v>1.5752036905323289E-2</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="10">
         <f t="shared" ref="C66" si="5">_xlfn.STDEV.S(C55:C64)</f>
         <v>4.8327137809355598</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>0</v>
       </c>
@@ -5091,88 +6083,88 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
         <v>0</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="6">
         <v>0.84489999999999998</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="6">
         <v>10.6111</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
         <v>1</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="6">
         <v>0.78890000000000005</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="6">
         <v>11.936199999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
         <v>2</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="6">
         <v>0.45550000000000002</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="6">
         <v>13.663399999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
         <v>3</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="6">
         <v>0.72230000000000005</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="6">
         <v>13.081200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
         <v>4</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="6">
         <v>0.44869999999999999</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="6">
         <v>17.328399999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="6">
         <f>AVERAGE(B69:B73)</f>
         <v>0.65205999999999997</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="6">
         <f>AVERAGE(C69:C73)</f>
         <v>13.324059999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <f>_xlfn.STDEV.S(B69:B73)</f>
         <v>0.18764143465663469</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="10">
         <f>_xlfn.STDEV.S(C69:C73)</f>
         <v>2.5246375379448058</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>0</v>
       </c>
@@ -5186,88 +6178,88 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
         <v>0</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="6">
         <v>0.86780000000000002</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="6">
         <v>11.702999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
         <v>1</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="6">
         <v>0.85909999999999997</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="6">
         <v>9.4191000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
         <v>2</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="6">
         <v>0.88380000000000003</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="6">
         <v>10.1508</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
         <v>3</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="6">
         <v>0.86080000000000001</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="6">
         <v>15.7141</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
         <v>4</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="6">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="6">
         <v>12.8386</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="6">
         <f>AVERAGE(B78:B82)</f>
         <v>0.87209999999999999</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="6">
         <f>AVERAGE(C78:C82)</f>
         <v>11.965120000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="10">
         <f>_xlfn.STDEV.S(B78:B82)</f>
         <v>1.3580132547217658E-2</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="10">
         <f>_xlfn.STDEV.S(C78:C82)</f>
         <v>2.4829669826640859</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>0</v>
       </c>
@@ -5281,88 +6273,88 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
         <v>0</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="6">
         <v>0.86870000000000003</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="6">
         <v>16.116399999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
         <v>1</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="6">
         <v>0.45290000000000002</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="6">
         <v>20.9849</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="10">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
         <v>2</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="6">
         <v>0.4677</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="6">
         <v>17.2774</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="6">
         <v>3</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="6">
         <v>0.86719999999999997</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="6">
         <v>10.2127</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
         <v>4</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="6">
         <v>0.45319999999999999</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="6">
         <v>16.1006</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="6">
         <f>AVERAGE(B87:B91)</f>
         <v>0.62194000000000005</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="6">
         <f>AVERAGE(C87:C91)</f>
         <v>16.138399999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="10">
         <f>_xlfn.STDEV.S(B87:B91)</f>
         <v>0.22465565428005579</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="10">
         <f>_xlfn.STDEV.S(C87:C91)</f>
         <v>3.8698099623883366</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>0</v>
       </c>
@@ -5376,83 +6368,83 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="6">
         <v>0</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="6">
         <v>0.88619999999999999</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="6">
         <v>12.242000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
         <v>1</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="6">
         <v>0.90629999999999999</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="6">
         <v>7.6818999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="10">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="6">
         <v>2</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="6">
         <v>0.90539999999999998</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="6">
         <v>9.7201000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
         <v>3</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="6">
         <v>0.89590000000000003</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="6">
         <v>11.8787</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="10">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="6">
         <v>4</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="6">
         <v>0.90859999999999996</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="6">
         <v>12.665699999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="6">
         <f>AVERAGE(B96:B100)</f>
         <v>0.90047999999999995</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="6">
         <f>AVERAGE(C96:C100)</f>
         <v>10.837680000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="10">
         <f>_xlfn.STDEV.S(B96:B100)</f>
         <v>9.3395396032138443E-3</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="10">
         <f>_xlfn.STDEV.S(C96:C100)</f>
         <v>2.0979410673324392</v>
       </c>
@@ -5482,17 +6474,17 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5512,7 +6504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5532,7 +6524,7 @@
         <v>18.3917</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5552,7 +6544,7 @@
         <v>31.482299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5572,7 +6564,7 @@
         <v>32.652299999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -5592,7 +6584,7 @@
         <v>32.242800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5612,7 +6604,7 @@
         <v>27.710599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5632,7 +6624,7 @@
         <v>40.376300000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5652,7 +6644,7 @@
         <v>31.841899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5672,7 +6664,7 @@
         <v>25.587199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5692,7 +6684,7 @@
         <v>16.2973</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5712,7 +6704,7 @@
         <v>22.040900000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -5736,7 +6728,7 @@
         <v>27.862330000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -5760,7 +6752,7 @@
         <v>7.3801834712288725</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmo276\Documents\GitHub\CTLiverSegmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F15711-7A8C-4FB2-9375-473BF9F3F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EA2A62-B49A-4FC9-9919-573E37FC0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -23,28 +23,17 @@
     <sheet name="Class-Based Contrastive" sheetId="10" r:id="rId8"/>
     <sheet name="Scan-Based Contrastive" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="37">
   <si>
     <t>Iteration</t>
   </si>
@@ -130,9 +119,6 @@
     <t>Full Data</t>
   </si>
   <si>
-    <t>Reduced Data (45% of total)</t>
-  </si>
-  <si>
     <t>1 scan</t>
   </si>
   <si>
@@ -215,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -265,11 +251,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -281,11 +280,1036 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="143">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1341,31 +2365,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.22061999999999998</c:v>
+                  <c:v>0.22248000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21834627896645695</c:v>
+                  <c:v>0.21940962882495835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30036000000000007</c:v>
+                  <c:v>0.29809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84099999999999997</c:v>
+                  <c:v>0.84058999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65205999999999997</c:v>
+                  <c:v>0.65093999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87209999999999999</c:v>
+                  <c:v>0.87220000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62194000000000005</c:v>
+                  <c:v>0.62063999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90047999999999995</c:v>
+                  <c:v>0.90028000000000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9073500000000001</c:v>
+                  <c:v>0.90724000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,34 +2680,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>82.404619999999994</c:v>
+                  <c:v>82.569220000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.209554400691175</c:v>
+                  <c:v>46.596487019175001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.626519999999999</c:v>
+                  <c:v>29.143579999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.316219999999998</c:v>
+                  <c:v>15.926460000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.165479999999999</c:v>
+                  <c:v>16.649740000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.324059999999999</c:v>
+                  <c:v>9.2151399999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.965120000000001</c:v>
+                  <c:v>9.4303599999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.138399999999997</c:v>
+                  <c:v>11.739140000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.837680000000001</c:v>
+                  <c:v>8.1297999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.468720000000001</c:v>
+                  <c:v>8.8800000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,90 +4155,150 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
   <autoFilter ref="A45:C50" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
     <sortCondition ref="A45:A50"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8C282437-5725-4450-98B8-52345604C1B8}" name="Iteration" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{FDFE7725-A109-42E9-9D36-FB6E7851F5AA}" name="Dice Score" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{FCE2B995-C997-4072-817E-1F89D4BF5E05}" name="Hausdorff Distance" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{8C282437-5725-4450-98B8-52345604C1B8}" name="Iteration" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{FDFE7725-A109-42E9-9D36-FB6E7851F5AA}" name="Dice Score" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{FCE2B995-C997-4072-817E-1F89D4BF5E05}" name="Hausdorff Distance" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <autoFilter ref="A54:C64" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C64">
     <sortCondition ref="A54:A64"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{807ADEC1-BDA7-41E3-8ABE-F75B7F1FF8B9}" name="Iteration" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{8AA33A74-4033-4307-9039-21C28EA58802}" name="Dice Score" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{0EB4CD20-1D14-47DC-8D82-310CBBEAE9FF}" name="Hausdorff Distance" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{807ADEC1-BDA7-41E3-8ABE-F75B7F1FF8B9}" name="Iteration" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{8AA33A74-4033-4307-9039-21C28EA58802}" name="Dice Score" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{0EB4CD20-1D14-47DC-8D82-310CBBEAE9FF}" name="Hausdorff Distance" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C73" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C73" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
   <autoFilter ref="A68:C73" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:C73">
     <sortCondition ref="A68:A73"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B338A6E6-9803-43D8-BB91-85284C2EA5F0}" name="Iteration" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{79BDC265-4F0D-4265-86B8-ADA88F408442}" name="Dice Score" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{453BB242-4868-402B-8F1F-6E493000904A}" name="Hausdorff Distance" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{B338A6E6-9803-43D8-BB91-85284C2EA5F0}" name="Iteration" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{79BDC265-4F0D-4265-86B8-ADA88F408442}" name="Dice Score" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{453BB242-4868-402B-8F1F-6E493000904A}" name="Hausdorff Distance" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A77:C82" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A77:C82" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
   <autoFilter ref="A77:C82" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
     <sortCondition ref="A77:A82"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A86:C91" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A86:C91" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="A86:C91" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C91">
     <sortCondition ref="A86:A91"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A95:C100" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A95:C100" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A95:C100" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:C100">
     <sortCondition ref="A95:A100"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}" name="Table1126" displayName="Table1126" ref="A18:C23" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowBorderDxfId="68" tableBorderDxfId="69" totalsRowBorderDxfId="67">
+  <autoFilter ref="A18:C23" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C23">
+    <sortCondition ref="A18:A23"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4F637688-AA99-4296-B478-966FD5ED9C08}" name="Iteration" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{8FDB03A6-76C2-4600-8489-35C46F2DA9A2}" name="Dice Score" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{A41D579A-33CE-4B5B-81C2-F7B8415EA336}" name="Hausdorff Distance" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
+  <autoFilter ref="A27:C32" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C32">
+    <sortCondition ref="A27:A32"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{788DA027-4758-45B7-A325-3B27EC92CC49}" name="Iteration" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{257FE13F-90B0-4E7F-84EA-3FA1DF74F7CB}" name="Dice Score" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{DE5F4771-E359-46A1-B6F2-FBB5418DBCFB}" name="Hausdorff Distance" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}" name="Table1128" displayName="Table1128" ref="A36:C41" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+  <autoFilter ref="A36:C41" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
+    <sortCondition ref="A36:A41"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{77B2ECDA-9A50-494E-8BAD-0618CAA31C54}" name="Iteration" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{9975496E-D29C-4B59-B663-811B515C87BC}" name="Dice Score" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{9AB8C43F-C7E6-4A40-A980-63B57E5BCB3A}" name="Hausdorff Distance" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}" name="Table1129" displayName="Table1129" ref="A45:C50" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowBorderDxfId="44" tableBorderDxfId="45" totalsRowBorderDxfId="43">
+  <autoFilter ref="A45:C50" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
+    <sortCondition ref="A45:A50"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{71EA642A-81F9-4F19-B3D8-E11889135445}" name="Iteration" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{4C2FAD98-E434-492D-8418-3160E738D28A}" name="Dice Score" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{F74DAC32-9886-460E-815B-1BDD2FFAD405}" name="Hausdorff Distance" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3227,6 +4311,81 @@
     <tableColumn id="1" xr3:uid="{936F31B2-61A2-4E97-8220-1E7FE1902A15}" name="Iteration"/>
     <tableColumn id="4" xr3:uid="{0832F3AB-7C27-4062-89AD-82F1637522AA}" name="Classification Accuracy"/>
     <tableColumn id="5" xr3:uid="{A5E9E0CE-1256-4002-BC45-327C677DE572}" name="Classification F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}" name="Table1130" displayName="Table1130" ref="A54:C59" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+  <autoFilter ref="A54:C59" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C59">
+    <sortCondition ref="A54:A59"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7D2424F2-7AA2-410B-936F-34A1E0906F68}" name="Iteration" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{F82397EE-88A3-40F6-836E-9E40941060F5}" name="Dice Score" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{AD7759CE-AF8B-4E3E-B459-02A928FC4F39}" name="Hausdorff Distance" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C68" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+  <autoFilter ref="A63:C68" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:C68">
+    <sortCondition ref="A63:A68"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B3041A79-D11C-47C9-902B-718EB7EA3CBF}" name="Iteration" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{E0B6645D-B230-4295-80E4-EFA9DA6B436A}" name="Dice Score" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{E105A377-DB01-4DCD-9EB0-409736A5AF26}" name="Hausdorff Distance" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A72:C77" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+  <autoFilter ref="A72:C77" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A73:C77">
+    <sortCondition ref="A72:A77"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FC7AF66C-1D33-4794-A392-30E2A04202FA}" name="Iteration" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{04489E56-FA6B-4E7E-B842-8B24E2A21DB0}" name="Dice Score" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{5F966FED-658B-4605-8BCE-271816C165A8}" name="Hausdorff Distance" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A81:C91" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="A81:C91" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:C91">
+    <sortCondition ref="A81:A91"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1A31E0C1-D4B8-4568-A44D-8D04BD44783A}" name="Iteration" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{416F10C1-B76C-4601-B65B-40A110D3DD55}" name="Dice Score" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{5F8FAE4E-8291-4937-AE7A-337ED4424B21}" name="Hausdorff Distance" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A95:C100" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A95:C100" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:C100">
+    <sortCondition ref="A95:A100"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{20A333EC-E398-4A1A-A4A0-BE461E976A4E}" name="Iteration" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7053D4D9-DB8B-4FAA-B15D-63C7F0EBE19C}" name="Dice Score" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E11197D4-30F5-49DF-893D-E7826C383D38}" name="Hausdorff Distance" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3287,45 +4446,45 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="142" headerRowBorderDxfId="141" tableBorderDxfId="140" totalsRowBorderDxfId="139">
   <autoFilter ref="A18:C25" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C25">
     <sortCondition descending="1" ref="B18:B25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
   <autoFilter ref="A27:C34" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C34">
     <sortCondition descending="1" ref="B27:B34"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
   <autoFilter ref="A36:C41" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
     <sortCondition descending="1" ref="B36:B41"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3631,15 +4790,15 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3647,39 +4806,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7">
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Joint Training'!B2:B11, 2, 3)</f>
-        <v>5.1324157658476184E-3</v>
+        <v>9.1458862499071512E-3</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="7">
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Class-Based Contrastive'!B2:B11, 2, 3)</f>
-        <v>1.2510259496342979E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2.1692341020528665E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7">
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Joint Training'!C2:C11, 2, 3)</f>
-        <v>3.4874496226879902E-2</v>
+        <v>0.72513468078881282</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="7">
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Class-Based Contrastive'!C2:C11, 2, 3)</f>
-        <v>3.9205137650218612E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5.8424882350089496E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3687,39 +4846,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Progressive Pre-Training'!B2:B11, 2, 1)</f>
-        <v>0.79373951790732544</v>
+        <v>0.5829118463338625</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="H6">
         <f>_xlfn.T.TEST('Joint Training'!B2:B11, 'Class-Based Contrastive'!B2:B11, 2, 3)</f>
-        <v>0.18141858150684043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.18661098798343137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Progressive Pre-Training'!C2:C11, 2, 1)</f>
-        <v>0.39506537083754378</v>
+        <v>5.7872200131117699E-2</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="H7">
         <f>_xlfn.T.TEST('Joint Training'!C2:C11, 'Class-Based Contrastive'!C2:C11, 2, 3)</f>
-        <v>0.6315852060160605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.7868698199935276E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3727,39 +4886,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Standard Pre-Training'!B2:B11, 2, 1)</f>
-        <v>0.93206183606003201</v>
+        <v>0.92413085496334391</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="H10">
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Scan-Based Contrastive'!B2:B11, 2, 3)</f>
-        <v>9.511709742137027E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.15356122450171167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Standard Pre-Training'!C2:C11, 2, 1)</f>
-        <v>0.9854985916873148</v>
+        <v>7.9424225607489435E-2</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="H11">
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Scan-Based Contrastive'!C2:C11, 2, 3)</f>
-        <v>2.569038231566314E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.5228305341677415E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3767,7 +4926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3780,10 +4939,10 @@
       </c>
       <c r="H14">
         <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Class-Based Contrastive'!F2:F11, 2, 3)</f>
-        <v>0.21935888052727795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.1378160273445807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3796,15 +4955,15 @@
       </c>
       <c r="H15">
         <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Class-Based Contrastive'!G2:G11, 2, 3)</f>
-        <v>0.17754690626965675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.0465694292498168E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3813,7 +4972,7 @@
         <v>0.73831284993915558</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3822,7 +4981,7 @@
         <v>0.39625705698771296</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +4990,7 @@
         <v>0.73789228846612565</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3840,12 +4999,12 @@
         <v>8.3169199108705419E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3854,7 +5013,7 @@
         <v>1.8361830828737818E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -3863,7 +5022,7 @@
         <v>6.0426543279582655E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3872,7 +5031,7 @@
         <v>3.3099555627477564E-12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -3881,12 +5040,12 @@
         <v>2.9079273386444404E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +5054,7 @@
         <v>1.6236105699244489E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3904,7 +5063,7 @@
         <v>0.10091238524975189</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3913,7 +5072,7 @@
         <v>6.1288711675184551E-10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3936,12 +5095,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3952,140 +5111,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.80669999999999997</v>
+        <v>0.80830000000000002</v>
       </c>
       <c r="C2">
-        <v>15.8362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12.4811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.85150000000000003</v>
+        <v>0.84889999999999999</v>
       </c>
       <c r="C3">
-        <v>20.207100000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18.1188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.82230000000000003</v>
+        <v>0.82089999999999996</v>
       </c>
       <c r="C4">
-        <v>13.5512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14.4457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.90469999999999995</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="C5">
-        <v>12.761100000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.4281000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.89949999999999997</v>
+        <v>0.8972</v>
       </c>
       <c r="C6">
-        <v>15.4732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11.369199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.81540000000000001</v>
+        <v>0.81379999999999997</v>
       </c>
       <c r="C7">
-        <v>18.6403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14.436400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.87629999999999997</v>
+        <v>0.87390000000000001</v>
       </c>
       <c r="C8">
-        <v>15.3317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11.395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.86309999999999998</v>
+        <v>0.86070000000000002</v>
       </c>
       <c r="C9">
-        <v>15.512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12.7692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.88649999999999995</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="C10">
-        <v>14.584199999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10.6675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.84140000000000004</v>
+        <v>0.89</v>
       </c>
       <c r="C11">
-        <v>15.769600000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12.586499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.85673999999999995</v>
+        <v>0.86007</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
-        <v>15.766659999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12.76975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13">
         <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>3.5117523324466417E-2</v>
+        <v>3.5496104637614039E-2</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>2.2025284703419223</v>
+        <v>2.4438886105048887</v>
       </c>
     </row>
   </sheetData>
@@ -4104,14 +5263,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +5281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4133,7 +5292,7 @@
         <v>0.42370000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4144,7 +5303,7 @@
         <v>0.41749999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4155,7 +5314,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4166,7 +5325,7 @@
         <v>0.22009999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4177,7 +5336,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4188,7 +5347,7 @@
         <v>0.32340000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4199,7 +5358,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4210,7 +5369,7 @@
         <v>0.4103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4221,7 +5380,7 @@
         <v>0.42749999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4232,7 +5391,7 @@
         <v>0.30159999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4245,7 +5404,7 @@
         <v>0.34517999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4274,12 +5433,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4290,7 +5449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4301,7 +5460,7 @@
         <v>0.38090000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4312,7 +5471,7 @@
         <v>0.50919999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4323,7 +5482,7 @@
         <v>0.50380000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4334,7 +5493,7 @@
         <v>0.49719999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4345,7 +5504,7 @@
         <v>0.47889999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4356,7 +5515,7 @@
         <v>0.53469999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4367,7 +5526,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4378,7 +5537,7 @@
         <v>0.50580000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4389,7 +5548,7 @@
         <v>0.45660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4400,7 +5559,7 @@
         <v>0.49959999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4413,7 +5572,7 @@
         <v>0.4889099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4442,12 +5601,12 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4464,7 +5623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4481,7 +5640,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4498,7 +5657,7 @@
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4515,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4532,7 +5691,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4549,7 +5708,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4566,7 +5725,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4583,7 +5742,7 @@
         <v>0.18160000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4600,7 +5759,7 @@
         <v>0.52080000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4617,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4634,7 +5793,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4655,7 +5814,7 @@
         <v>0.38001999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4692,12 +5851,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4714,7 +5873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4731,7 +5890,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4748,7 +5907,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4765,7 +5924,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4782,7 +5941,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4799,7 +5958,7 @@
         <v>0.52449999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4816,7 +5975,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4833,7 +5992,7 @@
         <v>0.52410000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4850,7 +6009,7 @@
         <v>0.52249999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4867,7 +6026,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4884,7 +6043,7 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4905,7 +6064,7 @@
         <v>0.5202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4942,12 +6101,12 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.7265625" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +6123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4981,7 +6140,7 @@
         <v>0.49490000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4998,7 +6157,7 @@
         <v>0.49740000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5015,7 +6174,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5032,7 +6191,7 @@
         <v>0.48080000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5049,7 +6208,7 @@
         <v>0.45129999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5066,7 +6225,7 @@
         <v>0.4834</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5083,7 +6242,7 @@
         <v>0.49640000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5100,7 +6259,7 @@
         <v>0.47849999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5117,7 +6276,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5134,7 +6293,7 @@
         <v>0.49669999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5155,7 +6314,7 @@
         <v>0.48183999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -5189,21 +6348,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5223,87 +6382,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.90149999999999997</v>
+        <v>0.90129999999999999</v>
       </c>
       <c r="C2" s="4">
-        <v>13.6275</v>
+        <v>10.3193</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
-        <v>0.81659999999999999</v>
-      </c>
-      <c r="G2" s="4">
-        <v>17.0245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2" s="11">
+        <v>0.81620000000000004</v>
+      </c>
+      <c r="G2" s="12">
+        <v>16.009399999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>0.89570000000000005</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="C3" s="6">
-        <v>10.0221</v>
+        <v>9.2294999999999998</v>
       </c>
       <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="G3" s="6">
-        <v>17.1648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="13">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="G3" s="14">
+        <v>15.129899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.90949999999999998</v>
+        <v>0.9093</v>
       </c>
       <c r="C4" s="4">
-        <v>11.6205</v>
+        <v>7.6714000000000002</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G4" s="4">
-        <v>15.6084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="11">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="G4" s="12">
+        <v>13.9666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>0.90169999999999995</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="C5" s="6">
-        <v>16.0549</v>
+        <v>10.7669</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="6">
-        <v>0.8246</v>
-      </c>
-      <c r="G5" s="6">
-        <v>15.540100000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="13">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="G5" s="14">
+        <v>14.4506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5311,39 +6470,39 @@
         <v>0.91120000000000001</v>
       </c>
       <c r="C6" s="4">
-        <v>12.0365</v>
+        <v>9.7096</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="4">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="G6" s="4">
-        <v>16.856100000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="11">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="G6" s="12">
+        <v>15.7645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>0.9274</v>
+        <v>0.92730000000000001</v>
       </c>
       <c r="C7" s="6">
-        <v>9.3767999999999994</v>
+        <v>7.6901000000000002</v>
       </c>
       <c r="E7" s="5">
         <v>6</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.83589999999999998</v>
-      </c>
-      <c r="G7" s="6">
-        <v>17.4953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="13">
+        <v>0.8357</v>
+      </c>
+      <c r="G7" s="14">
+        <v>15.1104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5351,19 +6510,19 @@
         <v>0.90490000000000004</v>
       </c>
       <c r="C8" s="4">
-        <v>8.7723999999999993</v>
+        <v>8.7131000000000007</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="F8" s="4">
-        <v>0.82840000000000003</v>
-      </c>
-      <c r="G8" s="4">
-        <v>15.0158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="11">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G8" s="12">
+        <v>14.149800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5371,107 +6530,107 @@
         <v>0.90939999999999999</v>
       </c>
       <c r="C9" s="6">
-        <v>12.695</v>
+        <v>8.1837999999999997</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
       </c>
-      <c r="F9" s="6">
-        <v>0.84860000000000002</v>
-      </c>
-      <c r="G9" s="6">
-        <v>17.284500000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="13">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="G9" s="14">
+        <v>16.365400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.91279999999999994</v>
+        <v>0.91259999999999997</v>
       </c>
       <c r="C10" s="4">
-        <v>9.9344999999999999</v>
+        <v>9.7865000000000002</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.83979999999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>31.640699999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="11">
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="G10" s="12">
+        <v>30.1952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>0.89939999999999998</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="C11" s="6">
-        <v>10.547000000000001</v>
+        <v>6.7298</v>
       </c>
       <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="G11" s="6">
-        <v>18.0246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="13">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="G11" s="14">
+        <v>15.355600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.9073500000000001</v>
+        <v>0.90724000000000005</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
-        <v>11.468720000000001</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="4">
         <f>AVERAGE(F2:F11)</f>
-        <v>0.84099999999999997</v>
+        <v>0.84058999999999995</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
-        <v>18.165479999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16.649740000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="6">
         <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>8.9840908771499414E-3</v>
+        <v>9.0010122887496605E-3</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" ref="C13" si="2">_xlfn.STDEV.S(C2:C11)</f>
-        <v>2.2232341566085916</v>
+        <v>1.3028426535848312</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="6">
         <f>_xlfn.STDEV.S(F2:F11)</f>
-        <v>1.5752036905323289E-2</v>
+        <v>1.5752139184532634E-2</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" ref="G13" si="3">_xlfn.STDEV.S(G2:G11)</f>
-        <v>4.8327137809355598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.8234779709251283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5479,7 +6638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -5490,91 +6649,91 @@
         <v>2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0</v>
       </c>
       <c r="B19" s="6">
-        <v>0.253</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="C19" s="6">
-        <v>70.4739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>84.214699999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
       <c r="B20" s="6">
-        <v>0.24560000000000001</v>
+        <v>0.20669999999999999</v>
       </c>
       <c r="C20" s="6">
-        <v>82.251199999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70.755099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
       <c r="B21" s="6">
-        <v>0.20669999999999999</v>
+        <v>0.19359999999999999</v>
       </c>
       <c r="C21" s="6">
-        <v>76.764799999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100.5758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>3</v>
       </c>
       <c r="B22" s="6">
-        <v>0.20430000000000001</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="C22" s="6">
-        <v>82.526499999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>73.126300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>4</v>
       </c>
       <c r="B23" s="6">
-        <v>0.19350000000000001</v>
+        <v>0.2044</v>
       </c>
       <c r="C23" s="6">
-        <v>100.0067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>84.174199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="6">
         <f>AVERAGE(B16:B23)</f>
-        <v>0.22061999999999998</v>
+        <v>0.22248000000000001</v>
       </c>
       <c r="C24" s="6">
         <f>AVERAGE(C16:C23)</f>
-        <v>82.404619999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>82.569220000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="10">
         <f>_xlfn.STDEV.S(B19:B24)</f>
-        <v>2.3950231731655544E-2</v>
+        <v>2.5997030599666616E-2</v>
       </c>
       <c r="C25" s="10">
         <f>_xlfn.STDEV.S(C19:C24)</f>
-        <v>9.8389152055294371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10.566576153399973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
@@ -5585,91 +6744,91 @@
         <v>2</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0</v>
       </c>
       <c r="B28" s="6">
-        <v>0.26850000000000002</v>
+        <v>0.26379999999999998</v>
       </c>
       <c r="C28" s="6">
-        <v>38.649799999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40.696899999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
       <c r="B29" s="6">
-        <v>0.2681</v>
+        <v>0.26719999999999999</v>
       </c>
       <c r="C29" s="6">
-        <v>41.766399999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37.058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2</v>
       </c>
       <c r="B30" s="6">
-        <v>0.26469999999999999</v>
+        <v>0.26629999999999998</v>
       </c>
       <c r="C30" s="6">
-        <v>46.368699999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36.590899999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>3</v>
       </c>
       <c r="B31" s="6">
-        <v>0.25690000000000002</v>
+        <v>0.24929999999999999</v>
       </c>
       <c r="C31" s="6">
-        <v>57.719799999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27.7348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>4</v>
       </c>
       <c r="B32" s="6">
-        <v>0.2505</v>
+        <v>0.25580000000000003</v>
       </c>
       <c r="C32" s="6">
-        <v>32.921500000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+        <v>53.381300000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="6">
         <f>AVERAGE(B23:B32)</f>
-        <v>0.21834627896645695</v>
+        <v>0.21940962882495835</v>
       </c>
       <c r="C33" s="6">
         <f>AVERAGE(C23:C32)</f>
-        <v>51.209554400691175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+        <v>46.596487019175001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="10">
         <f>_xlfn.STDEV.S(B28:B33)</f>
-        <v>1.9046528227549139E-2</v>
+        <v>1.8125088452454016E-2</v>
       </c>
       <c r="C34" s="10">
         <f>_xlfn.STDEV.S(C28:C33)</f>
-        <v>8.9284533318218777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+        <v>8.8663949677873646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>0</v>
       </c>
@@ -5680,29 +6839,29 @@
         <v>2</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>0</v>
       </c>
       <c r="B37" s="6">
-        <v>0.47860000000000003</v>
+        <v>0.2465</v>
       </c>
       <c r="C37" s="6">
-        <v>16.1876</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45.358499999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>1</v>
       </c>
       <c r="B38" s="6">
-        <v>0.26050000000000001</v>
+        <v>0.4768</v>
       </c>
       <c r="C38" s="6">
-        <v>35.795699999999997</v>
+        <v>15.576700000000001</v>
       </c>
       <c r="I38">
         <v>0.85673999999999995</v>
@@ -5735,15 +6894,15 @@
         <v>0.85673999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2</v>
       </c>
       <c r="B39" s="6">
-        <v>0.2571</v>
+        <v>0.25440000000000002</v>
       </c>
       <c r="C39" s="6">
-        <v>29.940899999999999</v>
+        <v>28.1919</v>
       </c>
       <c r="I39">
         <v>15.7667</v>
@@ -5776,55 +6935,55 @@
         <v>15.7667</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>3</v>
       </c>
       <c r="B40" s="6">
-        <v>0.25669999999999998</v>
+        <v>0.2581</v>
       </c>
       <c r="C40" s="6">
-        <v>34.3887</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+        <v>28.876200000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>4</v>
       </c>
       <c r="B41" s="6">
-        <v>0.24890000000000001</v>
+        <v>0.25469999999999998</v>
       </c>
       <c r="C41" s="6">
-        <v>46.819699999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+        <v>27.714600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="6">
         <f>AVERAGE(B37:B41)</f>
-        <v>0.30036000000000007</v>
+        <v>0.29809999999999998</v>
       </c>
       <c r="C42" s="6">
         <f>AVERAGE(C37:C41)</f>
-        <v>32.626519999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+        <v>29.143579999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="10">
         <f>_xlfn.STDEV.S(B37:B41)</f>
-        <v>9.9729724756463523E-2</v>
+        <v>9.9986874138558821E-2</v>
       </c>
       <c r="C43" s="10">
         <f>_xlfn.STDEV.S(C37:C41)</f>
-        <v>11.0910547772518</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+        <v>10.60663747692926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>0</v>
       </c>
@@ -5835,91 +6994,91 @@
         <v>2</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>0</v>
       </c>
       <c r="B46" s="6">
-        <v>0.57669999999999999</v>
+        <v>0.57530000000000003</v>
       </c>
       <c r="C46" s="6">
-        <v>23.358699999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+        <v>19.268000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>1</v>
       </c>
       <c r="B47" s="6">
-        <v>0.44240000000000002</v>
+        <v>0.44069999999999998</v>
       </c>
       <c r="C47" s="6">
-        <v>20.8932</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+        <v>16.613600000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2</v>
       </c>
       <c r="B48" s="6">
-        <v>0.439</v>
+        <v>0.43740000000000001</v>
       </c>
       <c r="C48" s="6">
-        <v>21.8781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16.3156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>3</v>
       </c>
       <c r="B49" s="6">
-        <v>0.84009999999999996</v>
+        <v>0.83960000000000001</v>
       </c>
       <c r="C49" s="6">
-        <v>9.9643999999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10.2676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>4</v>
       </c>
       <c r="B50" s="6">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="C50" s="6">
-        <v>25.486699999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17.1675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="6">
         <f>AVERAGE(B46:B50)</f>
-        <v>0.54744000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C51" s="6">
         <f>AVERAGE(C46:C50)</f>
-        <v>20.316219999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.926460000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="10">
         <f>_xlfn.STDEV.S(B46:B50)</f>
-        <v>0.17396687328339239</v>
+        <v>0.17451540046654904</v>
       </c>
       <c r="C52" s="10">
         <f>_xlfn.STDEV.S(C46:C50)</f>
-        <v>6.0399317121139786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.3672079558589587</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>0</v>
       </c>
@@ -5930,146 +7089,146 @@
         <v>2</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>0</v>
       </c>
       <c r="B55" s="6">
-        <v>0.81659999999999999</v>
+        <v>0.81620000000000004</v>
       </c>
       <c r="C55" s="6">
-        <v>17.0245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16.009399999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>1</v>
       </c>
       <c r="B56" s="6">
-        <v>0.85340000000000005</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="C56" s="6">
-        <v>17.1648</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.129899999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>2</v>
       </c>
       <c r="B57" s="6">
-        <v>0.83699999999999997</v>
+        <v>0.83660000000000001</v>
       </c>
       <c r="C57" s="6">
-        <v>15.6084</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13.9666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>3</v>
       </c>
       <c r="B58" s="6">
-        <v>0.8246</v>
+        <v>0.82410000000000005</v>
       </c>
       <c r="C58" s="6">
-        <v>15.540100000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14.4506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>4</v>
       </c>
       <c r="B59" s="6">
-        <v>0.86250000000000004</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="C59" s="6">
-        <v>16.856100000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.7645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>5</v>
       </c>
       <c r="B60" s="6">
-        <v>0.83589999999999998</v>
+        <v>0.8357</v>
       </c>
       <c r="C60" s="6">
-        <v>17.4953</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.1104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>6</v>
       </c>
       <c r="B61" s="6">
-        <v>0.82840000000000003</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="C61" s="6">
-        <v>15.0158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14.149800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>7</v>
       </c>
       <c r="B62" s="6">
-        <v>0.84860000000000002</v>
+        <v>0.84809999999999997</v>
       </c>
       <c r="C62" s="6">
-        <v>17.284500000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16.365400000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>8</v>
       </c>
       <c r="B63" s="6">
-        <v>0.83979999999999999</v>
+        <v>0.83930000000000005</v>
       </c>
       <c r="C63" s="6">
-        <v>31.640699999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>30.1952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>9</v>
       </c>
       <c r="B64" s="6">
-        <v>0.86319999999999997</v>
+        <v>0.86280000000000001</v>
       </c>
       <c r="C64" s="6">
-        <v>18.0246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15.355600000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="6">
         <f>AVERAGE(B55:B64)</f>
-        <v>0.84099999999999997</v>
+        <v>0.84058999999999995</v>
       </c>
       <c r="C65" s="6">
         <f t="shared" ref="C65" si="4">AVERAGE(C55:C64)</f>
-        <v>18.165479999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16.649740000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="10">
         <f>_xlfn.STDEV.S(B55:B64)</f>
-        <v>1.5752036905323289E-2</v>
+        <v>1.5752139184532634E-2</v>
       </c>
       <c r="C66" s="10">
         <f t="shared" ref="C66" si="5">_xlfn.STDEV.S(C55:C64)</f>
-        <v>4.8327137809355598</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4.8234779709251283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>0</v>
       </c>
@@ -6080,91 +7239,91 @@
         <v>2</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>0</v>
       </c>
       <c r="B69" s="6">
-        <v>0.84489999999999998</v>
+        <v>0.84470000000000001</v>
       </c>
       <c r="C69" s="6">
-        <v>10.6111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.7220000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>1</v>
       </c>
       <c r="B70" s="6">
-        <v>0.78890000000000005</v>
+        <v>0.7883</v>
       </c>
       <c r="C70" s="6">
-        <v>11.936199999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.5855999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>2</v>
       </c>
       <c r="B71" s="6">
-        <v>0.45550000000000002</v>
+        <v>0.4536</v>
       </c>
       <c r="C71" s="6">
-        <v>13.663399999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.2446000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>3</v>
       </c>
       <c r="B72" s="6">
-        <v>0.72230000000000005</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="C72" s="6">
-        <v>13.081200000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.9520999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>4</v>
       </c>
       <c r="B73" s="6">
-        <v>0.44869999999999999</v>
+        <v>0.44669999999999999</v>
       </c>
       <c r="C73" s="6">
-        <v>17.328399999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13.571400000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="6">
         <f>AVERAGE(B69:B73)</f>
-        <v>0.65205999999999997</v>
+        <v>0.65093999999999996</v>
       </c>
       <c r="C74" s="6">
         <f>AVERAGE(C69:C73)</f>
-        <v>13.324059999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.2151399999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B75" s="10">
         <f>_xlfn.STDEV.S(B69:B73)</f>
-        <v>0.18764143465663469</v>
+        <v>0.18843591218236572</v>
       </c>
       <c r="C75" s="10">
         <f>_xlfn.STDEV.S(C69:C73)</f>
-        <v>2.5246375379448058</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.4566240449039065</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>0</v>
       </c>
@@ -6175,91 +7334,91 @@
         <v>2</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>0</v>
       </c>
       <c r="B78" s="6">
-        <v>0.86780000000000002</v>
+        <v>0.86760000000000004</v>
       </c>
       <c r="C78" s="6">
-        <v>11.702999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.4753000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>1</v>
       </c>
       <c r="B79" s="6">
-        <v>0.85909999999999997</v>
+        <v>0.85870000000000002</v>
       </c>
       <c r="C79" s="6">
-        <v>9.4191000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8.1913</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>2</v>
       </c>
       <c r="B80" s="6">
-        <v>0.88380000000000003</v>
+        <v>0.88360000000000005</v>
       </c>
       <c r="C80" s="6">
-        <v>10.1508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.8522999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>3</v>
       </c>
       <c r="B81" s="6">
-        <v>0.86080000000000001</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="C81" s="6">
-        <v>15.7141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10.5457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>4</v>
       </c>
       <c r="B82" s="6">
-        <v>0.88900000000000001</v>
+        <v>0.88870000000000005</v>
       </c>
       <c r="C82" s="6">
-        <v>12.8386</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>12.087199999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="6">
         <f>AVERAGE(B78:B82)</f>
-        <v>0.87209999999999999</v>
+        <v>0.87220000000000009</v>
       </c>
       <c r="C83" s="6">
         <f>AVERAGE(C78:C82)</f>
-        <v>11.965120000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9.4303599999999985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B84" s="10">
         <f>_xlfn.STDEV.S(B78:B82)</f>
-        <v>1.3580132547217658E-2</v>
+        <v>1.3244432792686904E-2</v>
       </c>
       <c r="C84" s="10">
         <f>_xlfn.STDEV.S(C78:C82)</f>
-        <v>2.4829669826640859</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.8193724709360668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>0</v>
       </c>
@@ -6270,91 +7429,91 @@
         <v>2</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>0</v>
       </c>
       <c r="B87" s="6">
-        <v>0.86870000000000003</v>
+        <v>0.86829999999999996</v>
       </c>
       <c r="C87" s="6">
-        <v>16.116399999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>12.8901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>1</v>
       </c>
       <c r="B88" s="6">
-        <v>0.45290000000000002</v>
+        <v>0.45090000000000002</v>
       </c>
       <c r="C88" s="6">
-        <v>20.9849</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14.0901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>2</v>
       </c>
       <c r="B89" s="6">
-        <v>0.4677</v>
+        <v>0.46579999999999999</v>
       </c>
       <c r="C89" s="6">
-        <v>17.2774</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>12.784599999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>3</v>
       </c>
       <c r="B90" s="6">
-        <v>0.86719999999999997</v>
+        <v>0.8669</v>
       </c>
       <c r="C90" s="6">
-        <v>10.2127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.8338000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>4</v>
       </c>
       <c r="B91" s="6">
-        <v>0.45319999999999999</v>
+        <v>0.45129999999999998</v>
       </c>
       <c r="C91" s="6">
-        <v>16.1006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.097099999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="6">
         <f>AVERAGE(B87:B91)</f>
-        <v>0.62194000000000005</v>
+        <v>0.62063999999999997</v>
       </c>
       <c r="C92" s="6">
         <f>AVERAGE(C87:C91)</f>
-        <v>16.138399999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11.739140000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B93" s="10">
         <f>_xlfn.STDEV.S(B87:B91)</f>
-        <v>0.22465565428005579</v>
+        <v>0.22552305425388358</v>
       </c>
       <c r="C93" s="10">
         <f>_xlfn.STDEV.S(C87:C91)</f>
-        <v>3.8698099623883366</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.4294343133742018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>0</v>
       </c>
@@ -6365,88 +7524,88 @@
         <v>2</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>0</v>
       </c>
       <c r="B96" s="6">
-        <v>0.88619999999999999</v>
+        <v>0.88590000000000002</v>
       </c>
       <c r="C96" s="6">
-        <v>12.242000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.0419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>1</v>
       </c>
       <c r="B97" s="6">
-        <v>0.90629999999999999</v>
+        <v>0.90620000000000001</v>
       </c>
       <c r="C97" s="6">
-        <v>7.6818999999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.0198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>2</v>
       </c>
       <c r="B98" s="6">
-        <v>0.90539999999999998</v>
+        <v>0.9052</v>
       </c>
       <c r="C98" s="6">
-        <v>9.7201000000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.5377000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>3</v>
       </c>
       <c r="B99" s="6">
-        <v>0.89590000000000003</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="C99" s="6">
-        <v>11.8787</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.7052999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>4</v>
       </c>
       <c r="B100" s="6">
-        <v>0.90859999999999996</v>
+        <v>0.90849999999999997</v>
       </c>
       <c r="C100" s="6">
-        <v>12.665699999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.3443000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="6">
         <f>AVERAGE(B96:B100)</f>
-        <v>0.90047999999999995</v>
+        <v>0.90028000000000008</v>
       </c>
       <c r="C101" s="6">
         <f>AVERAGE(C96:C100)</f>
-        <v>10.837680000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.1297999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="10">
         <f>_xlfn.STDEV.S(B96:B100)</f>
-        <v>9.3395396032138443E-3</v>
+        <v>9.4274598911901972E-3</v>
       </c>
       <c r="C102" s="10">
         <f>_xlfn.STDEV.S(C96:C100)</f>
-        <v>2.0979410673324392</v>
+        <v>0.92149597394671423</v>
       </c>
     </row>
   </sheetData>
@@ -6468,23 +7627,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6494,77 +7653,41 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.9022</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="C2" s="4">
-        <v>8.1250999999999998</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.43359999999999999</v>
-      </c>
-      <c r="G2" s="4">
-        <v>18.3917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.5408999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>0.89980000000000004</v>
+        <v>0.89959999999999996</v>
       </c>
       <c r="C3" s="6">
-        <v>10.0106</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.43619999999999998</v>
-      </c>
-      <c r="G3" s="6">
-        <v>31.482299999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9.0391999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.89239999999999997</v>
+        <v>0.89219999999999999</v>
       </c>
       <c r="C4" s="4">
-        <v>13.8286</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.41639999999999999</v>
-      </c>
-      <c r="G4" s="4">
-        <v>32.652299999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>11.0059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6572,195 +7695,1012 @@
         <v>0.89410000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>10.906000000000001</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.42630000000000001</v>
-      </c>
-      <c r="G5" s="6">
-        <v>32.242800000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.0114000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.82889999999999997</v>
+        <v>0.82840000000000003</v>
       </c>
       <c r="C6" s="4">
-        <v>13.5275</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.8206</v>
-      </c>
-      <c r="G6" s="4">
-        <v>27.710599999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10.6424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>0.86209999999999998</v>
+        <v>0.86170000000000002</v>
       </c>
       <c r="C7" s="6">
-        <v>14.0457</v>
-      </c>
-      <c r="E7" s="5">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G7" s="6">
-        <v>40.376300000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9.6175999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.88560000000000005</v>
+        <v>0.88529999999999998</v>
       </c>
       <c r="C8" s="4">
-        <v>9.8329000000000004</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.43419999999999997</v>
-      </c>
-      <c r="G8" s="4">
-        <v>31.841899999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.4450000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>0.86099999999999999</v>
+        <v>0.86080000000000001</v>
       </c>
       <c r="C9" s="6">
-        <v>9.8215000000000003</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.433</v>
-      </c>
-      <c r="G9" s="6">
-        <v>25.587199999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.8722000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>0.87329999999999997</v>
+        <v>0.87319999999999998</v>
       </c>
       <c r="C10" s="4">
-        <v>12.109</v>
-      </c>
-      <c r="E10" s="3">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.87270000000000003</v>
-      </c>
-      <c r="G10" s="4">
-        <v>16.2973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.0192999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>0.90800000000000003</v>
+        <v>0.90780000000000005</v>
       </c>
       <c r="C11" s="6">
-        <v>12.489000000000001</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.41849999999999998</v>
-      </c>
-      <c r="G11" s="6">
-        <v>22.040900000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.0838000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.88073999999999997</v>
+        <v>0.88051999999999997</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
-        <v>11.46959</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <f>AVERAGE(F2:F11)</f>
-        <v>0.50995000000000001</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
-        <v>27.862330000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.6277699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="6">
         <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>2.4460498768422548E-2</v>
+        <v>2.4564599641670435E-2</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ref="C13" si="2">_xlfn.STDEV.S(C2:C11)</f>
-        <v>2.0251518475029098</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="6">
-        <f>_xlfn.STDEV.S(F2:F11)</f>
-        <v>0.17811499562548527</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" ref="G13" si="3">_xlfn.STDEV.S(G2:G11)</f>
-        <v>7.3801834712288725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>1.3972823933542473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.2248</v>
+      </c>
+      <c r="C19" s="6">
+        <v>58.446899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="C20" s="6">
+        <v>40.997399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.23180000000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44.982300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="C22" s="6">
+        <v>57.547899999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="C23" s="6">
+        <v>37.638800000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6">
+        <f>AVERAGE(B19:B23)</f>
+        <v>0.23905999999999999</v>
+      </c>
+      <c r="C24" s="6">
+        <f>AVERAGE(C19:C23)</f>
+        <v>47.92266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="10">
+        <f>_xlfn.STDEV.S(B19:B23)</f>
+        <v>1.9407936520918444E-2</v>
+      </c>
+      <c r="C25" s="10">
+        <f>_xlfn.STDEV.S(C19:C23)</f>
+        <v>9.5625257141092241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>0</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="C28" s="6">
+        <v>59.244900000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.2515</v>
+      </c>
+      <c r="C29" s="6">
+        <v>39.353499999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="C30" s="6">
+        <v>41.850999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>3</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="C31" s="6">
+        <v>53.451999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>4</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44.987299999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6">
+        <f>AVERAGE(B28:B32)</f>
+        <v>0.25678000000000001</v>
+      </c>
+      <c r="C33" s="6">
+        <f>AVERAGE(C28:C32)</f>
+        <v>47.777740000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="10">
+        <f>_xlfn.STDEV.S(B28:B32)</f>
+        <v>1.101848446929069E-2</v>
+      </c>
+      <c r="C34" s="10">
+        <f>_xlfn.STDEV.S(C28:C32)</f>
+        <v>8.3302702088827569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>0</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="C37" s="6">
+        <v>55.941899999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="C38" s="6">
+        <v>34.103499999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.24410000000000001</v>
+      </c>
+      <c r="C39" s="6">
+        <v>25.946899999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="C40" s="6">
+        <v>29.752500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="C41" s="6">
+        <v>35.833300000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6">
+        <f>AVERAGE(B37:B41)</f>
+        <v>0.24837999999999999</v>
+      </c>
+      <c r="C42" s="6">
+        <f>AVERAGE(C37:C41)</f>
+        <v>36.315620000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="10">
+        <f>_xlfn.STDEV.S(B37:B41)</f>
+        <v>3.7545971821221933E-3</v>
+      </c>
+      <c r="C43" s="10">
+        <f>_xlfn.STDEV.S(C37:C41)</f>
+        <v>11.628648596118108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>0</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="C46" s="6">
+        <v>22.386299999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.4415</v>
+      </c>
+      <c r="C47" s="6">
+        <v>14.7715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>2</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.44130000000000003</v>
+      </c>
+      <c r="C48" s="6">
+        <v>12.762600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="C49" s="6">
+        <v>13.2121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="C50" s="6">
+        <v>14.362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6">
+        <f>AVERAGE(B46:B50)</f>
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="C51" s="6">
+        <f>AVERAGE(C46:C50)</f>
+        <v>15.498899999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="10">
+        <f>_xlfn.STDEV.S(B46:B50)</f>
+        <v>1.5668439615992408E-3</v>
+      </c>
+      <c r="C52" s="10">
+        <f>_xlfn.STDEV.S(C46:C50)</f>
+        <v>3.936201311543913</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.4224</v>
+      </c>
+      <c r="C55" s="6">
+        <v>21.805499999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>1</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="C56" s="6">
+        <v>25.9924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>2</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="C57" s="6">
+        <v>23.6616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.83379999999999999</v>
+      </c>
+      <c r="C58" s="6">
+        <v>19.866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>4</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.8276</v>
+      </c>
+      <c r="C59" s="6">
+        <v>14.4077</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6">
+        <f>AVERAGE(B55:B59)</f>
+        <v>0.58692</v>
+      </c>
+      <c r="C60" s="6">
+        <f>AVERAGE(C55:C59)</f>
+        <v>21.146639999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="10">
+        <f>_xlfn.STDEV.S(B55:B59)</f>
+        <v>0.22256328762848546</v>
+      </c>
+      <c r="C61" s="10">
+        <f>_xlfn.STDEV.S(C55:C59)</f>
+        <v>4.3958463750454202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>0</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="C64" s="6">
+        <v>9.0967000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>1</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="C65" s="6">
+        <v>11.138199999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>2</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.4506</v>
+      </c>
+      <c r="C66" s="6">
+        <v>15.879099999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="C67" s="6">
+        <v>10.8391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>4</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="C68" s="6">
+        <v>14.4742</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6">
+        <f>AVERAGE(B64:B68)</f>
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="C69" s="6">
+        <f>AVERAGE(C64:C68)</f>
+        <v>12.28546</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="10">
+        <f>_xlfn.STDEV.S(B64:B68)</f>
+        <v>0.20927521353471359</v>
+      </c>
+      <c r="C70" s="10">
+        <f>_xlfn.STDEV.S(C64:C68)</f>
+        <v>2.7964792298531358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>0</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="C73" s="6">
+        <v>12.1806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>1</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="C74" s="6">
+        <v>8.4596999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>2</v>
+      </c>
+      <c r="B75" s="6">
+        <v>0.45369999999999999</v>
+      </c>
+      <c r="C75" s="6">
+        <v>10.0816</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="C76" s="6">
+        <v>8.8167000000000009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>4</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="C77" s="6">
+        <v>5.7801999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="6">
+        <f>AVERAGE(B73:B77)</f>
+        <v>0.66886000000000001</v>
+      </c>
+      <c r="C78" s="6">
+        <f>AVERAGE(C73:C77)</f>
+        <v>9.0637600000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="10">
+        <f>_xlfn.STDEV.S(B73:B77)</f>
+        <v>0.21297691893724058</v>
+      </c>
+      <c r="C79" s="10">
+        <f>_xlfn.STDEV.S(C73:C77)</f>
+        <v>2.3429886497804482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>0</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="C82" s="6">
+        <v>9.3468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>1</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="C83" s="6">
+        <v>7.6646999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>2</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="C84" s="6">
+        <v>10.149800000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>3</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="C85" s="6">
+        <v>8.9036000000000008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>4</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>5</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>6</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.9083</v>
+      </c>
+      <c r="C88" s="6">
+        <v>8.1805000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>7</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="C89" s="6">
+        <v>11.592700000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>8</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>9</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="6">
+        <f>AVERAGE(B82:B91)</f>
+        <v>0.87441666666666651</v>
+      </c>
+      <c r="C92" s="6">
+        <f t="shared" ref="C92" si="2">AVERAGE(C82:C91)</f>
+        <v>9.3063500000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="10">
+        <f>_xlfn.STDEV.S(B82:B91)</f>
+        <v>3.5665244519933761E-2</v>
+      </c>
+      <c r="C93" s="10">
+        <f t="shared" ref="C93" si="3">_xlfn.STDEV.S(C82:C91)</f>
+        <v>1.4188164740374367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>0</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.9073</v>
+      </c>
+      <c r="C96" s="6">
+        <v>10.310700000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>1</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="C97" s="6">
+        <v>10.0806</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>2</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0.9093</v>
+      </c>
+      <c r="C98" s="6">
+        <v>9.9481999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>3</v>
+      </c>
+      <c r="B99" s="6">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="C99" s="6">
+        <v>8.0983000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>4</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="C100" s="6">
+        <v>10.068199999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="6">
+        <f>AVERAGE(B96:B100)</f>
+        <v>0.89641999999999999</v>
+      </c>
+      <c r="C101" s="6">
+        <f>AVERAGE(C96:C100)</f>
+        <v>9.7012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="10">
+        <f>_xlfn.STDEV.S(B96:B100)</f>
+        <v>1.3834449754146355E-2</v>
+      </c>
+      <c r="C102" s="10">
+        <f>_xlfn.STDEV.S(C96:C100)</f>
+        <v>0.90559662930026419</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="9">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EA2A62-B49A-4FC9-9919-573E37FC0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A82AD-21E8-4938-AA71-A2B23703730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="40">
   <si>
     <t>Iteration</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>9 scans</t>
+  </si>
+  <si>
+    <t>Multiclass</t>
+  </si>
+  <si>
+    <t>TotalSegmentator</t>
+  </si>
+  <si>
+    <t>MultiClass</t>
   </si>
 </sst>
 </file>
@@ -280,55 +289,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="143">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -392,13 +361,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -417,6 +379,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -505,13 +474,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -530,6 +492,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -618,13 +587,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -643,6 +605,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -731,13 +700,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -756,6 +718,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -788,7 +757,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -797,33 +766,8 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -833,6 +777,71 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -921,13 +930,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -946,6 +948,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1034,13 +1043,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1059,6 +1061,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1147,13 +1156,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1172,6 +1174,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1260,13 +1269,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1285,6 +1287,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2334,6 +2343,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dice Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2344,7 +2408,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>CPU-Net</c:v>
+            <c:v>PolyCL</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2360,7 +2424,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('Class-Based Contrastive'!$B$24,'Class-Based Contrastive'!$B$33,'Class-Based Contrastive'!$B$42,'Class-Based Contrastive'!$B$65,'Class-Based Contrastive'!$B$74,'Class-Based Contrastive'!$B$83,'Class-Based Contrastive'!$B$92,'Class-Based Contrastive'!$B$101,'Class-Based Contrastive'!$B$12)</c:f>
+              <c:f>('Class-Based Contrastive'!$B$24,'Class-Based Contrastive'!$B$33,'Class-Based Contrastive'!$B$42,'Class-Based Contrastive'!$B$65,'Class-Based Contrastive'!$B$79,'Class-Based Contrastive'!$B$88,'Class-Based Contrastive'!$B$97,'Class-Based Contrastive'!$B$106,'Class-Based Contrastive'!$B$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2377,7 +2441,7 @@
                   <c:v>0.84058999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65093999999999996</c:v>
+                  <c:v>0.54413</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.87220000000000009</c:v>
@@ -2484,6 +2548,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Scans</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2591,6 +2715,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2649,6 +2804,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hausdorff</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2659,7 +2874,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>CPU-Net</c:v>
+            <c:v>PolyCL</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2675,7 +2890,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('Class-Based Contrastive'!$C$24,'Class-Based Contrastive'!$C$33,'Class-Based Contrastive'!$C$42,'Class-Based Contrastive'!$C$51,'Class-Based Contrastive'!$C$65,'Class-Based Contrastive'!$C$74,'Class-Based Contrastive'!$C$83,'Class-Based Contrastive'!$C$92,'Class-Based Contrastive'!$C$101,'Class-Based Contrastive'!$C$12)</c:f>
+              <c:f>('Class-Based Contrastive'!$C$24,'Class-Based Contrastive'!$C$33,'Class-Based Contrastive'!$C$42,'Class-Based Contrastive'!$C$51,'Class-Based Contrastive'!$C$65,'Class-Based Contrastive'!$C$79,'Class-Based Contrastive'!$C$88,'Class-Based Contrastive'!$C$97,'Class-Based Contrastive'!$C$106,'Class-Based Contrastive'!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2695,7 +2910,7 @@
                   <c:v>16.649740000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.2151399999999999</c:v>
+                  <c:v>10.45936</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.4303599999999985</c:v>
@@ -2744,34 +2959,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.7667</c:v>
+                  <c:v>12.7697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,6 +3017,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Scans</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2909,6 +3184,964 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dice Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PolyCL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Scan-Based Contrastive'!$B$24,'Scan-Based Contrastive'!$B$33,'Scan-Based Contrastive'!$B$42,'Scan-Based Contrastive'!$B$51,'Scan-Based Contrastive'!$B$60,'Scan-Based Contrastive'!$B$69,'Scan-Based Contrastive'!$B$78,'Scan-Based Contrastive'!$B$92,'Scan-Based Contrastive'!$B$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.23905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24837999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66886000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88240999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89641999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF3D-43B0-9721-6397E74D1BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class-Based Contrastive'!$I$38:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85673999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF3D-43B0-9721-6397E74D1BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="489832575"/>
+        <c:axId val="611697791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="489832575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Scans</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611697791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611697791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489832575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hausdorff</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PolyCL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Scan-Based Contrastive'!$C$24,'Scan-Based Contrastive'!$C$33,'Scan-Based Contrastive'!$C$42,'Scan-Based Contrastive'!$C$51,'Scan-Based Contrastive'!$C$60,'Scan-Based Contrastive'!$C$69,'Scan-Based Contrastive'!$C$78,'Scan-Based Contrastive'!$C$92,'Scan-Based Contrastive'!$C$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.92266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.777740000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.315620000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.498899999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.146639999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.28546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0637600000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4852499999999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1758-4B9D-B1BE-1F43EC23FCB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Class-Based Contrastive'!$I$39:$R$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.7697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1758-4B9D-B1BE-1F43EC23FCB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1587492192"/>
+        <c:axId val="1585764000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1587492192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Scans</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1585764000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1585764000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587492192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2994,6 +4227,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4065,18 +5378,1050 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>723901</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
@@ -4105,16 +6450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4126,6 +6471,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1133474</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E13452D-0C91-48E5-BCCA-22298AC45940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775DD969-3FE8-4C56-A8EA-42FA275B9C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4155,6 +6581,36 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+  <autoFilter ref="A27:C34" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C34">
+    <sortCondition descending="1" ref="B27:B34"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="128"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+  <autoFilter ref="A36:C41" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
+    <sortCondition descending="1" ref="B36:B41"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="120"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
   <autoFilter ref="A45:C50" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
@@ -4169,7 +6625,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <autoFilter ref="A54:C64" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C64">
@@ -4184,9 +6640,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C73" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
-  <autoFilter ref="A68:C73" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}"/>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C78" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
+  <autoFilter ref="A68:C78" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:C73">
     <sortCondition ref="A68:A73"/>
   </sortState>
@@ -4199,11 +6655,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A77:C82" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
-  <autoFilter ref="A77:C82" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
-    <sortCondition ref="A77:A82"/>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A82:C87" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+  <autoFilter ref="A82:C87" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:C87">
+    <sortCondition ref="A82:A87"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="90"/>
@@ -4214,11 +6670,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A86:C91" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
-  <autoFilter ref="A86:C91" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C91">
-    <sortCondition ref="A86:A91"/>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A91:C96" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+  <autoFilter ref="A91:C96" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A92:C96">
+    <sortCondition ref="A91:A96"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="82"/>
@@ -4229,11 +6685,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A95:C100" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
-  <autoFilter ref="A95:C100" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:C100">
-    <sortCondition ref="A95:A100"/>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A100:C105" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="A100:C105" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
+    <sortCondition ref="A100:A105"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="74"/>
@@ -4244,8 +6700,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}" name="Table1126" displayName="Table1126" ref="A18:C23" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowBorderDxfId="68" tableBorderDxfId="69" totalsRowBorderDxfId="67">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}" name="Table1126" displayName="Table1126" ref="A18:C23" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="A18:C23" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C23">
     <sortCondition ref="A18:A23"/>
@@ -4259,8 +6715,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A27:C32" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C32">
     <sortCondition ref="A27:A32"/>
@@ -4274,8 +6730,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}" name="Table1128" displayName="Table1128" ref="A36:C41" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9E9BCC6B-04ED-4952-B1D7-2567CD1EEE8D}" name="Table13417" displayName="Table13417" ref="E1:G13" totalsRowShown="0">
+  <autoFilter ref="E1:G13" xr:uid="{9E9BCC6B-04ED-4952-B1D7-2567CD1EEE8D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5B9086A6-00ED-41FC-BE83-E23F8207261A}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{EA740B8A-069C-4E32-8432-C65F4BE14C4A}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{4BE36152-5AD7-480C-98BA-2EC942D4479B}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}" name="Table1128" displayName="Table1128" ref="A36:C41" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="A36:C41" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
     <sortCondition ref="A36:A41"/>
@@ -4289,8 +6757,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}" name="Table1129" displayName="Table1129" ref="A45:C50" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowBorderDxfId="44" tableBorderDxfId="45" totalsRowBorderDxfId="43">
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}" name="Table1129" displayName="Table1129" ref="A45:C50" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A45:C50" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
     <sortCondition ref="A45:A50"/>
@@ -4304,7 +6772,94 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}" name="Table1130" displayName="Table1130" ref="A54:C59" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="A54:C59" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C59">
+    <sortCondition ref="A54:A59"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7D2424F2-7AA2-410B-936F-34A1E0906F68}" name="Iteration" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{F82397EE-88A3-40F6-836E-9E40941060F5}" name="Dice Score" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{AD7759CE-AF8B-4E3E-B459-02A928FC4F39}" name="Hausdorff Distance" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C68" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A63:C68" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:C68">
+    <sortCondition ref="A63:A68"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B3041A79-D11C-47C9-902B-718EB7EA3CBF}" name="Iteration" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{E0B6645D-B230-4295-80E4-EFA9DA6B436A}" name="Dice Score" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E105A377-DB01-4DCD-9EB0-409736A5AF26}" name="Hausdorff Distance" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A72:C77" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A72:C77" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A73:C77">
+    <sortCondition ref="A72:A77"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FC7AF66C-1D33-4794-A392-30E2A04202FA}" name="Iteration" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{04489E56-FA6B-4E7E-B842-8B24E2A21DB0}" name="Dice Score" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5F966FED-658B-4605-8BCE-271816C165A8}" name="Hausdorff Distance" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A81:C91" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A81:C91" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:C91">
+    <sortCondition ref="A81:A91"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1A31E0C1-D4B8-4568-A44D-8D04BD44783A}" name="Iteration" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{416F10C1-B76C-4601-B65B-40A110D3DD55}" name="Dice Score" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5F8FAE4E-8291-4937-AE7A-337ED4424B21}" name="Hausdorff Distance" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A95:C100" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A95:C100" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:C100">
+    <sortCondition ref="A95:A100"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{20A333EC-E398-4A1A-A4A0-BE461E976A4E}" name="Iteration" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7053D4D9-DB8B-4FAA-B15D-63C7F0EBE19C}" name="Dice Score" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E11197D4-30F5-49DF-893D-E7826C383D38}" name="Hausdorff Distance" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{FF6CCC99-648F-461B-AFA7-49FBDAF75C8C}" name="Table13418" displayName="Table13418" ref="A15:C27" totalsRowShown="0">
+  <autoFilter ref="A15:C27" xr:uid="{FF6CCC99-648F-461B-AFA7-49FBDAF75C8C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9F5D598E-5452-4D6A-9A3B-D3EE86BDC1A6}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{E860D05E-5AF9-49FD-BA40-411854D60F38}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{62D4D843-F506-4B26-8494-8D10ADDA56A1}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{971C66A5-FDA7-4754-A0A8-57D9D47DE285}" name="Table13" displayName="Table13" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="3">
@@ -4316,82 +6871,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}" name="Table1130" displayName="Table1130" ref="A54:C59" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
-  <autoFilter ref="A54:C59" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C59">
-    <sortCondition ref="A54:A59"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7D2424F2-7AA2-410B-936F-34A1E0906F68}" name="Iteration" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{F82397EE-88A3-40F6-836E-9E40941060F5}" name="Dice Score" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{AD7759CE-AF8B-4E3E-B459-02A928FC4F39}" name="Hausdorff Distance" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C68" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
-  <autoFilter ref="A63:C68" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:C68">
-    <sortCondition ref="A63:A68"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B3041A79-D11C-47C9-902B-718EB7EA3CBF}" name="Iteration" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{E0B6645D-B230-4295-80E4-EFA9DA6B436A}" name="Dice Score" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{E105A377-DB01-4DCD-9EB0-409736A5AF26}" name="Hausdorff Distance" dataDxfId="26"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A72:C77" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
-  <autoFilter ref="A72:C77" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A73:C77">
-    <sortCondition ref="A72:A77"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FC7AF66C-1D33-4794-A392-30E2A04202FA}" name="Iteration" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{04489E56-FA6B-4E7E-B842-8B24E2A21DB0}" name="Dice Score" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{5F966FED-658B-4605-8BCE-271816C165A8}" name="Hausdorff Distance" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A81:C91" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
-  <autoFilter ref="A81:C91" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:C91">
-    <sortCondition ref="A81:A91"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A31E0C1-D4B8-4568-A44D-8D04BD44783A}" name="Iteration" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{416F10C1-B76C-4601-B65B-40A110D3DD55}" name="Dice Score" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{5F8FAE4E-8291-4937-AE7A-337ED4424B21}" name="Hausdorff Distance" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A95:C100" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A95:C100" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:C100">
-    <sortCondition ref="A95:A100"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{20A333EC-E398-4A1A-A4A0-BE461E976A4E}" name="Iteration" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7053D4D9-DB8B-4FAA-B15D-63C7F0EBE19C}" name="Dice Score" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E11197D4-30F5-49DF-893D-E7826C383D38}" name="Hausdorff Distance" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44D18B11-8DD6-45A6-87CF-63A4948A389E}" name="Table136" displayName="Table136" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="3">
@@ -4403,7 +6883,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECC1DCBB-E872-4D81-8A98-CF47BB1A52B8}" name="Table1357" displayName="Table1357" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="5">
@@ -4417,7 +6897,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FB4711C-FEAB-46E5-BBE5-75F1744FD7F2}" name="Table135" displayName="Table135" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="5">
@@ -4431,7 +6911,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="5">
@@ -4445,7 +6925,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="142" headerRowBorderDxfId="141" tableBorderDxfId="140" totalsRowBorderDxfId="139">
   <autoFilter ref="A18:C25" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C25">
@@ -4455,36 +6935,6 @@
     <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="138"/>
     <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="137"/>
     <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="136"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
-  <autoFilter ref="A27:C34" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C34">
-    <sortCondition descending="1" ref="B27:B34"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="128"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
-  <autoFilter ref="A36:C41" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
-    <sortCondition descending="1" ref="B36:B41"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5089,18 +7539,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE7B198-A19B-493B-B085-8D5AE4C3117E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5110,8 +7563,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5121,8 +7583,17 @@
       <c r="C2">
         <v>12.4811</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="G2">
+        <v>13.8056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5132,8 +7603,11 @@
       <c r="C3">
         <v>18.1188</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5143,8 +7617,17 @@
       <c r="C4">
         <v>14.4457</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="G4">
+        <v>22.534199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5154,8 +7637,17 @@
       <c r="C5">
         <v>9.4281000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="G5">
+        <v>10.5815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5165,8 +7657,17 @@
       <c r="C6">
         <v>11.369199999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.81859999999999999</v>
+      </c>
+      <c r="G6">
+        <v>16.326799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5176,8 +7677,11 @@
       <c r="C7">
         <v>14.436400000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5187,8 +7691,17 @@
       <c r="C8">
         <v>11.395</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="G8">
+        <v>16.613800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5198,8 +7711,17 @@
       <c r="C9">
         <v>12.7692</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="G9">
+        <v>16.8384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5209,8 +7731,11 @@
       <c r="C10">
         <v>10.6675</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5220,8 +7745,17 @@
       <c r="C11">
         <v>12.586499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="G11">
+        <v>25.437200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -5233,8 +7767,19 @@
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
         <v>12.76975</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.81955714285714287</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
+        <v>17.448214285714286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -5243,14 +7788,184 @@
         <v>3.5496104637614039E-2</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <f t="shared" ref="C13" si="2">_xlfn.STDEV.S(C2:C11)</f>
         <v>2.4438886105048887</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.STDEV.S(F2:F11)</f>
+        <v>3.6670553906499995E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="3">_xlfn.STDEV.S(G2:G11)</f>
+        <v>5.0404569569397095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C16">
+        <v>40.881700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="C17">
+        <v>44.597700000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="C18">
+        <v>67.634200000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C19">
+        <v>60.002299999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.22589999999999999</v>
+      </c>
+      <c r="C20">
+        <v>76.504800000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0.2641</v>
+      </c>
+      <c r="C21">
+        <v>41.791200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="C22">
+        <v>57.666600000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0.31569999999999998</v>
+      </c>
+      <c r="C23">
+        <v>58.006999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0.2487</v>
+      </c>
+      <c r="C24">
+        <v>58.317500000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="C25">
+        <v>65.975300000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B16:B25)</f>
+        <v>0.3029</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26" si="4">AVERAGE(C16:C25)</f>
+        <v>57.137830000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <f>_xlfn.STDEV.S(B16:B25)</f>
+        <v>6.6614846526714885E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27" si="5">_xlfn.STDEV.S(C16:C25)</f>
+        <v>11.695306396637161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6346,10 +9061,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:C66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6360,9 +9075,14 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6381,8 +9101,26 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6395,14 +9133,28 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="4">
         <v>0.81620000000000004</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>16.009399999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.28439999999999999</v>
+      </c>
+      <c r="O2" s="4">
+        <v>54.977200000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6415,14 +9167,32 @@
       <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="6">
         <v>0.85299999999999998</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>15.129899999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>20.409500000000001</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.35070000000000001</v>
+      </c>
+      <c r="O3" s="6">
+        <v>58.684199999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6435,14 +9205,28 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="4">
         <v>0.83660000000000001</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>13.9666</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="O4" s="4">
+        <v>61.111899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6455,14 +9239,28 @@
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <v>0.82410000000000005</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>14.4506</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="O5" s="6">
+        <v>67.970500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6475,14 +9273,28 @@
       <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="4">
         <v>0.86209999999999998</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>15.7645</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="3">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.36830000000000002</v>
+      </c>
+      <c r="O6" s="4">
+        <v>47.091700000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6495,14 +9307,32 @@
       <c r="E7" s="5">
         <v>6</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="6">
         <v>0.8357</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <v>15.1104</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="K7" s="6">
+        <v>18.703299999999999</v>
+      </c>
+      <c r="M7" s="5">
+        <v>6</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.2913</v>
+      </c>
+      <c r="O7" s="6">
+        <v>59.819000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6515,14 +9345,32 @@
       <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="4">
         <v>0.82799999999999996</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>14.149800000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="K8" s="4">
+        <v>13.474299999999999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.3392</v>
+      </c>
+      <c r="O8" s="4">
+        <v>58.918700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6535,14 +9383,28 @@
       <c r="E9" s="5">
         <v>8</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="6">
         <v>0.84809999999999997</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>16.365400000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="M9" s="5">
+        <v>8</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="O9" s="6">
+        <v>48.863799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6555,14 +9417,32 @@
       <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="4">
         <v>0.83930000000000005</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>30.1952</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="K10" s="4">
+        <v>16.055199999999999</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="O10" s="4">
+        <v>67.599400000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6575,14 +9455,32 @@
       <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="6">
         <v>0.86280000000000001</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <v>15.355600000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="K11" s="6">
+        <v>15.795500000000001</v>
+      </c>
+      <c r="M11" s="5">
+        <v>10</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="O11" s="6">
+        <v>53.935000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -6605,8 +9503,30 @@
         <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
         <v>16.649740000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" ref="K12" si="2">AVERAGE(K2:K11)</f>
+        <v>16.887560000000001</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.30543999999999999</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" ref="O12" si="3">AVERAGE(O2:O11)</f>
+        <v>57.897139999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -6615,7 +9535,7 @@
         <v>9.0010122887496605E-3</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ref="C13" si="2">_xlfn.STDEV.S(C2:C11)</f>
+        <f t="shared" ref="C13" si="4">_xlfn.STDEV.S(C2:C11)</f>
         <v>1.3028426535848312</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6626,19 +9546,53 @@
         <v>1.5752139184532634E-2</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" ref="G13" si="3">_xlfn.STDEV.S(G2:G11)</f>
+        <f t="shared" ref="G13" si="5">_xlfn.STDEV.S(G2:G11)</f>
         <v>4.8234779709251283</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <f>_xlfn.STDEV.S(J2:J11)</f>
+        <v>1.7576546873604045E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" ref="K13" si="6">_xlfn.STDEV.S(K2:K11)</f>
+        <v>2.7035502192487328</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="6">
+        <f>_xlfn.STDEV.S(N2:N11)</f>
+        <v>3.5041220171551396E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" ref="O13" si="7">_xlfn.STDEV.S(O2:O11)</f>
+        <v>6.9432707224253978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f>_xlfn.T.TEST(N2:N11, 'Standard Training'!B16:B25, 2, 3)</f>
+        <v>0.91657178119352722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -6651,8 +9605,12 @@
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>_xlfn.T.TEST('Class-Based Contrastive'!O2:O11, 'Standard Training'!C16:C25, 2, 3)</f>
+        <v>0.86228730050467084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0</v>
       </c>
@@ -6663,7 +9621,7 @@
         <v>84.214699999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -6674,7 +9632,7 @@
         <v>70.755099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -6685,7 +9643,7 @@
         <v>100.5758</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -6696,7 +9654,7 @@
         <v>73.126300000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>4</v>
       </c>
@@ -6707,7 +9665,7 @@
         <v>84.174199999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -6720,7 +9678,7 @@
         <v>82.569220000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -6733,7 +9691,7 @@
         <v>10.566576153399973</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
@@ -6747,7 +9705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0</v>
       </c>
@@ -6758,7 +9716,7 @@
         <v>40.696899999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -6769,7 +9727,7 @@
         <v>37.058</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2</v>
       </c>
@@ -6780,7 +9738,7 @@
         <v>36.590899999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>3</v>
       </c>
@@ -6791,7 +9749,7 @@
         <v>27.7348</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>4</v>
       </c>
@@ -6905,34 +9863,34 @@
         <v>28.1919</v>
       </c>
       <c r="I39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="J39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="K39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="L39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="M39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="N39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="O39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="P39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="Q39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
       <c r="R39">
-        <v>15.7667</v>
+        <v>12.7697</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -7202,7 +10160,7 @@
         <v>15.355600000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>3</v>
       </c>
@@ -7211,11 +10169,11 @@
         <v>0.84058999999999995</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" ref="C65" si="4">AVERAGE(C55:C64)</f>
+        <f t="shared" ref="C65" si="8">AVERAGE(C55:C64)</f>
         <v>16.649740000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>6</v>
       </c>
@@ -7224,11 +10182,11 @@
         <v>1.5752139184532634E-2</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66" si="5">_xlfn.STDEV.S(C55:C64)</f>
+        <f t="shared" ref="C66" si="9">_xlfn.STDEV.S(C55:C64)</f>
         <v>4.8234779709251283</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>0</v>
       </c>
@@ -7241,8 +10199,12 @@
       <c r="E68" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f>_xlfn.T.TEST(Table12[Hausdorff Distance], 'Standard Training'!C2:C11, 2, 3)</f>
+        <v>6.7776209939016396E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>0</v>
       </c>
@@ -7253,7 +10215,7 @@
         <v>7.7220000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>1</v>
       </c>
@@ -7264,7 +10226,7 @@
         <v>8.5855999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>2</v>
       </c>
@@ -7275,336 +10237,391 @@
         <v>8.2446000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>3</v>
       </c>
       <c r="B72" s="6">
-        <v>0.72140000000000004</v>
+        <v>0.44109999999999999</v>
       </c>
       <c r="C72" s="6">
-        <v>7.9520999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.7774000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>4</v>
       </c>
       <c r="B73" s="6">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="C73" s="6">
+        <v>10.7324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>5</v>
+      </c>
+      <c r="B74" s="13">
         <v>0.44669999999999999</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C74" s="13">
         <v>13.571400000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>6</v>
+      </c>
+      <c r="B75" s="13">
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="C75" s="13">
+        <v>11.966900000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>7</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0.4415</v>
+      </c>
+      <c r="C76" s="13">
+        <v>12.247400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>8</v>
+      </c>
+      <c r="B77" s="13">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="C77" s="13">
+        <v>7.9520999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>9</v>
+      </c>
+      <c r="B78" s="14">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="C78" s="14">
+        <v>15.793799999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="6">
-        <f>AVERAGE(B69:B73)</f>
-        <v>0.65093999999999996</v>
-      </c>
-      <c r="C74" s="6">
-        <f>AVERAGE(C69:C73)</f>
-        <v>9.2151399999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="B79" s="6">
+        <f>AVERAGE(B69:B78)</f>
+        <v>0.54413</v>
+      </c>
+      <c r="C79" s="6">
+        <f>AVERAGE(C69:C78)</f>
+        <v>10.45936</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="10">
-        <f>_xlfn.STDEV.S(B69:B73)</f>
-        <v>0.18843591218236572</v>
-      </c>
-      <c r="C75" s="10">
-        <f>_xlfn.STDEV.S(C69:C73)</f>
-        <v>2.4566240449039065</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="B80" s="10">
+        <f>_xlfn.STDEV.S(B69:B78)</f>
+        <v>0.1687872102184679</v>
+      </c>
+      <c r="C80" s="10">
+        <f>_xlfn.STDEV.S(C69:C78)</f>
+        <v>2.8494424040113171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E82" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
         <v>0</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B83" s="6">
         <v>0.86760000000000004</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C83" s="6">
         <v>8.4753000000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
         <v>1</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B84" s="6">
         <v>0.85870000000000002</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C84" s="6">
         <v>8.1913</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
         <v>2</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B85" s="6">
         <v>0.88360000000000005</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C85" s="6">
         <v>7.8522999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
         <v>3</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B86" s="6">
         <v>0.86240000000000006</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C86" s="6">
         <v>10.5457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>4</v>
-      </c>
-      <c r="B82" s="6">
-        <v>0.88870000000000005</v>
-      </c>
-      <c r="C82" s="6">
-        <v>12.087199999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="6">
-        <f>AVERAGE(B78:B82)</f>
-        <v>0.87220000000000009</v>
-      </c>
-      <c r="C83" s="6">
-        <f>AVERAGE(C78:C82)</f>
-        <v>9.4303599999999985</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="10">
-        <f>_xlfn.STDEV.S(B78:B82)</f>
-        <v>1.3244432792686904E-2</v>
-      </c>
-      <c r="C84" s="10">
-        <f>_xlfn.STDEV.S(C78:C82)</f>
-        <v>1.8193724709360668</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
+        <v>4</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="C87" s="6">
+        <v>12.087199999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="6">
+        <f>AVERAGE(B83:B87)</f>
+        <v>0.87220000000000009</v>
+      </c>
+      <c r="C88" s="6">
+        <f>AVERAGE(C83:C87)</f>
+        <v>9.4303599999999985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="10">
+        <f>_xlfn.STDEV.S(B83:B87)</f>
+        <v>1.3244432792686904E-2</v>
+      </c>
+      <c r="C89" s="10">
+        <f>_xlfn.STDEV.S(C83:C87)</f>
+        <v>1.8193724709360668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B91" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>0</v>
+      </c>
+      <c r="B92" s="6">
         <v>0.86829999999999996</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C92" s="6">
         <v>12.8901</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
         <v>1</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B93" s="6">
         <v>0.45090000000000002</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C93" s="6">
         <v>14.0901</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
         <v>2</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B94" s="6">
         <v>0.46579999999999999</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C94" s="6">
         <v>12.784599999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
         <v>3</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B95" s="6">
         <v>0.8669</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C95" s="6">
         <v>7.8338000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
-        <v>4</v>
-      </c>
-      <c r="B91" s="6">
-        <v>0.45129999999999998</v>
-      </c>
-      <c r="C91" s="6">
-        <v>11.097099999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="6">
-        <f>AVERAGE(B87:B91)</f>
-        <v>0.62063999999999997</v>
-      </c>
-      <c r="C92" s="6">
-        <f>AVERAGE(C87:C91)</f>
-        <v>11.739140000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="10">
-        <f>_xlfn.STDEV.S(B87:B91)</f>
-        <v>0.22552305425388358</v>
-      </c>
-      <c r="C93" s="10">
-        <f>_xlfn.STDEV.S(C87:C91)</f>
-        <v>2.4294343133742018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
+        <v>4</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="C96" s="6">
+        <v>11.097099999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="6">
+        <f>AVERAGE(B92:B96)</f>
+        <v>0.62063999999999997</v>
+      </c>
+      <c r="C97" s="6">
+        <f>AVERAGE(C92:C96)</f>
+        <v>11.739140000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="10">
+        <f>_xlfn.STDEV.S(B92:B96)</f>
+        <v>0.22552305425388358</v>
+      </c>
+      <c r="C98" s="10">
+        <f>_xlfn.STDEV.S(C92:C96)</f>
+        <v>2.4294343133742018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>0</v>
+      </c>
+      <c r="B101" s="6">
         <v>0.88590000000000002</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C101" s="6">
         <v>8.0419</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
         <v>1</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B102" s="6">
         <v>0.90620000000000001</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C102" s="6">
         <v>7.0198</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
         <v>2</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B103" s="6">
         <v>0.9052</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C103" s="6">
         <v>7.5377000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
         <v>3</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B104" s="6">
         <v>0.89559999999999995</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C104" s="6">
         <v>8.7052999999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
         <v>4</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B105" s="6">
         <v>0.90849999999999997</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C105" s="6">
         <v>9.3443000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="6">
-        <f>AVERAGE(B96:B100)</f>
+      <c r="B106" s="6">
+        <f>AVERAGE(B101:B105)</f>
         <v>0.90028000000000008</v>
       </c>
-      <c r="C101" s="6">
-        <f>AVERAGE(C96:C100)</f>
+      <c r="C106" s="6">
+        <f>AVERAGE(C101:C105)</f>
         <v>8.1297999999999995</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="10">
-        <f>_xlfn.STDEV.S(B96:B100)</f>
+      <c r="B107" s="10">
+        <f>_xlfn.STDEV.S(B101:B105)</f>
         <v>9.4274598911901972E-3</v>
       </c>
-      <c r="C102" s="10">
-        <f>_xlfn.STDEV.S(C96:C100)</f>
+      <c r="C107" s="10">
+        <f>_xlfn.STDEV.S(C101:C105)</f>
         <v>0.92149597394671423</v>
       </c>
     </row>
@@ -7627,10 +10644,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7641,9 +10658,12 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7653,8 +10673,26 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7664,8 +10702,26 @@
       <c r="C2" s="4">
         <v>7.5408999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="G2" s="4">
+        <v>15.829599999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.27429999999999999</v>
+      </c>
+      <c r="K2" s="4">
+        <v>64.540400000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -7675,8 +10731,22 @@
       <c r="C3" s="6">
         <v>9.0391999999999992</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="K3" s="6">
+        <v>66.343699999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7686,8 +10756,22 @@
       <c r="C4" s="4">
         <v>11.0059</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="K4" s="4">
+        <v>67.181799999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -7697,8 +10781,26 @@
       <c r="C5" s="6">
         <v>8.0114000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="G5" s="6">
+        <v>16.183</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="K5" s="6">
+        <v>72.629199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7708,8 +10810,26 @@
       <c r="C6" s="4">
         <v>10.6424</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="G6" s="4">
+        <v>16.1662</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.27850000000000003</v>
+      </c>
+      <c r="K6" s="4">
+        <v>48.421199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -7719,8 +10839,22 @@
       <c r="C7" s="6">
         <v>9.6175999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>56.792900000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7730,8 +10864,26 @@
       <c r="C8" s="4">
         <v>7.4450000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>14.8093</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.34989999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>60.761000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -7741,8 +10893,22 @@
       <c r="C9" s="6">
         <v>6.8722000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.28960000000000002</v>
+      </c>
+      <c r="K9" s="6">
+        <v>55.039299999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7752,8 +10918,26 @@
       <c r="C10" s="4">
         <v>8.0192999999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15.7041</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="K10" s="4">
+        <v>44.839500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -7763,8 +10947,22 @@
       <c r="C11" s="6">
         <v>8.0838000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="K11" s="6">
+        <v>58.839100000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -7776,8 +10974,30 @@
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
         <v>8.6277699999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.81796000000000002</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
+        <v>15.738440000000001</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.29602000000000001</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" ref="K12" si="2">AVERAGE(K2:K11)</f>
+        <v>59.538810000000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -7786,13 +11006,41 @@
         <v>2.4564599641670435E-2</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <f t="shared" ref="C13" si="3">_xlfn.STDEV.S(C2:C11)</f>
         <v>1.3972823933542473</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <f>_xlfn.STDEV.S(F2:F11)</f>
+        <v>4.1498289121360193E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13" si="4">_xlfn.STDEV.S(G2:G11)</f>
+        <v>0.5597773512745936</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <f>_xlfn.STDEV.S(J2:J11)</f>
+        <v>3.4870388584011897E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" ref="K13" si="5">_xlfn.STDEV.S(K2:K11)</f>
+        <v>8.6315696909592869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8522,15 +11770,23 @@
       <c r="A86" s="6">
         <v>4</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="C86" s="6">
+        <v>12.286799999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>5</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="B87" s="6">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C87" s="6">
+        <v>6.2750000000000004</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
@@ -8558,15 +11814,23 @@
       <c r="A90" s="6">
         <v>8</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
+      <c r="B90" s="6">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="C90" s="6">
+        <v>10.876099999999999</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>9</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="B91" s="6">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="C91" s="6">
+        <v>9.5764999999999993</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
@@ -8574,11 +11838,11 @@
       </c>
       <c r="B92" s="6">
         <f>AVERAGE(B82:B91)</f>
-        <v>0.87441666666666651</v>
+        <v>0.88240999999999992</v>
       </c>
       <c r="C92" s="6">
-        <f t="shared" ref="C92" si="2">AVERAGE(C82:C91)</f>
-        <v>9.3063500000000001</v>
+        <f t="shared" ref="C92" si="6">AVERAGE(C82:C91)</f>
+        <v>9.4852499999999988</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -8587,11 +11851,11 @@
       </c>
       <c r="B93" s="10">
         <f>_xlfn.STDEV.S(B82:B91)</f>
-        <v>3.5665244519933761E-2</v>
+        <v>2.8672846233171727E-2</v>
       </c>
       <c r="C93" s="10">
-        <f t="shared" ref="C93" si="3">_xlfn.STDEV.S(C82:C91)</f>
-        <v>1.4188164740374367</v>
+        <f t="shared" ref="C93" si="7">_xlfn.STDEV.S(C82:C91)</f>
+        <v>1.8364945456252051</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -8691,8 +11955,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="9">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -8701,6 +11965,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A82AD-21E8-4938-AA71-A2B23703730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FB860F-8EC6-4E7D-A187-1B1334AFA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -3354,7 +3354,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('Scan-Based Contrastive'!$B$24,'Scan-Based Contrastive'!$B$33,'Scan-Based Contrastive'!$B$42,'Scan-Based Contrastive'!$B$51,'Scan-Based Contrastive'!$B$60,'Scan-Based Contrastive'!$B$69,'Scan-Based Contrastive'!$B$78,'Scan-Based Contrastive'!$B$92,'Scan-Based Contrastive'!$B$101)</c:f>
+              <c:f>('Scan-Based Contrastive'!$B$24,'Scan-Based Contrastive'!$B$33,'Scan-Based Contrastive'!$B$42,'Scan-Based Contrastive'!$B$51,'Scan-Based Contrastive'!$B$60,'Scan-Based Contrastive'!$B$74,'Scan-Based Contrastive'!$B$83,'Scan-Based Contrastive'!$B$97,'Scan-Based Contrastive'!$B$106)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3374,7 +3374,7 @@
                   <c:v>0.58692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60140000000000005</c:v>
+                  <c:v>0.51794000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.66886000000000001</c:v>
@@ -3820,7 +3820,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('Scan-Based Contrastive'!$C$24,'Scan-Based Contrastive'!$C$33,'Scan-Based Contrastive'!$C$42,'Scan-Based Contrastive'!$C$51,'Scan-Based Contrastive'!$C$60,'Scan-Based Contrastive'!$C$69,'Scan-Based Contrastive'!$C$78,'Scan-Based Contrastive'!$C$92,'Scan-Based Contrastive'!$C$101)</c:f>
+              <c:f>('Scan-Based Contrastive'!$C$24,'Scan-Based Contrastive'!$C$33,'Scan-Based Contrastive'!$C$42,'Scan-Based Contrastive'!$C$51,'Scan-Based Contrastive'!$C$60,'Scan-Based Contrastive'!$C$74,'Scan-Based Contrastive'!$C$83,'Scan-Based Contrastive'!$C$97,'Scan-Based Contrastive'!$C$106)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3840,7 +3840,7 @@
                   <c:v>21.146639999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.28546</c:v>
+                  <c:v>12.64461</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.0637600000000003</c:v>
@@ -6788,8 +6788,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C68" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A63:C68" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C73" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A63:C73" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:C68">
     <sortCondition ref="A63:A68"/>
   </sortState>
@@ -6803,10 +6803,10 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A72:C77" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A72:C77" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A73:C77">
-    <sortCondition ref="A72:A77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A77:C82" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A77:C82" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
+    <sortCondition ref="A77:A82"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FC7AF66C-1D33-4794-A392-30E2A04202FA}" name="Iteration" dataDxfId="18"/>
@@ -6818,10 +6818,10 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A81:C91" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A81:C91" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:C91">
-    <sortCondition ref="A81:A91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A86:C96" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A86:C96" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C96">
+    <sortCondition ref="A86:A96"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1A31E0C1-D4B8-4568-A44D-8D04BD44783A}" name="Iteration" dataDxfId="10"/>
@@ -6833,10 +6833,10 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A95:C100" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A95:C100" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:C100">
-    <sortCondition ref="A95:A100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A100:C105" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A100:C105" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
+    <sortCondition ref="A100:A105"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{20A333EC-E398-4A1A-A4A0-BE461E976A4E}" name="Iteration" dataDxfId="2"/>
@@ -7541,8 +7541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE7B198-A19B-493B-B085-8D5AE4C3117E}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9063,7 +9063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
@@ -10263,10 +10263,10 @@
       <c r="A74" s="6">
         <v>5</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="6">
         <v>0.44669999999999999</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="6">
         <v>13.571400000000001</v>
       </c>
     </row>
@@ -10274,10 +10274,10 @@
       <c r="A75" s="6">
         <v>6</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="6">
         <v>0.43840000000000001</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="6">
         <v>11.966900000000001</v>
       </c>
     </row>
@@ -10285,10 +10285,10 @@
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="6">
         <v>0.4415</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="6">
         <v>12.247400000000001</v>
       </c>
     </row>
@@ -10296,10 +10296,10 @@
       <c r="A77" s="6">
         <v>8</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="6">
         <v>0.72140000000000004</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="6">
         <v>7.9520999999999997</v>
       </c>
     </row>
@@ -10307,10 +10307,10 @@
       <c r="A78" s="6">
         <v>9</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="10">
         <v>0.42249999999999999</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="10">
         <v>15.793799999999999</v>
       </c>
     </row>
@@ -10644,10 +10644,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R84" sqref="R84"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11588,368 +11588,423 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="13">
+        <v>5</v>
+      </c>
+      <c r="B69" s="13">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="C69" s="13">
+        <v>17.747399999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>6</v>
+      </c>
+      <c r="B70" s="13">
+        <v>0.44259999999999999</v>
+      </c>
+      <c r="C70" s="13">
+        <v>11.3957</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>7</v>
+      </c>
+      <c r="B71" s="13">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="C71" s="13">
+        <v>12.8269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>8</v>
+      </c>
+      <c r="B72" s="13">
+        <v>0.44529999999999997</v>
+      </c>
+      <c r="C72" s="13">
+        <v>11.0306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>9</v>
+      </c>
+      <c r="B73" s="14">
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="C73" s="14">
+        <v>12.0182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="6">
-        <f>AVERAGE(B64:B68)</f>
-        <v>0.60140000000000005</v>
-      </c>
-      <c r="C69" s="6">
-        <f>AVERAGE(C64:C68)</f>
-        <v>12.28546</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="B74" s="6">
+        <f>AVERAGE(B64:B73)</f>
+        <v>0.51794000000000007</v>
+      </c>
+      <c r="C74" s="6">
+        <f>AVERAGE(C64:C73)</f>
+        <v>12.64461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="10">
-        <f>_xlfn.STDEV.S(B64:B68)</f>
-        <v>0.20927521353471359</v>
-      </c>
-      <c r="C70" s="10">
-        <f>_xlfn.STDEV.S(C64:C68)</f>
-        <v>2.7964792298531358</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="B75" s="10">
+        <f>_xlfn.STDEV.S(B64:B73)</f>
+        <v>0.1650504986696831</v>
+      </c>
+      <c r="C75" s="10">
+        <f>_xlfn.STDEV.S(C64:C73)</f>
+        <v>2.6363909954708884</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
         <v>0</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B78" s="6">
         <v>0.45129999999999998</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C78" s="6">
         <v>12.1806</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
         <v>1</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B79" s="6">
         <v>0.68569999999999998</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C79" s="6">
         <v>8.4596999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
         <v>2</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B80" s="6">
         <v>0.45369999999999999</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C80" s="6">
         <v>10.0816</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
         <v>3</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B81" s="6">
         <v>0.85389999999999999</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C81" s="6">
         <v>8.8167000000000009</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>4</v>
-      </c>
-      <c r="B77" s="6">
-        <v>0.89970000000000006</v>
-      </c>
-      <c r="C77" s="6">
-        <v>5.7801999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="6">
-        <f>AVERAGE(B73:B77)</f>
-        <v>0.66886000000000001</v>
-      </c>
-      <c r="C78" s="6">
-        <f>AVERAGE(C73:C77)</f>
-        <v>9.0637600000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="10">
-        <f>_xlfn.STDEV.S(B73:B77)</f>
-        <v>0.21297691893724058</v>
-      </c>
-      <c r="C79" s="10">
-        <f>_xlfn.STDEV.S(C73:C77)</f>
-        <v>2.3429886497804482</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
+        <v>4</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="C82" s="6">
+        <v>5.7801999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="6">
+        <f>AVERAGE(B78:B82)</f>
+        <v>0.66886000000000001</v>
+      </c>
+      <c r="C83" s="6">
+        <f>AVERAGE(C78:C82)</f>
+        <v>9.0637600000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="10">
+        <f>_xlfn.STDEV.S(B78:B82)</f>
+        <v>0.21297691893724058</v>
+      </c>
+      <c r="C84" s="10">
+        <f>_xlfn.STDEV.S(C78:C82)</f>
+        <v>2.3429886497804482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="6">
-        <v>0.86550000000000005</v>
-      </c>
-      <c r="C82" s="6">
-        <v>9.3468</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="B86" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="6">
-        <v>0.87129999999999996</v>
-      </c>
-      <c r="C83" s="6">
-        <v>7.6646999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="C86" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="C84" s="6">
-        <v>10.149800000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>3</v>
-      </c>
-      <c r="B85" s="6">
-        <v>0.88990000000000002</v>
-      </c>
-      <c r="C85" s="6">
-        <v>8.9036000000000008</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>4</v>
-      </c>
-      <c r="B86" s="6">
-        <v>0.89929999999999999</v>
-      </c>
-      <c r="C86" s="6">
-        <v>12.286799999999999</v>
+      <c r="E86" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B87" s="6">
-        <v>0.89839999999999998</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="C87" s="6">
-        <v>6.2750000000000004</v>
+        <v>9.3468</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B88" s="6">
-        <v>0.9083</v>
+        <v>0.87129999999999996</v>
       </c>
       <c r="C88" s="6">
-        <v>8.1805000000000003</v>
+        <v>7.6646999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B89" s="6">
-        <v>0.90149999999999997</v>
+        <v>0.81</v>
       </c>
       <c r="C89" s="6">
-        <v>11.592700000000001</v>
+        <v>10.149800000000001</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B90" s="6">
-        <v>0.88919999999999999</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="C90" s="6">
-        <v>10.876099999999999</v>
+        <v>8.9036000000000008</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B91" s="6">
-        <v>0.89070000000000005</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="C91" s="6">
-        <v>9.5764999999999993</v>
+        <v>12.286799999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>3</v>
+      <c r="A92" s="6">
+        <v>5</v>
       </c>
       <c r="B92" s="6">
-        <f>AVERAGE(B82:B91)</f>
-        <v>0.88240999999999992</v>
+        <v>0.89839999999999998</v>
       </c>
       <c r="C92" s="6">
-        <f t="shared" ref="C92" si="6">AVERAGE(C82:C91)</f>
-        <v>9.4852499999999988</v>
+        <v>6.2750000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="6">
         <v>6</v>
       </c>
-      <c r="B93" s="10">
-        <f>_xlfn.STDEV.S(B82:B91)</f>
-        <v>2.8672846233171727E-2</v>
-      </c>
-      <c r="C93" s="10">
-        <f t="shared" ref="C93" si="7">_xlfn.STDEV.S(C82:C91)</f>
-        <v>1.8364945456252051</v>
+      <c r="B93" s="6">
+        <v>0.9083</v>
+      </c>
+      <c r="C93" s="6">
+        <v>8.1805000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>7</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="C94" s="6">
+        <v>11.592700000000001</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s">
-        <v>36</v>
+      <c r="A95" s="6">
+        <v>8</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="C95" s="6">
+        <v>10.876099999999999</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
+        <v>9</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="C96" s="6">
+        <v>9.5764999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="6">
+        <f>AVERAGE(B87:B96)</f>
+        <v>0.88240999999999992</v>
+      </c>
+      <c r="C97" s="6">
+        <f t="shared" ref="C97" si="6">AVERAGE(C87:C96)</f>
+        <v>9.4852499999999988</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="10">
+        <f>_xlfn.STDEV.S(B87:B96)</f>
+        <v>2.8672846233171727E-2</v>
+      </c>
+      <c r="C98" s="10">
+        <f t="shared" ref="C98" si="7">_xlfn.STDEV.S(C87:C96)</f>
+        <v>1.8364945456252051</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>0</v>
+      </c>
+      <c r="B101" s="6">
         <v>0.9073</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C101" s="6">
         <v>10.310700000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
         <v>1</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B102" s="6">
         <v>0.90210000000000001</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C102" s="6">
         <v>10.0806</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
         <v>2</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B103" s="6">
         <v>0.9093</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C103" s="6">
         <v>9.9481999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
         <v>3</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B104" s="6">
         <v>0.87890000000000001</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C104" s="6">
         <v>8.0983000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
         <v>4</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B105" s="6">
         <v>0.88449999999999995</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C105" s="6">
         <v>10.068199999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="6">
-        <f>AVERAGE(B96:B100)</f>
+      <c r="B106" s="6">
+        <f>AVERAGE(B101:B105)</f>
         <v>0.89641999999999999</v>
       </c>
-      <c r="C101" s="6">
-        <f>AVERAGE(C96:C100)</f>
+      <c r="C106" s="6">
+        <f>AVERAGE(C101:C105)</f>
         <v>9.7012</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="10">
-        <f>_xlfn.STDEV.S(B96:B100)</f>
+      <c r="B107" s="10">
+        <f>_xlfn.STDEV.S(B101:B105)</f>
         <v>1.3834449754146355E-2</v>
       </c>
-      <c r="C102" s="10">
-        <f>_xlfn.STDEV.S(C96:C100)</f>
+      <c r="C107" s="10">
+        <f>_xlfn.STDEV.S(C101:C105)</f>
         <v>0.90559662930026419</v>
       </c>
     </row>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FB860F-8EC6-4E7D-A187-1B1334AFA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517423D-5E3F-4779-8C24-78653566C6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="704" firstSheet="2" activeTab="8" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Joint Training" sheetId="1" r:id="rId7"/>
     <sheet name="Class-Based Contrastive" sheetId="10" r:id="rId8"/>
     <sheet name="Scan-Based Contrastive" sheetId="11" r:id="rId9"/>
+    <sheet name="SimCLR" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="42">
   <si>
     <t>Iteration</t>
   </si>
@@ -153,6 +154,12 @@
   </si>
   <si>
     <t>MultiClass</t>
+  </si>
+  <si>
+    <t>vs SimCLR</t>
+  </si>
+  <si>
+    <t>Dice</t>
   </si>
 </sst>
 </file>
@@ -277,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -291,8 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7537,12 +7542,179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9EE4C0-4CF0-4381-B80F-8E9FC582ED4A}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12.1632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.1182999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18.5596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="C5" s="6">
+        <v>12.710800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11.8652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10.9549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14.4651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="C9" s="6">
+        <v>14.828900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11.159800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10.111700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.86489000000000016</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
+        <v>12.59375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>6.0381104476299168E-3</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>2.7447007225034796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE7B198-A19B-493B-B085-8D5AE4C3117E}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7975,7 +8147,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8145,7 +8317,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8313,7 +8485,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8563,7 +8735,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9063,8 +9235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9075,6 +9247,7 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" customWidth="1"/>
@@ -9605,6 +9778,9 @@
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
       <c r="M18">
         <f>_xlfn.T.TEST('Class-Based Contrastive'!O2:O11, 'Standard Training'!C16:C25, 2, 3)</f>
         <v>0.86228730050467084</v>
@@ -9620,6 +9796,13 @@
       <c r="C19" s="6">
         <v>84.214699999999993</v>
       </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19">
+        <f>_xlfn.T.TEST(B2:B11, SimCLR!B2:B11, 2, 3)</f>
+        <v>1.6427687072287007E-9</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -9630,6 +9813,13 @@
       </c>
       <c r="C20" s="6">
         <v>70.755099999999999</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.T.TEST('Class-Based Contrastive'!C2:C11, SimCLR!C2:C11, 2, 3)</f>
+        <v>1.9872755606033248E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -10646,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11043,7 +11233,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -11056,8 +11251,15 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.T.TEST(B2:B11, SimCLR!B2:B11, 2, 3)</f>
+        <v>7.8989740317153723E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0</v>
       </c>
@@ -11067,8 +11269,15 @@
       <c r="C19" s="6">
         <v>58.446899999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <f>_xlfn.T.TEST(C2:C11, SimCLR!C2:C11, 2, 3)</f>
+        <v>1.2495868391070274E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -11079,7 +11288,7 @@
         <v>40.997399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -11090,7 +11299,7 @@
         <v>44.982300000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -11101,7 +11310,7 @@
         <v>57.547899999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>4</v>
       </c>
@@ -11112,7 +11321,7 @@
         <v>37.638800000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -11125,7 +11334,7 @@
         <v>47.92266</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -11138,7 +11347,7 @@
         <v>9.5625257141092241</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
@@ -11152,7 +11361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0</v>
       </c>
@@ -11163,7 +11372,7 @@
         <v>59.244900000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -11174,7 +11383,7 @@
         <v>39.353499999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2</v>
       </c>
@@ -11185,7 +11394,7 @@
         <v>41.850999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>3</v>
       </c>
@@ -11196,7 +11405,7 @@
         <v>53.451999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>4</v>
       </c>
@@ -11588,57 +11797,57 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+      <c r="A69" s="6">
         <v>5</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="6">
         <v>0.42599999999999999</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="6">
         <v>17.747399999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
+      <c r="A70" s="6">
         <v>6</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="6">
         <v>0.44259999999999999</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="6">
         <v>11.3957</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
+      <c r="A71" s="6">
         <v>7</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="6">
         <v>0.43280000000000002</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="6">
         <v>12.8269</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+      <c r="A72" s="6">
         <v>8</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="6">
         <v>0.44529999999999997</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="6">
         <v>11.0306</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+      <c r="A73" s="10">
         <v>9</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="10">
         <v>0.42570000000000002</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="10">
         <v>12.0182</v>
       </c>
     </row>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517423D-5E3F-4779-8C24-78653566C6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E400E0A-F2A5-4853-898B-79642C5F6BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="704" firstSheet="2" activeTab="8" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="704" firstSheet="2" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="42">
   <si>
     <t>Iteration</t>
   </si>
@@ -284,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -298,11 +298,996 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="215">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -6586,150 +7571,150 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="207" dataDxfId="205" headerRowBorderDxfId="206" tableBorderDxfId="204" totalsRowBorderDxfId="203">
   <autoFilter ref="A27:C34" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C34">
     <sortCondition descending="1" ref="B27:B34"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{B132146E-5BC4-4EF3-8699-BD5C5087D10F}" name="Iteration" dataDxfId="202"/>
+    <tableColumn id="2" xr3:uid="{B52C5269-D4F5-4A70-B777-1E33D04ADC40}" name="Dice Score" dataDxfId="201"/>
+    <tableColumn id="3" xr3:uid="{20F26483-B3FE-4F1C-8A70-7A3CD6658F5F}" name="Hausdorff Distance" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
   <autoFilter ref="A36:C41" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
     <sortCondition descending="1" ref="B36:B41"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{3ED1779F-4F75-4C12-AD1E-CF22BE3A51A2}" name="Iteration" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{0BD294F6-5AE6-4C51-AA1E-C0082EDBF068}" name="Dice Score" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{BCB271B5-CA6D-4698-84A9-5C414BA2039C}" name="Hausdorff Distance" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="191" dataDxfId="189" headerRowBorderDxfId="190" tableBorderDxfId="188" totalsRowBorderDxfId="187">
   <autoFilter ref="A45:C50" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
     <sortCondition ref="A45:A50"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8C282437-5725-4450-98B8-52345604C1B8}" name="Iteration" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{FDFE7725-A109-42E9-9D36-FB6E7851F5AA}" name="Dice Score" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{FCE2B995-C997-4072-817E-1F89D4BF5E05}" name="Hausdorff Distance" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{8C282437-5725-4450-98B8-52345604C1B8}" name="Iteration" dataDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{FDFE7725-A109-42E9-9D36-FB6E7851F5AA}" name="Dice Score" dataDxfId="185"/>
+    <tableColumn id="3" xr3:uid="{FCE2B995-C997-4072-817E-1F89D4BF5E05}" name="Hausdorff Distance" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="183" dataDxfId="181" headerRowBorderDxfId="182" tableBorderDxfId="180" totalsRowBorderDxfId="179">
   <autoFilter ref="A54:C64" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C64">
     <sortCondition ref="A54:A64"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{807ADEC1-BDA7-41E3-8ABE-F75B7F1FF8B9}" name="Iteration" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{8AA33A74-4033-4307-9039-21C28EA58802}" name="Dice Score" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{0EB4CD20-1D14-47DC-8D82-310CBBEAE9FF}" name="Hausdorff Distance" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{807ADEC1-BDA7-41E3-8ABE-F75B7F1FF8B9}" name="Iteration" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{8AA33A74-4033-4307-9039-21C28EA58802}" name="Dice Score" dataDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{0EB4CD20-1D14-47DC-8D82-310CBBEAE9FF}" name="Hausdorff Distance" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C78" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C78" totalsRowShown="0" headerRowDxfId="175" dataDxfId="173" headerRowBorderDxfId="174" tableBorderDxfId="172" totalsRowBorderDxfId="171">
   <autoFilter ref="A68:C78" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:C73">
     <sortCondition ref="A68:A73"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B338A6E6-9803-43D8-BB91-85284C2EA5F0}" name="Iteration" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{79BDC265-4F0D-4265-86B8-ADA88F408442}" name="Dice Score" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{453BB242-4868-402B-8F1F-6E493000904A}" name="Hausdorff Distance" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{B338A6E6-9803-43D8-BB91-85284C2EA5F0}" name="Iteration" dataDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{79BDC265-4F0D-4265-86B8-ADA88F408442}" name="Dice Score" dataDxfId="169"/>
+    <tableColumn id="3" xr3:uid="{453BB242-4868-402B-8F1F-6E493000904A}" name="Hausdorff Distance" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A82:C87" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A82:C87" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164" totalsRowBorderDxfId="163">
   <autoFilter ref="A82:C87" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:C87">
     <sortCondition ref="A82:A87"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A91:C96" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A91:C96" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156" totalsRowBorderDxfId="155">
   <autoFilter ref="A91:C96" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A92:C96">
     <sortCondition ref="A91:A96"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A100:C105" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A100:C105" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
   <autoFilter ref="A100:C105" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
     <sortCondition ref="A100:A105"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}" name="Table1126" displayName="Table1126" ref="A18:C23" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}" name="Table1126" displayName="Table1126" ref="A18:C23" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
   <autoFilter ref="A18:C23" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C23">
     <sortCondition ref="A18:A23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4F637688-AA99-4296-B478-966FD5ED9C08}" name="Iteration" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{8FDB03A6-76C2-4600-8489-35C46F2DA9A2}" name="Dice Score" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{A41D579A-33CE-4B5B-81C2-F7B8415EA336}" name="Hausdorff Distance" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{4F637688-AA99-4296-B478-966FD5ED9C08}" name="Iteration" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{8FDB03A6-76C2-4600-8489-35C46F2DA9A2}" name="Dice Score" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{A41D579A-33CE-4B5B-81C2-F7B8415EA336}" name="Hausdorff Distance" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
   <autoFilter ref="A27:C32" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C32">
     <sortCondition ref="A27:A32"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{788DA027-4758-45B7-A325-3B27EC92CC49}" name="Iteration" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{257FE13F-90B0-4E7F-84EA-3FA1DF74F7CB}" name="Dice Score" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{DE5F4771-E359-46A1-B6F2-FBB5418DBCFB}" name="Hausdorff Distance" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{788DA027-4758-45B7-A325-3B27EC92CC49}" name="Iteration" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{257FE13F-90B0-4E7F-84EA-3FA1DF74F7CB}" name="Dice Score" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{DE5F4771-E359-46A1-B6F2-FBB5418DBCFB}" name="Hausdorff Distance" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6748,105 +7733,150 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}" name="Table1128" displayName="Table1128" ref="A36:C41" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}" name="Table1128" displayName="Table1128" ref="A36:C41" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
   <autoFilter ref="A36:C41" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
     <sortCondition ref="A36:A41"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77B2ECDA-9A50-494E-8BAD-0618CAA31C54}" name="Iteration" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{9975496E-D29C-4B59-B663-811B515C87BC}" name="Dice Score" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{9AB8C43F-C7E6-4A40-A980-63B57E5BCB3A}" name="Hausdorff Distance" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{77B2ECDA-9A50-494E-8BAD-0618CAA31C54}" name="Iteration" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{9975496E-D29C-4B59-B663-811B515C87BC}" name="Dice Score" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{9AB8C43F-C7E6-4A40-A980-63B57E5BCB3A}" name="Hausdorff Distance" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}" name="Table1129" displayName="Table1129" ref="A45:C50" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}" name="Table1129" displayName="Table1129" ref="A45:C50" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
   <autoFilter ref="A45:C50" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
     <sortCondition ref="A45:A50"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{71EA642A-81F9-4F19-B3D8-E11889135445}" name="Iteration" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{4C2FAD98-E434-492D-8418-3160E738D28A}" name="Dice Score" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{F74DAC32-9886-460E-815B-1BDD2FFAD405}" name="Hausdorff Distance" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{71EA642A-81F9-4F19-B3D8-E11889135445}" name="Iteration" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{4C2FAD98-E434-492D-8418-3160E738D28A}" name="Dice Score" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{F74DAC32-9886-460E-815B-1BDD2FFAD405}" name="Hausdorff Distance" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}" name="Table1130" displayName="Table1130" ref="A54:C59" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}" name="Table1130" displayName="Table1130" ref="A54:C59" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <autoFilter ref="A54:C59" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C59">
     <sortCondition ref="A54:A59"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7D2424F2-7AA2-410B-936F-34A1E0906F68}" name="Iteration" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{F82397EE-88A3-40F6-836E-9E40941060F5}" name="Dice Score" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{AD7759CE-AF8B-4E3E-B459-02A928FC4F39}" name="Hausdorff Distance" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{7D2424F2-7AA2-410B-936F-34A1E0906F68}" name="Iteration" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{F82397EE-88A3-40F6-836E-9E40941060F5}" name="Dice Score" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{AD7759CE-AF8B-4E3E-B459-02A928FC4F39}" name="Hausdorff Distance" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C73" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C73" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
   <autoFilter ref="A63:C73" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:C68">
     <sortCondition ref="A63:A68"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B3041A79-D11C-47C9-902B-718EB7EA3CBF}" name="Iteration" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{E0B6645D-B230-4295-80E4-EFA9DA6B436A}" name="Dice Score" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{E105A377-DB01-4DCD-9EB0-409736A5AF26}" name="Hausdorff Distance" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{B3041A79-D11C-47C9-902B-718EB7EA3CBF}" name="Iteration" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{E0B6645D-B230-4295-80E4-EFA9DA6B436A}" name="Dice Score" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{E105A377-DB01-4DCD-9EB0-409736A5AF26}" name="Hausdorff Distance" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A77:C82" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A77:C82" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
   <autoFilter ref="A77:C82" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
     <sortCondition ref="A77:A82"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FC7AF66C-1D33-4794-A392-30E2A04202FA}" name="Iteration" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{04489E56-FA6B-4E7E-B842-8B24E2A21DB0}" name="Dice Score" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{5F966FED-658B-4605-8BCE-271816C165A8}" name="Hausdorff Distance" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{FC7AF66C-1D33-4794-A392-30E2A04202FA}" name="Iteration" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{04489E56-FA6B-4E7E-B842-8B24E2A21DB0}" name="Dice Score" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{5F966FED-658B-4605-8BCE-271816C165A8}" name="Hausdorff Distance" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A86:C96" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A86:C96" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="A86:C96" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C96">
     <sortCondition ref="A86:A96"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A31E0C1-D4B8-4568-A44D-8D04BD44783A}" name="Iteration" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{416F10C1-B76C-4601-B65B-40A110D3DD55}" name="Dice Score" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{5F8FAE4E-8291-4937-AE7A-337ED4424B21}" name="Hausdorff Distance" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1A31E0C1-D4B8-4568-A44D-8D04BD44783A}" name="Iteration" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{416F10C1-B76C-4601-B65B-40A110D3DD55}" name="Dice Score" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{5F8FAE4E-8291-4937-AE7A-337ED4424B21}" name="Hausdorff Distance" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A100:C105" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A100:C105" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A100:C105" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
     <sortCondition ref="A100:A105"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{20A333EC-E398-4A1A-A4A0-BE461E976A4E}" name="Iteration" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7053D4D9-DB8B-4FAA-B15D-63C7F0EBE19C}" name="Dice Score" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E11197D4-30F5-49DF-893D-E7826C383D38}" name="Hausdorff Distance" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{20A333EC-E398-4A1A-A4A0-BE461E976A4E}" name="Iteration" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{7053D4D9-DB8B-4FAA-B15D-63C7F0EBE19C}" name="Dice Score" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{E11197D4-30F5-49DF-893D-E7826C383D38}" name="Hausdorff Distance" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}" name="Table18" displayName="Table18" ref="A15:C20" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="70" tableBorderDxfId="71" totalsRowBorderDxfId="69">
+  <autoFilter ref="A15:C20" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:C20">
+    <sortCondition ref="A15:A20"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{53EF963B-D662-4E98-B94B-87399714F74D}" name="Iteration" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{0A35C664-EABE-417D-B478-00567ED0F6FA}" name="Dice Score" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{A48DC984-B1EE-421D-9876-9CB5407B74E5}" name="Hausdorff Distance" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}" name="Table19" displayName="Table19" ref="A24:C29" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
+  <autoFilter ref="A24:C29" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:C29">
+    <sortCondition ref="A24:A29"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4B4BA720-93A1-4E5A-A04E-2D1E12FF7AC4}" name="Iteration" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{1F83F8F0-9F02-4733-9B90-333ED19D1519}" name="Dice Score" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{B49154BA-4499-4674-BC1C-3CB1A6371D28}" name="Hausdorff Distance" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}" name="Table20" displayName="Table20" ref="A33:C38" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="64" tableBorderDxfId="65" totalsRowBorderDxfId="63">
+  <autoFilter ref="A33:C38" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C38">
+    <sortCondition ref="A33:A38"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8A82E1BC-745A-40AA-9494-735AA9BC0565}" name="Iteration" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{85AB1E52-41E6-44C4-B019-A6B1C8482760}" name="Dice Score" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{864B0F8E-692E-49F3-9E3A-E033C9985B87}" name="Hausdorff Distance" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6859,6 +7889,96 @@
     <tableColumn id="1" xr3:uid="{9F5D598E-5452-4D6A-9A3B-D3EE86BDC1A6}" name="Iteration"/>
     <tableColumn id="2" xr3:uid="{E860D05E-5AF9-49FD-BA40-411854D60F38}" name="Dice Score"/>
     <tableColumn id="3" xr3:uid="{62D4D843-F506-4B26-8494-8D10ADDA56A1}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}" name="Table21" displayName="Table21" ref="A42:C47" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60">
+  <autoFilter ref="A42:C47" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:C47">
+    <sortCondition ref="A42:A47"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{73CA3CA8-39DC-4D23-837F-1CCC7D520CA1}" name="Iteration" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{937C2A8C-A668-4A06-B2CF-D8C5288222B8}" name="Dice Score" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{47A65F9C-1DA4-4999-9239-27DC98D4570C}" name="Hausdorff Distance" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}" name="Table22" displayName="Table22" ref="A51:C56" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="58" tableBorderDxfId="59" totalsRowBorderDxfId="57">
+  <autoFilter ref="A51:C56" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:C56">
+    <sortCondition ref="A51:A56"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{54E78634-2B65-4CE8-9954-8B9FF8F7BEB5}" name="Iteration" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{F57FCE52-D98F-4033-B6CC-8DC4B55E9A57}" name="Dice Score" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{B951249D-D146-4CE3-AEFE-BF8F46D69854}" name="Hausdorff Distance" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}" name="Table23" displayName="Table23" ref="A60:C65" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
+  <autoFilter ref="A60:C65" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A61:C65">
+    <sortCondition ref="A60:A65"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{795075D3-1E85-446F-92DA-563C8655E2D6}" name="Iteration" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{6CA5CB58-C528-4CD2-904B-E6276EDFF7F2}" name="Dice Score" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{E717D37C-3617-441B-80FB-11A563DAE066}" name="Hausdorff Distance" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}" name="Table24" displayName="Table24" ref="A69:C74" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+  <autoFilter ref="A69:C74" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A70:C74">
+    <sortCondition ref="A69:A74"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C2D24FD1-111A-47EA-BFED-05D9803D1EBC}" name="Iteration" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E3479DB4-8990-4426-B76D-619E4197AE96}" name="Dice Score" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C7977E73-E9CD-43E1-AA95-0BE2C0895A9D}" name="Hausdorff Distance" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}" name="Table34" displayName="Table34" ref="A78:C83" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="49" tableBorderDxfId="50" totalsRowBorderDxfId="48">
+  <autoFilter ref="A78:C83" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A79:C83">
+    <sortCondition ref="A78:A83"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EDC97D37-4229-4F9D-8C5E-2ADD04F7FA9D}" name="Iteration" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3F1937B1-CC3F-406D-9E69-1F583F40E23E}" name="Dice Score" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5788025C-4A15-44D1-87F1-1F2F52F9B17C}" name="Hausdorff Distance" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}" name="Table35" displayName="Table35" ref="A87:C92" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+  <autoFilter ref="A87:C92" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:C92">
+    <sortCondition ref="A87:A92"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5D9B42C8-F0BA-4E81-89F0-73016538088B}" name="Iteration" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{535E3AD6-7529-4C06-B50C-818704A248C5}" name="Dice Score" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{79147823-E1CB-4C0D-81D1-115CA441A579}" name="Hausdorff Distance" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6931,15 +8051,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="142" headerRowBorderDxfId="141" tableBorderDxfId="140" totalsRowBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="214" headerRowBorderDxfId="213" tableBorderDxfId="212" totalsRowBorderDxfId="211">
   <autoFilter ref="A18:C25" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C25">
     <sortCondition descending="1" ref="B18:B25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="136"/>
+    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="209"/>
+    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="208"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7544,10 +8664,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9EE4C0-4CF0-4381-B80F-8E9FC582ED4A}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7557,7 +8677,7 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7568,7 +8688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7579,7 +8699,7 @@
         <v>12.1632</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -7590,7 +8710,7 @@
         <v>9.1182999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7601,7 +8721,7 @@
         <v>18.5596</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -7612,7 +8732,7 @@
         <v>12.710800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7623,7 +8743,7 @@
         <v>11.8652</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -7634,7 +8754,7 @@
         <v>10.9549</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7645,7 +8765,7 @@
         <v>14.4651</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -7656,7 +8776,7 @@
         <v>14.828900000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7667,7 +8787,7 @@
         <v>11.159800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -7678,7 +8798,7 @@
         <v>10.111700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -7691,7 +8811,7 @@
         <v>12.59375</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -7704,8 +8824,1024 @@
         <v>2.7447007225034796</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="C16" s="15">
+        <v>95.767600000000002</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="C17" s="15">
+        <v>96.348399999999998</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="C18" s="15">
+        <v>81.941900000000004</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.1615</v>
+      </c>
+      <c r="C19" s="15">
+        <v>86.222200000000001</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>5</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.1971</v>
+      </c>
+      <c r="C20" s="15">
+        <v>101.2525</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="15">
+        <f>AVERAGE(B16:B20)</f>
+        <v>0.17873999999999998</v>
+      </c>
+      <c r="C21" s="15">
+        <f>AVERAGE(C16:C20)</f>
+        <v>92.306520000000006</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="15">
+        <f>_xlfn.STDEV.S(B16:B20)</f>
+        <v>1.8488726294691036E-2</v>
+      </c>
+      <c r="C22" s="15">
+        <f>_xlfn.STDEV.S(C16:C20)</f>
+        <v>7.9496969198202745</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>1</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="C25" s="15">
+        <v>37.651499999999999</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>2</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0.26769999999999999</v>
+      </c>
+      <c r="C26" s="15">
+        <v>54.393900000000002</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>3</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C27" s="15">
+        <v>31.835799999999999</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>4</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="C28" s="15">
+        <v>64.045400000000001</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>5</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="C29" s="15">
+        <v>64.946899999999999</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="15">
+        <f>AVERAGE(B25:B29)</f>
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="C30" s="15">
+        <f>AVERAGE(C25:C29)</f>
+        <v>50.5747</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="15">
+        <f>_xlfn.STDEV.S(B25:B29)</f>
+        <v>1.7592185765276585E-2</v>
+      </c>
+      <c r="C31" s="15">
+        <f>_xlfn.STDEV.S(C25:C29)</f>
+        <v>15.172027315260131</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>1</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0.2676</v>
+      </c>
+      <c r="C34" s="15">
+        <v>44.520200000000003</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>2</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="C35" s="15">
+        <v>65.411600000000007</v>
+      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>3</v>
+      </c>
+      <c r="B36" s="15">
+        <v>0.2276</v>
+      </c>
+      <c r="C36" s="15">
+        <v>58.474699999999999</v>
+      </c>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>4</v>
+      </c>
+      <c r="B37" s="15">
+        <v>0.2414</v>
+      </c>
+      <c r="C37" s="15">
+        <v>63.030299999999997</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>5</v>
+      </c>
+      <c r="B38" s="15">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="C38" s="15">
+        <v>67.628699999999995</v>
+      </c>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="15">
+        <f>AVERAGE(B34:B38)</f>
+        <v>0.23957999999999999</v>
+      </c>
+      <c r="C39" s="15">
+        <f>AVERAGE(C34:C38)</f>
+        <v>59.813099999999999</v>
+      </c>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="15">
+        <f>_xlfn.STDEV.S(B34:B38)</f>
+        <v>1.7818866406143798E-2</v>
+      </c>
+      <c r="C40" s="15">
+        <f>_xlfn.STDEV.S(C34:C38)</f>
+        <v>9.1983869023324161</v>
+      </c>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>1</v>
+      </c>
+      <c r="B43" s="15">
+        <v>0.4577</v>
+      </c>
+      <c r="C43" s="15">
+        <v>23.7454</v>
+      </c>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>2</v>
+      </c>
+      <c r="B44" s="15">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="C44" s="15">
+        <v>23.002500000000001</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>3</v>
+      </c>
+      <c r="B45" s="15">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="C45" s="15">
+        <v>33.742400000000004</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>4</v>
+      </c>
+      <c r="B46" s="15">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="C46" s="15">
+        <v>32.106000000000002</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>5</v>
+      </c>
+      <c r="B47" s="15">
+        <v>0.39979999999999999</v>
+      </c>
+      <c r="C47" s="15">
+        <v>35.446899999999999</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="15">
+        <f>AVERAGE(B43:B47)</f>
+        <v>0.43506</v>
+      </c>
+      <c r="C48" s="15">
+        <f>AVERAGE(C43:C47)</f>
+        <v>29.608640000000001</v>
+      </c>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="15">
+        <f>_xlfn.STDEV.S(B43:B47)</f>
+        <v>5.5957823402988209E-2</v>
+      </c>
+      <c r="C49" s="15">
+        <f>_xlfn.STDEV.S(C43:C47)</f>
+        <v>5.8186924547530294</v>
+      </c>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>1</v>
+      </c>
+      <c r="B52" s="15">
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="C52" s="15">
+        <v>33.8611</v>
+      </c>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>2</v>
+      </c>
+      <c r="B53" s="15">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="C53" s="15">
+        <v>38.575699999999998</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>3</v>
+      </c>
+      <c r="B54" s="15">
+        <v>0.39689999999999998</v>
+      </c>
+      <c r="C54" s="15">
+        <v>41.032800000000002</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>4</v>
+      </c>
+      <c r="B55" s="15">
+        <v>0.40660000000000002</v>
+      </c>
+      <c r="C55" s="15">
+        <v>36.636299999999999</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>5</v>
+      </c>
+      <c r="B56" s="15">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="C56" s="15">
+        <v>44.318100000000001</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="15">
+        <f>AVERAGE(B52:B56)</f>
+        <v>0.39818000000000003</v>
+      </c>
+      <c r="C57" s="15">
+        <f>AVERAGE(C52:C56)</f>
+        <v>38.884800000000006</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="15">
+        <f>_xlfn.STDEV.S(B52:B56)</f>
+        <v>6.8357150320943021E-3</v>
+      </c>
+      <c r="C58" s="15">
+        <f>_xlfn.STDEV.S(C52:C56)</f>
+        <v>4.0163263575063226</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>1</v>
+      </c>
+      <c r="B61" s="15">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="C61" s="15">
+        <v>32.052999999999997</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>2</v>
+      </c>
+      <c r="B62" s="15">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="C62" s="15">
+        <v>13.066800000000001</v>
+      </c>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>3</v>
+      </c>
+      <c r="B63" s="15">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="C63" s="15">
+        <v>11.4306</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>4</v>
+      </c>
+      <c r="B64" s="15">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="C64" s="15">
+        <v>16.140899999999998</v>
+      </c>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>5</v>
+      </c>
+      <c r="B65" s="15">
+        <v>0.8196</v>
+      </c>
+      <c r="C65" s="15">
+        <v>13.795</v>
+      </c>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="15">
+        <f>AVERAGE(B61:B65)</f>
+        <v>0.75971999999999995</v>
+      </c>
+      <c r="C66" s="15">
+        <f>AVERAGE(C61:C65)</f>
+        <v>17.297260000000001</v>
+      </c>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="15">
+        <f>_xlfn.STDEV.S(B61:B65)</f>
+        <v>0.18971380287158857</v>
+      </c>
+      <c r="C67" s="15">
+        <f>_xlfn.STDEV.S(C61:C65)</f>
+        <v>8.4209463225934336</v>
+      </c>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>1</v>
+      </c>
+      <c r="B70" s="15">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="C70" s="15">
+        <v>8.4338999999999995</v>
+      </c>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>2</v>
+      </c>
+      <c r="B71" s="15">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="C71" s="15">
+        <v>9.5946999999999996</v>
+      </c>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>3</v>
+      </c>
+      <c r="B72" s="15">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="C72" s="15">
+        <v>12.7072</v>
+      </c>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>4</v>
+      </c>
+      <c r="B73" s="15">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="C73" s="15">
+        <v>11.2346</v>
+      </c>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
+        <v>5</v>
+      </c>
+      <c r="B74" s="15">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C74" s="15">
+        <v>9.9821000000000009</v>
+      </c>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="15">
+        <f>AVERAGE(B70:B74)</f>
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="C75" s="15">
+        <f>AVERAGE(C70:C74)</f>
+        <v>10.390499999999999</v>
+      </c>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="15">
+        <f>_xlfn.STDEV.S(B70:B74)</f>
+        <v>5.8768188673805266E-3</v>
+      </c>
+      <c r="C76" s="15">
+        <f>_xlfn.STDEV.S(C70:C74)</f>
+        <v>1.6361521521545561</v>
+      </c>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>1</v>
+      </c>
+      <c r="B79" s="15">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C79" s="15">
+        <v>11.2805</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
+        <v>2</v>
+      </c>
+      <c r="B80" s="15">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="C80" s="15">
+        <v>27.525300000000001</v>
+      </c>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
+        <v>3</v>
+      </c>
+      <c r="B81" s="15">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="C81" s="15">
+        <v>19.981999999999999</v>
+      </c>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
+        <v>4</v>
+      </c>
+      <c r="B82" s="15">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="C82" s="15">
+        <v>22.498699999999999</v>
+      </c>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="15">
+        <v>5</v>
+      </c>
+      <c r="B83" s="15">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="C83" s="15">
+        <v>15.787800000000001</v>
+      </c>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="15">
+        <f>AVERAGE(B79:B83)</f>
+        <v>0.49933999999999995</v>
+      </c>
+      <c r="C84" s="15">
+        <f>AVERAGE(C79:C83)</f>
+        <v>19.414860000000001</v>
+      </c>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="15">
+        <f>_xlfn.STDEV.S(B79:B83)</f>
+        <v>0.15411147913117967</v>
+      </c>
+      <c r="C85" s="15">
+        <f>_xlfn.STDEV.S(C79:C83)</f>
+        <v>6.2236309894626638</v>
+      </c>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <v>1</v>
+      </c>
+      <c r="B88" s="15">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="C88" s="15">
+        <v>9.7341999999999995</v>
+      </c>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <v>2</v>
+      </c>
+      <c r="B89" s="15">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="C89" s="15">
+        <v>13.1211</v>
+      </c>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <v>3</v>
+      </c>
+      <c r="B90" s="15">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="C90" s="15">
+        <v>12.1736</v>
+      </c>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
+        <v>4</v>
+      </c>
+      <c r="B91" s="15">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="C91" s="15">
+        <v>11.2583</v>
+      </c>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
+        <v>5</v>
+      </c>
+      <c r="B92" s="15">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="C92" s="15">
+        <v>9.0557999999999996</v>
+      </c>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="15">
+        <f>AVERAGE(B88:B92)</f>
+        <v>0.86868000000000001</v>
+      </c>
+      <c r="C93" s="15">
+        <f>AVERAGE(C88:C92)</f>
+        <v>11.0686</v>
+      </c>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="15">
+        <f>_xlfn.STDEV.S(B88:B92)</f>
+        <v>1.2593133049404345E-2</v>
+      </c>
+      <c r="C94" s="15">
+        <f>_xlfn.STDEV.S(C88:C92)</f>
+        <v>1.6809041123752455</v>
+      </c>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f>_xlfn.T.TEST(B70:B74, 'Standard Training'!B2:B11, 2, 3)</f>
+        <v>0.98987604767553528</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f>_xlfn.T.TEST(C70:C74, 'Standard Training'!C2:C11, 2, 3)</f>
+        <v>4.6015236166585059E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="9">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9235,7 +11371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -10836,7 +12972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E400E0A-F2A5-4853-898B-79642C5F6BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2585A5A7-D42C-43E2-9A92-5A44141A000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="704" firstSheet="2" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="44">
   <si>
     <t>Iteration</t>
   </si>
@@ -161,6 +161,12 @@
   <si>
     <t>Dice</t>
   </si>
+  <si>
+    <t>TotalSegmentator w/ FineTuning</t>
+  </si>
+  <si>
+    <t>TotalSegmentator w/ Fine Tuning</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -298,10 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +316,84 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -390,11 +471,38 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -472,11 +580,38 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -554,11 +689,38 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -636,11 +798,38 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -718,11 +907,38 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -800,11 +1016,38 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -882,11 +1125,38 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -964,11 +1234,38 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -993,300 +1290,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -7838,45 +7841,45 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}" name="Table18" displayName="Table18" ref="A15:C20" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" headerRowBorderDxfId="70" tableBorderDxfId="71" totalsRowBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}" name="Table18" displayName="Table18" ref="A15:C20" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="A15:C20" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:C20">
     <sortCondition ref="A15:A20"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{53EF963B-D662-4E98-B94B-87399714F74D}" name="Iteration" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{0A35C664-EABE-417D-B478-00567ED0F6FA}" name="Dice Score" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{A48DC984-B1EE-421D-9876-9CB5407B74E5}" name="Hausdorff Distance" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{53EF963B-D662-4E98-B94B-87399714F74D}" name="Iteration" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{0A35C664-EABE-417D-B478-00567ED0F6FA}" name="Dice Score" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{A48DC984-B1EE-421D-9876-9CB5407B74E5}" name="Hausdorff Distance" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}" name="Table19" displayName="Table19" ref="A24:C29" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}" name="Table19" displayName="Table19" ref="A24:C29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A24:C29" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:C29">
     <sortCondition ref="A24:A29"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4B4BA720-93A1-4E5A-A04E-2D1E12FF7AC4}" name="Iteration" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{1F83F8F0-9F02-4733-9B90-333ED19D1519}" name="Dice Score" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{B49154BA-4499-4674-BC1C-3CB1A6371D28}" name="Hausdorff Distance" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{4B4BA720-93A1-4E5A-A04E-2D1E12FF7AC4}" name="Iteration" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{1F83F8F0-9F02-4733-9B90-333ED19D1519}" name="Dice Score" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{B49154BA-4499-4674-BC1C-3CB1A6371D28}" name="Hausdorff Distance" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}" name="Table20" displayName="Table20" ref="A33:C38" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="64" tableBorderDxfId="65" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}" name="Table20" displayName="Table20" ref="A33:C38" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="A33:C38" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C38">
     <sortCondition ref="A33:A38"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8A82E1BC-745A-40AA-9494-735AA9BC0565}" name="Iteration" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{85AB1E52-41E6-44C4-B019-A6B1C8482760}" name="Dice Score" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{864B0F8E-692E-49F3-9E3A-E033C9985B87}" name="Hausdorff Distance" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{8A82E1BC-745A-40AA-9494-735AA9BC0565}" name="Iteration" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{85AB1E52-41E6-44C4-B019-A6B1C8482760}" name="Dice Score" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{864B0F8E-692E-49F3-9E3A-E033C9985B87}" name="Hausdorff Distance" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7895,90 +7898,90 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}" name="Table21" displayName="Table21" ref="A42:C47" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}" name="Table21" displayName="Table21" ref="A42:C47" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A42:C47" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:C47">
     <sortCondition ref="A42:A47"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{73CA3CA8-39DC-4D23-837F-1CCC7D520CA1}" name="Iteration" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{937C2A8C-A668-4A06-B2CF-D8C5288222B8}" name="Dice Score" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{47A65F9C-1DA4-4999-9239-27DC98D4570C}" name="Hausdorff Distance" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{73CA3CA8-39DC-4D23-837F-1CCC7D520CA1}" name="Iteration" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{937C2A8C-A668-4A06-B2CF-D8C5288222B8}" name="Dice Score" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{47A65F9C-1DA4-4999-9239-27DC98D4570C}" name="Hausdorff Distance" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}" name="Table22" displayName="Table22" ref="A51:C56" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="58" tableBorderDxfId="59" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}" name="Table22" displayName="Table22" ref="A51:C56" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A51:C56" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:C56">
     <sortCondition ref="A51:A56"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{54E78634-2B65-4CE8-9954-8B9FF8F7BEB5}" name="Iteration" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F57FCE52-D98F-4033-B6CC-8DC4B55E9A57}" name="Dice Score" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{B951249D-D146-4CE3-AEFE-BF8F46D69854}" name="Hausdorff Distance" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{54E78634-2B65-4CE8-9954-8B9FF8F7BEB5}" name="Iteration" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{F57FCE52-D98F-4033-B6CC-8DC4B55E9A57}" name="Dice Score" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{B951249D-D146-4CE3-AEFE-BF8F46D69854}" name="Hausdorff Distance" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}" name="Table23" displayName="Table23" ref="A60:C65" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}" name="Table23" displayName="Table23" ref="A60:C65" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A60:C65" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A61:C65">
     <sortCondition ref="A60:A65"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{795075D3-1E85-446F-92DA-563C8655E2D6}" name="Iteration" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{6CA5CB58-C528-4CD2-904B-E6276EDFF7F2}" name="Dice Score" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{E717D37C-3617-441B-80FB-11A563DAE066}" name="Hausdorff Distance" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{795075D3-1E85-446F-92DA-563C8655E2D6}" name="Iteration" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{6CA5CB58-C528-4CD2-904B-E6276EDFF7F2}" name="Dice Score" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E717D37C-3617-441B-80FB-11A563DAE066}" name="Hausdorff Distance" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}" name="Table24" displayName="Table24" ref="A69:C74" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}" name="Table24" displayName="Table24" ref="A69:C74" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A69:C74" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A70:C74">
     <sortCondition ref="A69:A74"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C2D24FD1-111A-47EA-BFED-05D9803D1EBC}" name="Iteration" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E3479DB4-8990-4426-B76D-619E4197AE96}" name="Dice Score" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C7977E73-E9CD-43E1-AA95-0BE2C0895A9D}" name="Hausdorff Distance" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{C2D24FD1-111A-47EA-BFED-05D9803D1EBC}" name="Iteration" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{E3479DB4-8990-4426-B76D-619E4197AE96}" name="Dice Score" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{C7977E73-E9CD-43E1-AA95-0BE2C0895A9D}" name="Hausdorff Distance" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}" name="Table34" displayName="Table34" ref="A78:C83" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="49" tableBorderDxfId="50" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}" name="Table34" displayName="Table34" ref="A78:C83" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A78:C83" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A79:C83">
     <sortCondition ref="A78:A83"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EDC97D37-4229-4F9D-8C5E-2ADD04F7FA9D}" name="Iteration" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3F1937B1-CC3F-406D-9E69-1F583F40E23E}" name="Dice Score" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5788025C-4A15-44D1-87F1-1F2F52F9B17C}" name="Hausdorff Distance" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{EDC97D37-4229-4F9D-8C5E-2ADD04F7FA9D}" name="Iteration" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3F1937B1-CC3F-406D-9E69-1F583F40E23E}" name="Dice Score" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5788025C-4A15-44D1-87F1-1F2F52F9B17C}" name="Hausdorff Distance" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}" name="Table35" displayName="Table35" ref="A87:C92" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}" name="Table35" displayName="Table35" ref="A87:C92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A87:C92" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:C92">
     <sortCondition ref="A87:A92"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5D9B42C8-F0BA-4E81-89F0-73016538088B}" name="Iteration" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{535E3AD6-7529-4C06-B50C-818704A248C5}" name="Dice Score" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{79147823-E1CB-4C0D-81D1-115CA441A579}" name="Hausdorff Distance" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5D9B42C8-F0BA-4E81-89F0-73016538088B}" name="Iteration" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{535E3AD6-7529-4C06-B50C-818704A248C5}" name="Dice Score" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{79147823-E1CB-4C0D-81D1-115CA441A579}" name="Hausdorff Distance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8664,10 +8667,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9EE4C0-4CF0-4381-B80F-8E9FC582ED4A}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8675,9 +8678,12 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8687,8 +8693,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8698,8 +8713,17 @@
       <c r="C2" s="4">
         <v>12.1632</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="H2" s="4">
+        <v>38.632800000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -8709,8 +8733,17 @@
       <c r="C3" s="6">
         <v>9.1182999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.2858</v>
+      </c>
+      <c r="H3" s="6">
+        <v>43.701700000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8720,8 +8753,17 @@
       <c r="C4" s="4">
         <v>18.5596</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>60.988500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -8731,8 +8773,17 @@
       <c r="C5" s="6">
         <v>12.710800000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>28.6938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8742,8 +8793,17 @@
       <c r="C6" s="4">
         <v>11.8652</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>18.0153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -8753,8 +8813,17 @@
       <c r="C7" s="6">
         <v>10.9549</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>41.214100000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8764,8 +8833,17 @@
       <c r="C8" s="4">
         <v>14.4651</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H8" s="4">
+        <v>51.502800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -8775,8 +8853,17 @@
       <c r="C9" s="6">
         <v>14.828900000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.2979</v>
+      </c>
+      <c r="H9" s="6">
+        <v>39.164400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8786,8 +8873,17 @@
       <c r="C10" s="4">
         <v>11.159800000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.27529999999999999</v>
+      </c>
+      <c r="H10" s="4">
+        <v>46.131900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -8797,8 +8893,17 @@
       <c r="C11" s="6">
         <v>10.111700000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="H11" s="6">
+        <v>39.059199999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -8810,8 +8915,19 @@
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
         <v>12.59375</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <f>AVERAGE(G2:G11)</f>
+        <v>0.34977999999999998</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12" si="1">AVERAGE(H2:H11)</f>
+        <v>40.710449999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -8820,17 +8936,27 @@
         <v>6.0381104476299168E-3</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ref="C13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <f t="shared" ref="C13" si="2">_xlfn.STDEV.S(C2:C11)</f>
         <v>2.7447007225034796</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6">
+        <f>_xlfn.STDEV.S(G2:G11)</f>
+        <v>0.15676003458931878</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ref="H13" si="3">_xlfn.STDEV.S(H2:H11)</f>
+        <v>11.714998590339954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>0</v>
       </c>
@@ -8840,104 +8966,90 @@
       <c r="C15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="14"/>
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="6">
         <v>0.15740000000000001</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="6">
         <v>95.767600000000002</v>
       </c>
-      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="6">
         <v>0.19489999999999999</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="6">
         <v>96.348399999999998</v>
       </c>
-      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="6">
         <v>0.18279999999999999</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="6">
         <v>81.941900000000004</v>
       </c>
-      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="6">
         <v>0.1615</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="6">
         <v>86.222200000000001</v>
       </c>
-      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="6">
         <v>0.1971</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="6">
         <v>101.2525</v>
       </c>
-      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="6">
         <f>AVERAGE(B16:B20)</f>
         <v>0.17873999999999998</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="6">
         <f>AVERAGE(C16:C20)</f>
         <v>92.306520000000006</v>
       </c>
-      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="6">
         <f>_xlfn.STDEV.S(B16:B20)</f>
         <v>1.8488726294691036E-2</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="6">
         <f>_xlfn.STDEV.S(C16:C20)</f>
         <v>7.9496969198202745</v>
       </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -8949,104 +9061,90 @@
       <c r="C24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="14"/>
       <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="6">
         <v>0.28549999999999998</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="6">
         <v>37.651499999999999</v>
       </c>
-      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="6">
         <v>2</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="6">
         <v>0.26769999999999999</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="6">
         <v>54.393900000000002</v>
       </c>
-      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="6">
         <v>3</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="6">
         <v>31.835799999999999</v>
       </c>
-      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="6">
         <v>4</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="6">
         <v>0.29060000000000002</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="6">
         <v>64.045400000000001</v>
       </c>
-      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="6">
         <v>5</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="6">
         <v>0.26269999999999999</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="6">
         <v>64.946899999999999</v>
       </c>
-      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="6">
         <f>AVERAGE(B25:B29)</f>
         <v>0.28249999999999997</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="6">
         <f>AVERAGE(C25:C29)</f>
         <v>50.5747</v>
       </c>
-      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="6">
         <f>_xlfn.STDEV.S(B25:B29)</f>
         <v>1.7592185765276585E-2</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="6">
         <f>_xlfn.STDEV.S(C25:C29)</f>
         <v>15.172027315260131</v>
       </c>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
@@ -9058,104 +9156,90 @@
       <c r="C33" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="14"/>
       <c r="E33" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="6">
         <v>0.2676</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="6">
         <v>44.520200000000003</v>
       </c>
-      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="6">
         <v>2</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="6">
         <v>0.22120000000000001</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="6">
         <v>65.411600000000007</v>
       </c>
-      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="6">
         <v>3</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="6">
         <v>0.2276</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="6">
         <v>58.474699999999999</v>
       </c>
-      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="6">
         <v>4</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="6">
         <v>0.2414</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="6">
         <v>63.030299999999997</v>
       </c>
-      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="6">
         <v>5</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="6">
         <v>0.24010000000000001</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="6">
         <v>67.628699999999995</v>
       </c>
-      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="6">
         <f>AVERAGE(B34:B38)</f>
         <v>0.23957999999999999</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="6">
         <f>AVERAGE(C34:C38)</f>
         <v>59.813099999999999</v>
       </c>
-      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="6">
         <f>_xlfn.STDEV.S(B34:B38)</f>
         <v>1.7818866406143798E-2</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="6">
         <f>_xlfn.STDEV.S(C34:C38)</f>
         <v>9.1983869023324161</v>
       </c>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
@@ -9167,104 +9251,90 @@
       <c r="C42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="14"/>
       <c r="E42" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
+      <c r="A43" s="6">
         <v>1</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="6">
         <v>0.4577</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="6">
         <v>23.7454</v>
       </c>
-      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
+      <c r="A44" s="6">
         <v>2</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="6">
         <v>0.52359999999999995</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="6">
         <v>23.002500000000001</v>
       </c>
-      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
+      <c r="A45" s="6">
         <v>3</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="6">
         <v>0.39219999999999999</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="6">
         <v>33.742400000000004</v>
       </c>
-      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
+      <c r="A46" s="6">
         <v>4</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="6">
         <v>0.40200000000000002</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="6">
         <v>32.106000000000002</v>
       </c>
-      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
+      <c r="A47" s="6">
         <v>5</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="6">
         <v>0.39979999999999999</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="6">
         <v>35.446899999999999</v>
       </c>
-      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="6">
         <f>AVERAGE(B43:B47)</f>
         <v>0.43506</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="6">
         <f>AVERAGE(C43:C47)</f>
         <v>29.608640000000001</v>
       </c>
-      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="6">
         <f>_xlfn.STDEV.S(B43:B47)</f>
         <v>5.5957823402988209E-2</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="6">
         <f>_xlfn.STDEV.S(C43:C47)</f>
         <v>5.8186924547530294</v>
       </c>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
@@ -9276,104 +9346,90 @@
       <c r="C51" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="14"/>
       <c r="E51" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
+      <c r="A52" s="6">
         <v>1</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="6">
         <v>0.40329999999999999</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="6">
         <v>33.8611</v>
       </c>
-      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
+      <c r="A53" s="6">
         <v>2</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="6">
         <v>0.39460000000000001</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="6">
         <v>38.575699999999998</v>
       </c>
-      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
+      <c r="A54" s="6">
         <v>3</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="6">
         <v>0.39689999999999998</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="6">
         <v>41.032800000000002</v>
       </c>
-      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
+      <c r="A55" s="6">
         <v>4</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="6">
         <v>0.40660000000000002</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="6">
         <v>36.636299999999999</v>
       </c>
-      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
+      <c r="A56" s="6">
         <v>5</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="6">
         <v>0.38950000000000001</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="6">
         <v>44.318100000000001</v>
       </c>
-      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="6">
         <f>AVERAGE(B52:B56)</f>
         <v>0.39818000000000003</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="6">
         <f>AVERAGE(C52:C56)</f>
         <v>38.884800000000006</v>
       </c>
-      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="6">
         <f>_xlfn.STDEV.S(B52:B56)</f>
         <v>6.8357150320943021E-3</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="6">
         <f>_xlfn.STDEV.S(C52:C56)</f>
         <v>4.0163263575063226</v>
       </c>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
@@ -9385,104 +9441,90 @@
       <c r="C60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="14"/>
       <c r="E60" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
+      <c r="A61" s="6">
         <v>1</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="6">
         <v>0.42249999999999999</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="6">
         <v>32.052999999999997</v>
       </c>
-      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
+      <c r="A62" s="6">
         <v>2</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="6">
         <v>0.83320000000000005</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="6">
         <v>13.066800000000001</v>
       </c>
-      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
+      <c r="A63" s="6">
         <v>3</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="6">
         <v>0.87719999999999998</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="6">
         <v>11.4306</v>
       </c>
-      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="A64" s="6">
         <v>4</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="6">
         <v>0.84609999999999996</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="6">
         <v>16.140899999999998</v>
       </c>
-      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
+      <c r="A65" s="6">
         <v>5</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="6">
         <v>0.8196</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="6">
         <v>13.795</v>
       </c>
-      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="6">
         <f>AVERAGE(B61:B65)</f>
         <v>0.75971999999999995</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="6">
         <f>AVERAGE(C61:C65)</f>
         <v>17.297260000000001</v>
       </c>
-      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="6">
         <f>_xlfn.STDEV.S(B61:B65)</f>
         <v>0.18971380287158857</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="6">
         <f>_xlfn.STDEV.S(C61:C65)</f>
         <v>8.4209463225934336</v>
       </c>
-      <c r="D67" s="14"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
@@ -9494,104 +9536,90 @@
       <c r="C69" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="14"/>
       <c r="E69" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
+      <c r="A70" s="6">
         <v>1</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="6">
         <v>0.85150000000000003</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="6">
         <v>8.4338999999999995</v>
       </c>
-      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
+      <c r="A71" s="6">
         <v>2</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="6">
         <v>0.86129999999999995</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="6">
         <v>9.5946999999999996</v>
       </c>
-      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
+      <c r="A72" s="6">
         <v>3</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="6">
         <v>0.85809999999999997</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="6">
         <v>12.7072</v>
       </c>
-      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
+      <c r="A73" s="6">
         <v>4</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="6">
         <v>0.86719999999999997</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="6">
         <v>11.2346</v>
       </c>
-      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15">
+      <c r="A74" s="6">
         <v>5</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="6">
         <v>0.86299999999999999</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="6">
         <v>9.9821000000000009</v>
       </c>
-      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="6">
         <f>AVERAGE(B70:B74)</f>
         <v>0.86021999999999998</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="6">
         <f>AVERAGE(C70:C74)</f>
         <v>10.390499999999999</v>
       </c>
-      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="6">
         <f>_xlfn.STDEV.S(B70:B74)</f>
         <v>5.8768188673805266E-3</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="6">
         <f>_xlfn.STDEV.S(C70:C74)</f>
         <v>1.6361521521545561</v>
       </c>
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
@@ -9603,104 +9631,90 @@
       <c r="C78" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="14"/>
       <c r="E78" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15">
+      <c r="A79" s="6">
         <v>1</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="6">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="6">
         <v>11.2805</v>
       </c>
-      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15">
+      <c r="A80" s="6">
         <v>2</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="6">
         <v>0.43120000000000003</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="6">
         <v>27.525300000000001</v>
       </c>
-      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15">
+      <c r="A81" s="6">
         <v>3</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="6">
         <v>0.42699999999999999</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="6">
         <v>19.981999999999999</v>
       </c>
-      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15">
+      <c r="A82" s="6">
         <v>4</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="6">
         <v>0.43169999999999997</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="6">
         <v>22.498699999999999</v>
       </c>
-      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15">
+      <c r="A83" s="6">
         <v>5</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="6">
         <v>0.43180000000000002</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="6">
         <v>15.787800000000001</v>
       </c>
-      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="6">
         <f>AVERAGE(B79:B83)</f>
         <v>0.49933999999999995</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="6">
         <f>AVERAGE(C79:C83)</f>
         <v>19.414860000000001</v>
       </c>
-      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="6">
         <f>_xlfn.STDEV.S(B79:B83)</f>
         <v>0.15411147913117967</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="6">
         <f>_xlfn.STDEV.S(C79:C83)</f>
         <v>6.2236309894626638</v>
       </c>
-      <c r="D85" s="14"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
@@ -9712,110 +9726,90 @@
       <c r="C87" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="14"/>
       <c r="E87" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="15">
+      <c r="A88" s="6">
         <v>1</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="6">
         <v>0.88829999999999998</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="6">
         <v>9.7341999999999995</v>
       </c>
-      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15">
+      <c r="A89" s="6">
         <v>2</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="6">
         <v>0.86319999999999997</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="6">
         <v>13.1211</v>
       </c>
-      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="15">
+      <c r="A90" s="6">
         <v>3</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="6">
         <v>0.86960000000000004</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="6">
         <v>12.1736</v>
       </c>
-      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="15">
+      <c r="A91" s="6">
         <v>4</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="6">
         <v>0.85389999999999999</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="6">
         <v>11.2583</v>
       </c>
-      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="15">
+      <c r="A92" s="6">
         <v>5</v>
       </c>
-      <c r="B92" s="15">
+      <c r="B92" s="6">
         <v>0.86839999999999995</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="6">
         <v>9.0557999999999996</v>
       </c>
-      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="15">
+      <c r="B93" s="6">
         <f>AVERAGE(B88:B92)</f>
         <v>0.86868000000000001</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="6">
         <f>AVERAGE(C88:C92)</f>
         <v>11.0686</v>
       </c>
-      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="15">
+      <c r="B94" s="6">
         <f>_xlfn.STDEV.S(B88:B92)</f>
         <v>1.2593133049404345E-2</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="6">
         <f>_xlfn.STDEV.S(C88:C92)</f>
         <v>1.6809041123752455</v>
       </c>
-      <c r="D94" s="14"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102">
@@ -11372,7 +11366,7 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11895,13 +11889,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M17">
         <f>_xlfn.T.TEST(N2:N11, 'Standard Training'!B16:B25, 2, 3)</f>
         <v>0.91657178119352722</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -11922,7 +11916,7 @@
         <v>0.86228730050467084</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0</v>
       </c>
@@ -11940,7 +11934,7 @@
         <v>1.6427687072287007E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -11957,8 +11951,17 @@
         <f>_xlfn.T.TEST('Class-Based Contrastive'!C2:C11, SimCLR!C2:C11, 2, 3)</f>
         <v>1.9872755606033248E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -11968,8 +11971,17 @@
       <c r="C21" s="6">
         <v>100.5758</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="O21" s="4">
+        <v>33.847000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -11979,8 +11991,17 @@
       <c r="C22" s="6">
         <v>73.126300000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="5">
+        <v>2</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="O22" s="6">
+        <v>29.665299999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>4</v>
       </c>
@@ -11990,8 +12011,17 @@
       <c r="C23" s="6">
         <v>84.174199999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.3004</v>
+      </c>
+      <c r="O23" s="4">
+        <v>28.931100000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -12003,8 +12033,17 @@
         <f>AVERAGE(C16:C23)</f>
         <v>82.569220000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="5">
+        <v>4</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0.3014</v>
+      </c>
+      <c r="O24" s="6">
+        <v>34.869900000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -12016,8 +12055,28 @@
         <f>_xlfn.STDEV.S(C19:C24)</f>
         <v>10.566576153399973</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="3">
+        <v>5</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.2848</v>
+      </c>
+      <c r="O25" s="4">
+        <v>36.154800000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M26" s="5">
+        <v>6</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="O26" s="6">
+        <v>36.520000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
@@ -12030,8 +12089,17 @@
       <c r="E27" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="3">
+        <v>7</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="O27" s="4">
+        <v>40.883299999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0</v>
       </c>
@@ -12041,8 +12109,17 @@
       <c r="C28" s="6">
         <v>40.696899999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="5">
+        <v>8</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="O28" s="6">
+        <v>51.175899999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -12052,8 +12129,17 @@
       <c r="C29" s="6">
         <v>37.058</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="3">
+        <v>9</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="O29" s="4">
+        <v>44.667299999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2</v>
       </c>
@@ -12063,8 +12149,17 @@
       <c r="C30" s="6">
         <v>36.590899999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="5">
+        <v>10</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="O30" s="6">
+        <v>37.615600000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>3</v>
       </c>
@@ -12074,8 +12169,19 @@
       <c r="C31" s="6">
         <v>27.7348</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4">
+        <f>AVERAGE(N21:N30)</f>
+        <v>0.28737000000000001</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" ref="O31" si="8">AVERAGE(O21:O30)</f>
+        <v>37.433019999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>4</v>
       </c>
@@ -12084,6 +12190,17 @@
       </c>
       <c r="C32" s="6">
         <v>53.381300000000003</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="6">
+        <f>_xlfn.STDEV.S(N21:N30)</f>
+        <v>9.7439496897077319E-3</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32" si="9">_xlfn.STDEV.S(O21:O30)</f>
+        <v>6.7301644234165634</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -12111,6 +12228,9 @@
         <f>_xlfn.STDEV.S(C28:C33)</f>
         <v>8.8663949677873646</v>
       </c>
+      <c r="M34" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -12495,7 +12615,7 @@
         <v>0.84058999999999995</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" ref="C65" si="8">AVERAGE(C55:C64)</f>
+        <f t="shared" ref="C65" si="10">AVERAGE(C55:C64)</f>
         <v>16.649740000000001</v>
       </c>
     </row>
@@ -12508,7 +12628,7 @@
         <v>1.5752139184532634E-2</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66" si="9">_xlfn.STDEV.S(C55:C64)</f>
+        <f t="shared" ref="C66" si="11">_xlfn.STDEV.S(C55:C64)</f>
         <v>4.8234779709251283</v>
       </c>
     </row>
@@ -12972,8 +13092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13369,12 +13489,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -13394,8 +13514,17 @@
         <f>_xlfn.T.TEST(B2:B11, SimCLR!B2:B11, 2, 3)</f>
         <v>7.8989740317153723E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0</v>
       </c>
@@ -13412,8 +13541,17 @@
         <f>_xlfn.T.TEST(C2:C11, SimCLR!C2:C11, 2, 3)</f>
         <v>1.2495868391070274E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.28789999999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <v>34.692100000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -13423,8 +13561,17 @@
       <c r="C20" s="6">
         <v>40.997399999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.29330000000000001</v>
+      </c>
+      <c r="K20" s="6">
+        <v>40.370899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2</v>
       </c>
@@ -13434,8 +13581,17 @@
       <c r="C21" s="6">
         <v>44.982300000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>27.4588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -13445,8 +13601,17 @@
       <c r="C22" s="6">
         <v>57.547899999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="5">
+        <v>4</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="K22" s="6">
+        <v>46.695900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>4</v>
       </c>
@@ -13456,8 +13621,17 @@
       <c r="C23" s="6">
         <v>37.638800000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>33.367100000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -13469,8 +13643,17 @@
         <f>AVERAGE(C19:C23)</f>
         <v>47.92266</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="5">
+        <v>6</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="K24" s="6">
+        <v>30.898599999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -13482,8 +13665,28 @@
         <f>_xlfn.STDEV.S(C19:C23)</f>
         <v>9.5625257141092241</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3">
+        <v>7</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="K25" s="4">
+        <v>20.4285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="5">
+        <v>8</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="K26" s="6">
+        <v>36.921599999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
@@ -13496,8 +13699,17 @@
       <c r="E27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="3">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="K27" s="4">
+        <v>31.611799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0</v>
       </c>
@@ -13507,8 +13719,17 @@
       <c r="C28" s="6">
         <v>59.244900000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="5">
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="K28" s="6">
+        <v>33.110799999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -13518,8 +13739,19 @@
       <c r="C29" s="6">
         <v>39.353499999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4">
+        <f>AVERAGE(J19:J28)</f>
+        <v>0.31028</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" ref="K29" si="6">AVERAGE(K19:K28)</f>
+        <v>33.555610000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2</v>
       </c>
@@ -13529,8 +13761,19 @@
       <c r="C30" s="6">
         <v>41.850999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="6">
+        <f>_xlfn.STDEV.S(J19:J28)</f>
+        <v>8.0525797108752697E-2</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" ref="K30" si="7">_xlfn.STDEV.S(K19:K28)</f>
+        <v>7.0891191884229592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>3</v>
       </c>
@@ -13541,7 +13784,7 @@
         <v>53.451999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>4</v>
       </c>
@@ -13550,6 +13793,9 @@
       </c>
       <c r="C32" s="6">
         <v>44.987299999999998</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -14241,7 +14487,7 @@
         <v>0.88240999999999992</v>
       </c>
       <c r="C97" s="6">
-        <f t="shared" ref="C97" si="6">AVERAGE(C87:C96)</f>
+        <f t="shared" ref="C97" si="8">AVERAGE(C87:C96)</f>
         <v>9.4852499999999988</v>
       </c>
     </row>
@@ -14254,7 +14500,7 @@
         <v>2.8672846233171727E-2</v>
       </c>
       <c r="C98" s="10">
-        <f t="shared" ref="C98" si="7">_xlfn.STDEV.S(C87:C96)</f>
+        <f t="shared" ref="C98" si="9">_xlfn.STDEV.S(C87:C96)</f>
         <v>1.8364945456252051</v>
       </c>
     </row>

--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2585A5A7-D42C-43E2-9A92-5A44141A000C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B8FC5E-DEB1-4C94-BA7A-C4992FD5D9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="704" firstSheet="2" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="704" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="51">
   <si>
     <t>Iteration</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>TotalSegmentator w/ Fine Tuning</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Possibly exclude</t>
+  </si>
+  <si>
+    <t>Scan 13</t>
+  </si>
+  <si>
+    <t>Scan 17</t>
+  </si>
+  <si>
+    <t>Scan 1</t>
+  </si>
+  <si>
+    <t>Scan 5</t>
+  </si>
+  <si>
+    <t>Scan 9</t>
   </si>
 </sst>
 </file>
@@ -3323,6 +3344,1011 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dice</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Score</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Standard Training'!$E$61,'Standard Training'!$E$76,'Standard Training'!$E$91,'Standard Training'!$E$31,'Standard Training'!$E$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scan 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scan 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scan 13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scan 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Standard Training'!$B$72,'Standard Training'!$B$87,'Standard Training'!$B$102,'Standard Training'!$B$42,'Standard Training'!$B$57)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72093000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87623999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94884999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79336999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86205999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22C8-4C97-9B6C-A218B813913A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SimCLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-849C-40B6-BB34-D42074295A4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>(SimCLR!$B$138,SimCLR!$B$153,SimCLR!$B$168,SimCLR!$B$108,SimCLR!$B$123)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77742999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79412999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74537000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87796000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22C8-4C97-9B6C-A218B813913A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>U-PolyCL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('Scan-Based Contrastive'!$B$151,'Scan-Based Contrastive'!$B$166,'Scan-Based Contrastive'!$B$181,'Scan-Based Contrastive'!$B$121,'Scan-Based Contrastive'!$B$136)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76841999999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82224000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89682999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89961000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22C8-4C97-9B6C-A218B813913A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>S-PolyCL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('Class-Based Contrastive'!$B$151,'Class-Based Contrastive'!$B$166,'Class-Based Contrastive'!$B$181,'Class-Based Contrastive'!$B$121,'Class-Based Contrastive'!$B$136)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76515999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89699000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97506000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90944999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22C8-4C97-9B6C-A218B813913A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="4272592"/>
+        <c:axId val="137931936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="4272592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137931936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137931936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4272592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hausdorff</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Standard Training'!$E$61,'Standard Training'!$E$76,'Standard Training'!$E$91,'Standard Training'!$E$31,'Standard Training'!$E$46)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Scan 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scan 5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scan 9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scan 13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Scan 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Standard Training'!$C$72,'Standard Training'!$C$87,'Standard Training'!$C$102,'Standard Training'!$C$42,'Standard Training'!$C$57)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.043510000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9423999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9144555555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.401899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.32071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1A3-46F9-92CF-9E4A941007AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SimCLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(SimCLR!$C$138,SimCLR!$C$153,SimCLR!$C$168,SimCLR!$C$108,SimCLR!$C$123)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.425729999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.851430000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3281300000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.689310000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.710609999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1A3-46F9-92CF-9E4A941007AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>U-PolyCL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('Scan-Based Contrastive'!$C$151,'Scan-Based Contrastive'!$C$166,'Scan-Based Contrastive'!$C$181,'Scan-Based Contrastive'!$C$121,'Scan-Based Contrastive'!$C$136)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.00352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.383620000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.29474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.78988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5706000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D1A3-46F9-92CF-9E4A941007AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>S-PolyCL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('Class-Based Contrastive'!$C$151,'Class-Based Contrastive'!$C$166,'Class-Based Contrastive'!$C$181,'Class-Based Contrastive'!$C$121,'Class-Based Contrastive'!$C$136)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.96954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1056299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6962900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1900900000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9781200000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D1A3-46F9-92CF-9E4A941007AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="4272592"/>
+        <c:axId val="137931936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="4272592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137931936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137931936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4272592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3783,7 +4809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4252,7 +5278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4713,7 +5739,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5339,8 +6365,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5448,11 +6554,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5463,11 +6564,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5499,9 +6595,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5856,7 +6949,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5964,11 +7057,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5979,11 +7067,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6015,9 +7098,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7403,7 +8483,1118 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148F73B2-3DFB-2F37-62A4-C17E899524C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA682F61-106E-417F-8AA4-F2D33A0767C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7480,7 +9671,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7574,6 +9765,75 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44D18B11-8DD6-45A6-87CF-63A4948A389E}" name="Table136" displayName="Table136" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A8895931-E816-47F6-8CC7-87EADCF46704}" name="Iteration"/>
+    <tableColumn id="4" xr3:uid="{34F049D4-21B8-4740-8CB7-F854365D0183}" name="Classification Accuracy"/>
+    <tableColumn id="5" xr3:uid="{9A589871-7314-4EE0-9138-5D4E4B6A715F}" name="Classification F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECC1DCBB-E872-4D81-8A98-CF47BB1A52B8}" name="Table1357" displayName="Table1357" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{68526608-18A6-43D5-A098-73580A4C681B}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{0254A2EC-4025-48A2-89D8-BF85854B7570}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{4E37900F-8F42-4D9F-B7C7-2C2CD1A0273E}" name="Hausdorff Distance"/>
+    <tableColumn id="4" xr3:uid="{6422C4BC-43E2-4690-88B6-49E8BBF6DE34}" name="Classification Accuracy"/>
+    <tableColumn id="5" xr3:uid="{3001328F-48C2-408B-939C-12A8C6CC5EB5}" name="Classification F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FB4711C-FEAB-46E5-BBE5-75F1744FD7F2}" name="Table135" displayName="Table135" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{394C2F81-C4C9-4D73-861A-181830DFC6C9}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{D1372F7F-6C74-4950-89D7-A11176795484}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{3809E15D-BFB2-4BC8-8288-7577B79320C1}" name="Hausdorff Distance"/>
+    <tableColumn id="4" xr3:uid="{CBF2E8F9-807B-4F55-92DF-85B540D79465}" name="Classification Accuracy"/>
+    <tableColumn id="5" xr3:uid="{E941453B-0027-448C-9472-54AC4063E5CA}" name="Classification F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0EDCDD2A-534D-415A-9636-AA89390D6A00}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{19834CED-B487-4A18-BBC1-BFD84927C26A}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{4299D94B-C521-4BAB-B01B-C6C8DF5C4B4B}" name="Hausdorff Distance"/>
+    <tableColumn id="4" xr3:uid="{7B5159A6-E47A-4D2C-85A1-CCCD80A99A07}" name="Classification Accuracy"/>
+    <tableColumn id="5" xr3:uid="{2E7C771C-ABF3-430E-AECC-03F696AB624A}" name="Classification F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="214" headerRowBorderDxfId="213" tableBorderDxfId="212" totalsRowBorderDxfId="211">
+  <autoFilter ref="A18:C25" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C25">
+    <sortCondition descending="1" ref="B18:B25"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="209"/>
+    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="208"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="207" dataDxfId="205" headerRowBorderDxfId="206" tableBorderDxfId="204" totalsRowBorderDxfId="203">
   <autoFilter ref="A27:C34" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C34">
@@ -7588,7 +9848,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
   <autoFilter ref="A36:C41" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
@@ -7603,7 +9863,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="191" dataDxfId="189" headerRowBorderDxfId="190" tableBorderDxfId="188" totalsRowBorderDxfId="187">
   <autoFilter ref="A45:C50" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
@@ -7618,7 +9878,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="183" dataDxfId="181" headerRowBorderDxfId="182" tableBorderDxfId="180" totalsRowBorderDxfId="179">
   <autoFilter ref="A54:C64" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C64">
@@ -7633,7 +9893,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C78" totalsRowShown="0" headerRowDxfId="175" dataDxfId="173" headerRowBorderDxfId="174" tableBorderDxfId="172" totalsRowBorderDxfId="171">
   <autoFilter ref="A68:C78" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:C73">
@@ -7643,81 +9903,6 @@
     <tableColumn id="1" xr3:uid="{B338A6E6-9803-43D8-BB91-85284C2EA5F0}" name="Iteration" dataDxfId="170"/>
     <tableColumn id="2" xr3:uid="{79BDC265-4F0D-4265-86B8-ADA88F408442}" name="Dice Score" dataDxfId="169"/>
     <tableColumn id="3" xr3:uid="{453BB242-4868-402B-8F1F-6E493000904A}" name="Hausdorff Distance" dataDxfId="168"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A82:C87" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164" totalsRowBorderDxfId="163">
-  <autoFilter ref="A82:C87" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:C87">
-    <sortCondition ref="A82:A87"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="160"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A91:C96" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156" totalsRowBorderDxfId="155">
-  <autoFilter ref="A91:C96" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A92:C96">
-    <sortCondition ref="A91:A96"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="152"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A100:C105" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
-  <autoFilter ref="A100:C105" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
-    <sortCondition ref="A100:A105"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="145"/>
-    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="144"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}" name="Table1126" displayName="Table1126" ref="A18:C23" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
-  <autoFilter ref="A18:C23" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C23">
-    <sortCondition ref="A18:A23"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4F637688-AA99-4296-B478-966FD5ED9C08}" name="Iteration" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{8FDB03A6-76C2-4600-8489-35C46F2DA9A2}" name="Dice Score" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{A41D579A-33CE-4B5B-81C2-F7B8415EA336}" name="Hausdorff Distance" dataDxfId="136"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
-  <autoFilter ref="A27:C32" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C32">
-    <sortCondition ref="A27:A32"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{788DA027-4758-45B7-A325-3B27EC92CC49}" name="Iteration" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{257FE13F-90B0-4E7F-84EA-3FA1DF74F7CB}" name="Dice Score" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{DE5F4771-E359-46A1-B6F2-FBB5418DBCFB}" name="Hausdorff Distance" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7736,150 +9921,135 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}" name="Table1128" displayName="Table1128" ref="A36:C41" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
-  <autoFilter ref="A36:C41" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
-    <sortCondition ref="A36:A41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A82:C87" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164" totalsRowBorderDxfId="163">
+  <autoFilter ref="A82:C87" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:C87">
+    <sortCondition ref="A82:A87"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77B2ECDA-9A50-494E-8BAD-0618CAA31C54}" name="Iteration" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{9975496E-D29C-4B59-B663-811B515C87BC}" name="Dice Score" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{9AB8C43F-C7E6-4A40-A980-63B57E5BCB3A}" name="Hausdorff Distance" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{8E40B4C8-E8D8-4445-AE8F-45E6981ACCCB}" name="Iteration" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{03EF7E1D-4E84-4277-AFA3-9FAC73C3B863}" name="Dice Score" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{2E371E02-7A45-45AF-83D7-9C4DFC79AB67}" name="Hausdorff Distance" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}" name="Table1129" displayName="Table1129" ref="A45:C50" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
-  <autoFilter ref="A45:C50" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
-    <sortCondition ref="A45:A50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A91:C96" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156" totalsRowBorderDxfId="155">
+  <autoFilter ref="A91:C96" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A92:C96">
+    <sortCondition ref="A91:A96"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{71EA642A-81F9-4F19-B3D8-E11889135445}" name="Iteration" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{4C2FAD98-E434-492D-8418-3160E738D28A}" name="Dice Score" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{F74DAC32-9886-460E-815B-1BDD2FFAD405}" name="Hausdorff Distance" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{6BB25DF0-D880-4C0B-93BE-F7F9A3B6AB6D}" name="Iteration" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{7C3B009D-A37F-4F73-BF8A-6E2A33601767}" name="Dice Score" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{77CA1267-1C45-431C-9D00-B4517CC1A023}" name="Hausdorff Distance" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}" name="Table1130" displayName="Table1130" ref="A54:C59" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
-  <autoFilter ref="A54:C59" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C59">
-    <sortCondition ref="A54:A59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A100:C105" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
+  <autoFilter ref="A100:C105" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
+    <sortCondition ref="A100:A105"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7D2424F2-7AA2-410B-936F-34A1E0906F68}" name="Iteration" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{F82397EE-88A3-40F6-836E-9E40941060F5}" name="Dice Score" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{AD7759CE-AF8B-4E3E-B459-02A928FC4F39}" name="Hausdorff Distance" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{0BE1EE52-19DF-4EB4-A63E-05E9C7387FCE}" name="Iteration" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{EF38483A-B881-4DFC-A970-C1C616E338CF}" name="Dice Score" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{235F26A7-377E-46B0-A522-629FB35CE45E}" name="Hausdorff Distance" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C73" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
-  <autoFilter ref="A63:C73" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:C68">
-    <sortCondition ref="A63:A68"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{9987DB02-2827-4E5C-83AA-E0F0A30D7AE1}" name="Table134173742" displayName="Table134173742" ref="A110:C122" totalsRowShown="0">
+  <autoFilter ref="A110:C122" xr:uid="{9987DB02-2827-4E5C-83AA-E0F0A30D7AE1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B3041A79-D11C-47C9-902B-718EB7EA3CBF}" name="Iteration" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{E0B6645D-B230-4295-80E4-EFA9DA6B436A}" name="Dice Score" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{E105A377-DB01-4DCD-9EB0-409736A5AF26}" name="Hausdorff Distance" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{23E14B46-5048-4693-B64A-821E444AE140}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{8647EFB6-F487-4794-9E29-DCF4C852D2CF}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{5873D57A-3014-47BE-A0E9-79734CE3C78C}" name="Hausdorff Distance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A77:C82" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
-  <autoFilter ref="A77:C82" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
-    <sortCondition ref="A77:A82"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{9B9B2805-DA73-474D-8418-4C213CD74208}" name="Table13417373843" displayName="Table13417373843" ref="A125:C137" totalsRowShown="0">
+  <autoFilter ref="A125:C137" xr:uid="{9B9B2805-DA73-474D-8418-4C213CD74208}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FC7AF66C-1D33-4794-A392-30E2A04202FA}" name="Iteration" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{04489E56-FA6B-4E7E-B842-8B24E2A21DB0}" name="Dice Score" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{5F966FED-658B-4605-8BCE-271816C165A8}" name="Hausdorff Distance" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{C2D6F38C-4C2D-4D0F-B4E2-37A5383978B9}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{D93DC03A-C889-4815-B6FF-B804A13DD0D2}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{E9E71F5A-EAEC-4C85-AF51-BB2C7E7F1B6E}" name="Hausdorff Distance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A86:C96" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
-  <autoFilter ref="A86:C96" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C96">
-    <sortCondition ref="A86:A96"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{2606FB0F-5B7F-4B59-932F-60DDB4B84832}" name="Table1341737383944" displayName="Table1341737383944" ref="A140:C152" totalsRowShown="0">
+  <autoFilter ref="A140:C152" xr:uid="{2606FB0F-5B7F-4B59-932F-60DDB4B84832}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1A31E0C1-D4B8-4568-A44D-8D04BD44783A}" name="Iteration" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{416F10C1-B76C-4601-B65B-40A110D3DD55}" name="Dice Score" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{5F8FAE4E-8291-4937-AE7A-337ED4424B21}" name="Hausdorff Distance" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{9D5BE5CF-6DEA-47B1-8167-83730F89C37A}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{F4C07E73-BC3A-47AD-A04B-D49DAFE8FC2A}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{4A1258D0-D255-4D03-BC41-9481A45CA36E}" name="Hausdorff Distance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A100:C105" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
-  <autoFilter ref="A100:C105" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
-    <sortCondition ref="A100:A105"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{9360634F-4E8F-495B-88C3-4C3931FFE317}" name="Table1341737384045" displayName="Table1341737384045" ref="A155:C167" totalsRowShown="0">
+  <autoFilter ref="A155:C167" xr:uid="{9360634F-4E8F-495B-88C3-4C3931FFE317}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{20A333EC-E398-4A1A-A4A0-BE461E976A4E}" name="Iteration" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{7053D4D9-DB8B-4FAA-B15D-63C7F0EBE19C}" name="Dice Score" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{E11197D4-30F5-49DF-893D-E7826C383D38}" name="Hausdorff Distance" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{3392DAD6-879E-4240-AE1A-E2E6A3D14EBE}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{B9049EA5-D077-4DAB-99C0-71B93F34FAA4}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{4632E7FE-5C23-48F6-A6D2-C8C61027B388}" name="Hausdorff Distance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}" name="Table18" displayName="Table18" ref="A15:C20" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
-  <autoFilter ref="A15:C20" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:C20">
-    <sortCondition ref="A15:A20"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{E69DFB13-3464-48FB-91A5-04BD1DEDFE8C}" name="Table1341737384146" displayName="Table1341737384146" ref="A170:C182" totalsRowShown="0">
+  <autoFilter ref="A170:C182" xr:uid="{E69DFB13-3464-48FB-91A5-04BD1DEDFE8C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{53EF963B-D662-4E98-B94B-87399714F74D}" name="Iteration" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{0A35C664-EABE-417D-B478-00567ED0F6FA}" name="Dice Score" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{A48DC984-B1EE-421D-9876-9CB5407B74E5}" name="Hausdorff Distance" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{CCAEDCBB-BD0F-4458-B26A-19A8E21E67F9}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{B1E3B362-2434-47D6-B2AB-A2874EB0190A}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{74B07ABD-6A11-4937-A641-21CDB61FD959}" name="Hausdorff Distance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}" name="Table19" displayName="Table19" ref="A24:C29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
-  <autoFilter ref="A24:C29" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:C29">
-    <sortCondition ref="A24:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}" name="Table1126" displayName="Table1126" ref="A18:C23" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
+  <autoFilter ref="A18:C23" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C23">
+    <sortCondition ref="A18:A23"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4B4BA720-93A1-4E5A-A04E-2D1E12FF7AC4}" name="Iteration" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{1F83F8F0-9F02-4733-9B90-333ED19D1519}" name="Dice Score" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{B49154BA-4499-4674-BC1C-3CB1A6371D28}" name="Hausdorff Distance" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{4F637688-AA99-4296-B478-966FD5ED9C08}" name="Iteration" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{8FDB03A6-76C2-4600-8489-35C46F2DA9A2}" name="Dice Score" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{A41D579A-33CE-4B5B-81C2-F7B8415EA336}" name="Hausdorff Distance" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}" name="Table20" displayName="Table20" ref="A33:C38" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
-  <autoFilter ref="A33:C38" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C38">
-    <sortCondition ref="A33:A38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+  <autoFilter ref="A27:C32" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C32">
+    <sortCondition ref="A27:A32"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8A82E1BC-745A-40AA-9494-735AA9BC0565}" name="Iteration" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{85AB1E52-41E6-44C4-B019-A6B1C8482760}" name="Dice Score" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{864B0F8E-692E-49F3-9E3A-E033C9985B87}" name="Hausdorff Distance" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{788DA027-4758-45B7-A325-3B27EC92CC49}" name="Iteration" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{257FE13F-90B0-4E7F-84EA-3FA1DF74F7CB}" name="Dice Score" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{DE5F4771-E359-46A1-B6F2-FBB5418DBCFB}" name="Hausdorff Distance" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7898,6 +10068,228 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}" name="Table1128" displayName="Table1128" ref="A36:C41" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+  <autoFilter ref="A36:C41" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
+    <sortCondition ref="A36:A41"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{77B2ECDA-9A50-494E-8BAD-0618CAA31C54}" name="Iteration" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{9975496E-D29C-4B59-B663-811B515C87BC}" name="Dice Score" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{9AB8C43F-C7E6-4A40-A980-63B57E5BCB3A}" name="Hausdorff Distance" dataDxfId="120"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}" name="Table1129" displayName="Table1129" ref="A45:C50" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
+  <autoFilter ref="A45:C50" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
+    <sortCondition ref="A45:A50"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{71EA642A-81F9-4F19-B3D8-E11889135445}" name="Iteration" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{4C2FAD98-E434-492D-8418-3160E738D28A}" name="Dice Score" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{F74DAC32-9886-460E-815B-1BDD2FFAD405}" name="Hausdorff Distance" dataDxfId="112"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}" name="Table1130" displayName="Table1130" ref="A54:C59" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+  <autoFilter ref="A54:C59" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C59">
+    <sortCondition ref="A54:A59"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7D2424F2-7AA2-410B-936F-34A1E0906F68}" name="Iteration" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{F82397EE-88A3-40F6-836E-9E40941060F5}" name="Dice Score" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{AD7759CE-AF8B-4E3E-B459-02A928FC4F39}" name="Hausdorff Distance" dataDxfId="104"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C73" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
+  <autoFilter ref="A63:C73" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:C68">
+    <sortCondition ref="A63:A68"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B3041A79-D11C-47C9-902B-718EB7EA3CBF}" name="Iteration" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{E0B6645D-B230-4295-80E4-EFA9DA6B436A}" name="Dice Score" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{E105A377-DB01-4DCD-9EB0-409736A5AF26}" name="Hausdorff Distance" dataDxfId="96"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A77:C82" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+  <autoFilter ref="A77:C82" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
+    <sortCondition ref="A77:A82"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FC7AF66C-1D33-4794-A392-30E2A04202FA}" name="Iteration" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{04489E56-FA6B-4E7E-B842-8B24E2A21DB0}" name="Dice Score" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{5F966FED-658B-4605-8BCE-271816C165A8}" name="Hausdorff Distance" dataDxfId="88"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A86:C96" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+  <autoFilter ref="A86:C96" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C96">
+    <sortCondition ref="A86:A96"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1A31E0C1-D4B8-4568-A44D-8D04BD44783A}" name="Iteration" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{416F10C1-B76C-4601-B65B-40A110D3DD55}" name="Dice Score" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{5F8FAE4E-8291-4937-AE7A-337ED4424B21}" name="Hausdorff Distance" dataDxfId="80"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A100:C105" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="A100:C105" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
+    <sortCondition ref="A100:A105"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{20A333EC-E398-4A1A-A4A0-BE461E976A4E}" name="Iteration" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{7053D4D9-DB8B-4FAA-B15D-63C7F0EBE19C}" name="Dice Score" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{E11197D4-30F5-49DF-893D-E7826C383D38}" name="Hausdorff Distance" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{173A7CFA-FCAF-4AB7-BE6A-3D9D15ECBB17}" name="Table13417374247" displayName="Table13417374247" ref="A110:C122" totalsRowShown="0">
+  <autoFilter ref="A110:C122" xr:uid="{173A7CFA-FCAF-4AB7-BE6A-3D9D15ECBB17}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C4D8E568-7692-4BF1-BE1B-D514BCD5C5CD}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{A49F4245-D8C8-4A13-A64B-824A87473718}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{339430C2-28F7-4A54-8EA1-1070349AE36A}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{BD11FAB7-7476-4055-A34F-6DCC6C68E794}" name="Table1341737384348" displayName="Table1341737384348" ref="A125:C137" totalsRowShown="0">
+  <autoFilter ref="A125:C137" xr:uid="{BD11FAB7-7476-4055-A34F-6DCC6C68E794}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{687F99E8-0820-4BC6-BFBD-04B2E4D3F1F0}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{B9C92D0B-1103-40E0-AFA4-4DD8461D753D}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{A407CDE6-2B06-4A7F-8A8F-C0BCE7071386}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{29B04189-4253-4608-B821-263C73D10A8F}" name="Table134173738394449" displayName="Table134173738394449" ref="A140:C152" totalsRowShown="0">
+  <autoFilter ref="A140:C152" xr:uid="{29B04189-4253-4608-B821-263C73D10A8F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8616D9E0-9251-4E01-BF51-DD9B0C63C2C5}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{EAD6FDB3-8215-4092-ABCC-A588E2E13F8A}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{DA80F9CC-9DE7-4CEE-B395-2E124974CBE7}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{8CC27938-BCE3-4528-800E-19E3A9D897C1}" name="Table1341737" displayName="Table1341737" ref="A31:C43" totalsRowShown="0">
+  <autoFilter ref="A31:C43" xr:uid="{8CC27938-BCE3-4528-800E-19E3A9D897C1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9A301111-6B09-45B6-AF58-5D27DDDB0FD9}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{685515CF-908F-4647-B44A-CF8258BC44DB}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{79DD1702-0FC8-4A47-B0D5-E75C906A1276}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{44F63D3B-55BA-4CA8-BAE0-30378515D606}" name="Table134173738404550" displayName="Table134173738404550" ref="A155:C167" totalsRowShown="0">
+  <autoFilter ref="A155:C167" xr:uid="{44F63D3B-55BA-4CA8-BAE0-30378515D606}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{386E41B6-1627-4040-80D4-A849927DEBFD}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{F4B254AB-93B0-4CC6-8448-7A9053E44169}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{DF23737B-3CA7-474B-8885-58D0C1CBDF8F}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{82277556-4CC9-4A51-A5FF-024C79556F9D}" name="Table134173738414651" displayName="Table134173738414651" ref="A170:C182" totalsRowShown="0">
+  <autoFilter ref="A170:C182" xr:uid="{82277556-4CC9-4A51-A5FF-024C79556F9D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{246545EC-5E49-4452-9A9A-0AB443D7BDB1}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{2F01542A-1521-4F81-BE3C-E46C94003882}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{54589E36-4D07-4865-BACE-4EB2680B662A}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}" name="Table18" displayName="Table18" ref="A15:C20" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+  <autoFilter ref="A15:C20" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:C20">
+    <sortCondition ref="A15:A20"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{53EF963B-D662-4E98-B94B-87399714F74D}" name="Iteration" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{0A35C664-EABE-417D-B478-00567ED0F6FA}" name="Dice Score" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{A48DC984-B1EE-421D-9876-9CB5407B74E5}" name="Hausdorff Distance" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}" name="Table19" displayName="Table19" ref="A24:C29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+  <autoFilter ref="A24:C29" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:C29">
+    <sortCondition ref="A24:A29"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4B4BA720-93A1-4E5A-A04E-2D1E12FF7AC4}" name="Iteration" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{1F83F8F0-9F02-4733-9B90-333ED19D1519}" name="Dice Score" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{B49154BA-4499-4674-BC1C-3CB1A6371D28}" name="Hausdorff Distance" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}" name="Table20" displayName="Table20" ref="A33:C38" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+  <autoFilter ref="A33:C38" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C38">
+    <sortCondition ref="A33:A38"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8A82E1BC-745A-40AA-9494-735AA9BC0565}" name="Iteration" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{85AB1E52-41E6-44C4-B019-A6B1C8482760}" name="Dice Score" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{864B0F8E-692E-49F3-9E3A-E033C9985B87}" name="Hausdorff Distance" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}" name="Table21" displayName="Table21" ref="A42:C47" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A42:C47" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:C47">
@@ -7912,7 +10304,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}" name="Table22" displayName="Table22" ref="A51:C56" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A51:C56" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:C56">
@@ -7927,7 +10319,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}" name="Table23" displayName="Table23" ref="A60:C65" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A60:C65" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A61:C65">
@@ -7942,7 +10334,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}" name="Table24" displayName="Table24" ref="A69:C74" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A69:C74" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A70:C74">
@@ -7957,7 +10349,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}" name="Table34" displayName="Table34" ref="A78:C83" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A78:C83" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A79:C83">
@@ -7972,7 +10364,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{61974A60-3EC5-4FB0-A249-DF195AB0ADD0}" name="Table134173738" displayName="Table134173738" ref="A46:C58" totalsRowShown="0">
+  <autoFilter ref="A46:C58" xr:uid="{61974A60-3EC5-4FB0-A249-DF195AB0ADD0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5F02F810-86F8-4B5B-BE61-228113990057}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{FD6CD755-07A3-49DA-BD41-004BAD014274}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{FA5F04A8-3D6B-475E-A8BD-18B5EEFA8FBA}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}" name="Table35" displayName="Table35" ref="A87:C92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A87:C92" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:C92">
@@ -7987,82 +10391,109 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{F48AB280-8F76-46E8-825D-DC33EC0A1DBA}" name="Table1341737424752" displayName="Table1341737424752" ref="A97:C109" totalsRowShown="0">
+  <autoFilter ref="A97:C109" xr:uid="{F48AB280-8F76-46E8-825D-DC33EC0A1DBA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6AB3B8E4-5F77-4CB9-B50F-43E73CE87EEE}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{6CEFD1E0-CED9-41A7-834E-0F33443C947B}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{ED668885-FCF1-414D-BDDC-E3E80659D54D}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{9ADFD97F-3AB2-48B3-B990-92184A308401}" name="Table134173738434853" displayName="Table134173738434853" ref="A112:C124" totalsRowShown="0">
+  <autoFilter ref="A112:C124" xr:uid="{9ADFD97F-3AB2-48B3-B990-92184A308401}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C5FDA4E0-A290-4D85-83E0-A3D1B738FDDA}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{A9735B85-C94F-4468-99C1-76F50BA2BB8E}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{C211809F-5FF3-4987-AD5D-4394D5D20BE4}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{EFEA252A-490D-4114-A61A-0A1653E3E2EC}" name="Table13417373839444954" displayName="Table13417373839444954" ref="A127:C139" totalsRowShown="0">
+  <autoFilter ref="A127:C139" xr:uid="{EFEA252A-490D-4114-A61A-0A1653E3E2EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{319436BB-6325-4E65-A467-655F18B07AD7}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{6EE3BC61-1B15-4BD6-AD33-1C3D92B940DB}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{23A27D93-4C78-4D40-A1F0-29F123665C87}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{ED75E4AD-FDBD-4E2A-9B1F-CC55719A40C9}" name="Table13417373840455055" displayName="Table13417373840455055" ref="A142:C154" totalsRowShown="0">
+  <autoFilter ref="A142:C154" xr:uid="{ED75E4AD-FDBD-4E2A-9B1F-CC55719A40C9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A42C892C-B4EA-4089-B6ED-FE26C51983D4}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{0D28B813-82AE-4CEB-8017-87DDD8B050BA}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{E7A20DE4-322C-4838-BE58-DA47499F3B30}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{61C44276-6ECC-497F-84EA-A7BD2BFAA2F9}" name="Table13417373841465156" displayName="Table13417373841465156" ref="A157:C169" totalsRowShown="0">
+  <autoFilter ref="A157:C169" xr:uid="{61C44276-6ECC-497F-84EA-A7BD2BFAA2F9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{23044FC2-A05C-4AF2-B2D8-23DB7CF11575}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{C4D27E82-1CA9-47EB-A4FD-F21F74CFD03A}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{13D1B362-071F-464B-B80A-6930FBBC7C0F}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{9B384C3F-6F12-4051-A600-C935456BD93C}" name="Table13417373839" displayName="Table13417373839" ref="A61:C73" totalsRowShown="0">
+  <autoFilter ref="A61:C73" xr:uid="{9B384C3F-6F12-4051-A600-C935456BD93C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{977A0B73-434C-48E3-81F4-31C978AB3930}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{B3483D0C-BF8F-4679-8DFB-6045A5D02B08}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{343D9A7F-D295-4E91-9027-1148F394948E}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{FA769F9F-62B3-47CB-9881-CFD83F31FE02}" name="Table13417373840" displayName="Table13417373840" ref="A76:C88" totalsRowShown="0">
+  <autoFilter ref="A76:C88" xr:uid="{FA769F9F-62B3-47CB-9881-CFD83F31FE02}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D5342300-FADB-4702-9FD9-32CE539F6C80}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{0F131983-859D-49B9-B626-0C0C813501E0}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{7D8C8126-E36C-47F1-9F81-ED42365B52F9}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{A467976F-A31F-4283-8927-04133C070B26}" name="Table13417373841" displayName="Table13417373841" ref="A91:C103" totalsRowShown="0">
+  <autoFilter ref="A91:C103" xr:uid="{A467976F-A31F-4283-8927-04133C070B26}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C61C0D74-D459-4F15-B966-47D50630957B}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{ACC887BC-F8EC-4BC0-8E5B-E63F84C169D5}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{36F7EAC6-C1EC-4166-B77D-8CB671ED918F}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{971C66A5-FDA7-4754-A0A8-57D9D47DE285}" name="Table13" displayName="Table13" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{936F31B2-61A2-4E97-8220-1E7FE1902A15}" name="Iteration"/>
     <tableColumn id="4" xr3:uid="{0832F3AB-7C27-4062-89AD-82F1637522AA}" name="Classification Accuracy"/>
     <tableColumn id="5" xr3:uid="{A5E9E0CE-1256-4002-BC45-327C677DE572}" name="Classification F1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44D18B11-8DD6-45A6-87CF-63A4948A389E}" name="Table136" displayName="Table136" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A8895931-E816-47F6-8CC7-87EADCF46704}" name="Iteration"/>
-    <tableColumn id="4" xr3:uid="{34F049D4-21B8-4740-8CB7-F854365D0183}" name="Classification Accuracy"/>
-    <tableColumn id="5" xr3:uid="{9A589871-7314-4EE0-9138-5D4E4B6A715F}" name="Classification F1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECC1DCBB-E872-4D81-8A98-CF47BB1A52B8}" name="Table1357" displayName="Table1357" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{68526608-18A6-43D5-A098-73580A4C681B}" name="Iteration"/>
-    <tableColumn id="2" xr3:uid="{0254A2EC-4025-48A2-89D8-BF85854B7570}" name="Dice Score"/>
-    <tableColumn id="3" xr3:uid="{4E37900F-8F42-4D9F-B7C7-2C2CD1A0273E}" name="Hausdorff Distance"/>
-    <tableColumn id="4" xr3:uid="{6422C4BC-43E2-4690-88B6-49E8BBF6DE34}" name="Classification Accuracy"/>
-    <tableColumn id="5" xr3:uid="{3001328F-48C2-408B-939C-12A8C6CC5EB5}" name="Classification F1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FB4711C-FEAB-46E5-BBE5-75F1744FD7F2}" name="Table135" displayName="Table135" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{394C2F81-C4C9-4D73-861A-181830DFC6C9}" name="Iteration"/>
-    <tableColumn id="2" xr3:uid="{D1372F7F-6C74-4950-89D7-A11176795484}" name="Dice Score"/>
-    <tableColumn id="3" xr3:uid="{3809E15D-BFB2-4BC8-8288-7577B79320C1}" name="Hausdorff Distance"/>
-    <tableColumn id="4" xr3:uid="{CBF2E8F9-807B-4F55-92DF-85B540D79465}" name="Classification Accuracy"/>
-    <tableColumn id="5" xr3:uid="{E941453B-0027-448C-9472-54AC4063E5CA}" name="Classification F1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0EDCDD2A-534D-415A-9636-AA89390D6A00}" name="Iteration"/>
-    <tableColumn id="2" xr3:uid="{19834CED-B487-4A18-BBC1-BFD84927C26A}" name="Dice Score"/>
-    <tableColumn id="3" xr3:uid="{4299D94B-C521-4BAB-B01B-C6C8DF5C4B4B}" name="Hausdorff Distance"/>
-    <tableColumn id="4" xr3:uid="{7B5159A6-E47A-4D2C-85A1-CCCD80A99A07}" name="Classification Accuracy"/>
-    <tableColumn id="5" xr3:uid="{2E7C771C-ABF3-430E-AECC-03F696AB624A}" name="Classification F1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="214" headerRowBorderDxfId="213" tableBorderDxfId="212" totalsRowBorderDxfId="211">
-  <autoFilter ref="A18:C25" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C25">
-    <sortCondition descending="1" ref="B18:B25"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0605BF28-1F7C-45A0-BBBB-7F517E7A1A42}" name="Iteration" dataDxfId="210"/>
-    <tableColumn id="2" xr3:uid="{43609D64-12B8-4DF5-931F-CCF49D5D9098}" name="Dice Score" dataDxfId="209"/>
-    <tableColumn id="3" xr3:uid="{66CB39D6-3550-4519-BE05-163BBF18DE22}" name="Hausdorff Distance" dataDxfId="208"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8667,10 +11098,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9EE4C0-4CF0-4381-B80F-8E9FC582ED4A}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8717,10 +11148,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>0.27289999999999998</v>
+        <v>0.67430000000000001</v>
       </c>
       <c r="H2" s="4">
-        <v>38.632800000000003</v>
+        <v>22.118300000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8737,10 +11168,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="6">
-        <v>0.2858</v>
+        <v>0.77510000000000001</v>
       </c>
       <c r="H3" s="6">
-        <v>43.701700000000002</v>
+        <v>16.191700000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8757,10 +11188,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>0.26729999999999998</v>
+        <v>0.58440000000000003</v>
       </c>
       <c r="H4" s="4">
-        <v>60.988500000000002</v>
+        <v>24.9819</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8777,10 +11208,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="6">
-        <v>0.51219999999999999</v>
+        <v>0.5948</v>
       </c>
       <c r="H5" s="6">
-        <v>28.6938</v>
+        <v>19.306000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8797,10 +11228,10 @@
         <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>0.74390000000000001</v>
+        <v>0.28050000000000003</v>
       </c>
       <c r="H6" s="4">
-        <v>18.0153</v>
+        <v>38.9694</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8817,10 +11248,10 @@
         <v>6</v>
       </c>
       <c r="G7" s="6">
-        <v>0.27310000000000001</v>
+        <v>0.71060000000000001</v>
       </c>
       <c r="H7" s="6">
-        <v>41.214100000000002</v>
+        <v>19.064</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8837,10 +11268,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.66569999999999996</v>
       </c>
       <c r="H8" s="4">
-        <v>51.502800000000001</v>
+        <v>22.247900000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8857,10 +11288,10 @@
         <v>8</v>
       </c>
       <c r="G9" s="6">
-        <v>0.2979</v>
+        <v>0.27179999999999999</v>
       </c>
       <c r="H9" s="6">
-        <v>39.164400000000001</v>
+        <v>51.019100000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8877,10 +11308,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="4">
-        <v>0.27529999999999999</v>
+        <v>0.72860000000000003</v>
       </c>
       <c r="H10" s="4">
-        <v>46.131900000000002</v>
+        <v>18.817</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8897,10 +11328,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="6">
-        <v>0.27939999999999998</v>
+        <v>0.74429999999999996</v>
       </c>
       <c r="H11" s="6">
-        <v>39.059199999999997</v>
+        <v>18.4207</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8920,11 +11351,11 @@
       </c>
       <c r="G12" s="4">
         <f>AVERAGE(G2:G11)</f>
-        <v>0.34977999999999998</v>
+        <v>0.60301000000000005</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ref="H12" si="1">AVERAGE(H2:H11)</f>
-        <v>40.710449999999994</v>
+        <v>25.113599999999998</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8944,11 +11375,11 @@
       </c>
       <c r="G13" s="6">
         <f>_xlfn.STDEV.S(G2:G11)</f>
-        <v>0.15676003458931878</v>
+        <v>0.18259399071285048</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ref="H13" si="3">_xlfn.STDEV.S(H2:H11)</f>
-        <v>11.714998590339954</v>
+        <v>11.128780440621313</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9811,21 +12242,759 @@
         <v>1.6809041123752455</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102">
-        <f>_xlfn.T.TEST(B70:B74, 'Standard Training'!B2:B11, 2, 3)</f>
-        <v>0.98987604767553528</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103">
-        <f>_xlfn.T.TEST(C70:C74, 'Standard Training'!C2:C11, 2, 3)</f>
-        <v>4.6015236166585059E-2</v>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="C98">
+        <v>8.1752000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="C99">
+        <v>8.6885999999999992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="C100">
+        <v>7.9610000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="C101">
+        <v>11.364699999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>0.8125</v>
+      </c>
+      <c r="C102">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="C103">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="C104">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>0.745</v>
+      </c>
+      <c r="C105">
+        <v>8.8117000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>0.75949999999999995</v>
+      </c>
+      <c r="C106">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>10</v>
+      </c>
+      <c r="B107">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="C107">
+        <v>7.4019000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <f>AVERAGE(B98:B107)</f>
+        <v>0.74537000000000009</v>
+      </c>
+      <c r="C108">
+        <f>AVERAGE(C98:C107)</f>
+        <v>10.689310000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <f>_xlfn.STDEV.S(B98:B107)</f>
+        <v>7.7638507770879314E-2</v>
+      </c>
+      <c r="C109">
+        <f>_xlfn.STDEV.S(C98:C107)</f>
+        <v>5.6254519801523468</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>0.89490000000000003</v>
+      </c>
+      <c r="C113">
+        <v>14.5025</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="C114">
+        <v>8.9892000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="C115">
+        <v>24.610199999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>0.8982</v>
+      </c>
+      <c r="C116">
+        <v>13.9847</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="C117">
+        <v>14.7037</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="C118">
+        <v>29.076499999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="C119">
+        <v>10.946199999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="C120">
+        <v>16.994800000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>9</v>
+      </c>
+      <c r="B121">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="C121">
+        <v>12.130800000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>10</v>
+      </c>
+      <c r="B122">
+        <v>0.9002</v>
+      </c>
+      <c r="C122">
+        <v>11.1675</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123">
+        <f>AVERAGE(B113:B122)</f>
+        <v>0.87796000000000007</v>
+      </c>
+      <c r="C123">
+        <f>AVERAGE(C113:C122)</f>
+        <v>15.710609999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <f>_xlfn.STDEV.S(B113:B122)</f>
+        <v>5.4677299778894628E-2</v>
+      </c>
+      <c r="C124">
+        <f>_xlfn.STDEV.S(C113:C122)</f>
+        <v>6.3795059684116593</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="C128">
+        <v>13.4137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>0.7641</v>
+      </c>
+      <c r="C129">
+        <v>14.2857</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="C130">
+        <v>15.333299999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="C131">
+        <v>12.851800000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="C132">
+        <v>14.103400000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="C133">
+        <v>21.4482</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="C134">
+        <v>12.821400000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="C135">
+        <v>11.9285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="C136">
+        <v>12.892799999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="C137">
+        <v>15.1785</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <f>AVERAGE(B128:B137)</f>
+        <v>0.77742999999999995</v>
+      </c>
+      <c r="C138">
+        <f>AVERAGE(C128:C137)</f>
+        <v>14.425729999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <f>_xlfn.STDEV.S(B128:B137)</f>
+        <v>4.4753399622573665E-2</v>
+      </c>
+      <c r="C139">
+        <f>_xlfn.STDEV.S(C128:C137)</f>
+        <v>2.6975359760962214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="C143">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="C144">
+        <v>4.6520999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="C145">
+        <v>4.4782000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C146">
+        <v>8.4284999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>0.8226</v>
+      </c>
+      <c r="C147">
+        <v>3.9523000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>0.123</v>
+      </c>
+      <c r="C148">
+        <v>73.138800000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>0.88839999999999997</v>
+      </c>
+      <c r="C149">
+        <v>4.9259000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>8</v>
+      </c>
+      <c r="B150">
+        <v>0.9002</v>
+      </c>
+      <c r="C150">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>9</v>
+      </c>
+      <c r="B151">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="C151">
+        <v>4.5453999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>10</v>
+      </c>
+      <c r="B152">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="C152">
+        <v>4.8181000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153">
+        <f>AVERAGE(B143:B152)</f>
+        <v>0.79412999999999989</v>
+      </c>
+      <c r="C153">
+        <f>AVERAGE(C143:C152)</f>
+        <v>11.851430000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <f>_xlfn.STDEV.S(B143:B152)</f>
+        <v>0.23739921861707985</v>
+      </c>
+      <c r="C154">
+        <f>_xlfn.STDEV.S(C143:C152)</f>
+        <v>21.573444573160362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="C158">
+        <v>2.4544999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="C159">
+        <v>6.4165999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C160">
+        <v>4.1665999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="C161">
+        <v>1.5555000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>5</v>
+      </c>
+      <c r="B162">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="C162">
+        <v>1.1818</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="C163">
+        <v>1.923</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="C165">
+        <v>2.5832999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168">
+        <f>AVERAGE(B158:B167)</f>
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="C168">
+        <f>AVERAGE(C158:C167)</f>
+        <v>2.3281300000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <f>_xlfn.STDEV.S(B158:B167)</f>
+        <v>0.27990873115674281</v>
+      </c>
+      <c r="C169">
+        <f>_xlfn.STDEV.S(C158:C167)</f>
+        <v>1.7493995090697068</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="9">
+  <tableParts count="14">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -9835,16 +13004,21 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE7B198-A19B-493B-B085-8D5AE4C3117E}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10126,148 +13300,910 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0.42499999999999999</v>
+        <v>0.25690000000000002</v>
       </c>
       <c r="C16">
-        <v>40.881700000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43.437899999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17">
-        <v>0.38519999999999999</v>
-      </c>
-      <c r="C17">
-        <v>44.597700000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
-        <v>0.36149999999999999</v>
+        <v>0.25280000000000002</v>
       </c>
       <c r="C18">
-        <v>67.634200000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48.952199999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
-        <v>0.26700000000000002</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="C19">
-        <v>60.002299999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.076699999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>0.22589999999999999</v>
+        <v>0.28660000000000002</v>
       </c>
       <c r="C20">
-        <v>76.504800000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39.678800000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
-      <c r="B21">
-        <v>0.2641</v>
-      </c>
-      <c r="C21">
-        <v>41.791200000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22">
-        <v>0.28460000000000002</v>
+        <v>0.6512</v>
       </c>
       <c r="C22">
-        <v>57.666600000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20.453700000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23">
-        <v>0.31569999999999998</v>
+        <v>0.71609999999999996</v>
       </c>
       <c r="C23">
-        <v>58.006999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16.9877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
       <c r="B24">
-        <v>0.2487</v>
+        <v>0.69679999999999997</v>
       </c>
       <c r="C24">
-        <v>58.317500000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20.270099999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25">
-        <v>0.25130000000000002</v>
+        <v>0.7026</v>
       </c>
       <c r="C25">
-        <v>65.975300000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23.021899999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26">
-        <f>AVERAGE(B16:B25)</f>
-        <v>0.3029</v>
+        <f>AVERAGE(B17:B25)</f>
+        <v>0.56899999999999995</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26" si="4">AVERAGE(C16:C25)</f>
-        <v>57.137830000000008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28.609874999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27">
-        <f>_xlfn.STDEV.S(B16:B25)</f>
-        <v>6.6614846526714885E-2</v>
+        <f>_xlfn.STDEV.S(B17:B25)</f>
+        <v>0.20573107851432343</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27" si="5">_xlfn.STDEV.S(C16:C25)</f>
-        <v>11.695306396637161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13.178215476714369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="C32">
+        <v>10.2857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="C33">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="C34">
+        <v>16.595700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="C35">
+        <v>6.8333000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0.878</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0.62060000000000004</v>
+      </c>
+      <c r="C37">
+        <v>10.035299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="C38">
+        <v>7.1440999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C39">
+        <v>12.3894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="C40">
+        <v>8.4689999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="C41">
+        <v>12.586499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <f>AVERAGE(B32:B41)</f>
+        <v>0.79336999999999991</v>
+      </c>
+      <c r="C42">
+        <f>AVERAGE(C32:C41)</f>
+        <v>11.401899999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <f>_xlfn.STDEV.S(B32:B41)</f>
+        <v>8.7230092284716093E-2</v>
+      </c>
+      <c r="C43">
+        <f>_xlfn.STDEV.S(C32:C41)</f>
+        <v>3.649088505366787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0.78590000000000004</v>
+      </c>
+      <c r="C47">
+        <v>12.2912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="C48">
+        <v>19.289400000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="C49">
+        <v>13.184699999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="C50">
+        <v>9.7958999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="C51">
+        <v>12.6358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="C52">
+        <v>17.136800000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="C53">
+        <v>13.4444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="C54">
+        <v>13.885400000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="C55">
+        <v>9.9537999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="C56">
+        <v>11.589700000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(B47:B56)</f>
+        <v>0.86205999999999994</v>
+      </c>
+      <c r="C57">
+        <f>AVERAGE(C47:C56)</f>
+        <v>13.32071</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <f>_xlfn.STDEV.S(B47:B56)</f>
+        <v>3.4491809011544881E-2</v>
+      </c>
+      <c r="C58">
+        <f>_xlfn.STDEV.S(C47:C56)</f>
+        <v>2.9594712851566318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="C62">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="C63">
+        <v>20.1111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="C64">
+        <v>21.269200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="C65">
+        <v>18.571400000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>0.73860000000000003</v>
+      </c>
+      <c r="C66">
+        <v>19.642800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="C67">
+        <v>22.7407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="C68">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0.745</v>
+      </c>
+      <c r="C69">
+        <v>20.607099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="C70">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>0.748</v>
+      </c>
+      <c r="C71">
+        <v>20.892800000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <f>AVERAGE(B62:B71)</f>
+        <v>0.72093000000000007</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(C62:C71)</f>
+        <v>20.043510000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <f>_xlfn.STDEV.S(B62:B71)</f>
+        <v>2.7714057804659336E-2</v>
+      </c>
+      <c r="C73">
+        <f>_xlfn.STDEV.S(C62:C71)</f>
+        <v>1.6711562593672149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="C77">
+        <v>10.428599999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="C78">
+        <v>9.3125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="C80">
+        <v>12.3043</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="C81">
+        <v>8.7857000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="C82">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="C83">
+        <v>8.3076000000000008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="C84">
+        <v>5.6665999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C85">
+        <v>5.0769000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="C86">
+        <v>9.1818000000000008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <f>AVERAGE(B77:B86)</f>
+        <v>0.87623999999999991</v>
+      </c>
+      <c r="C87">
+        <f>AVERAGE(C77:C86)</f>
+        <v>7.9423999999999992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <f>_xlfn.STDEV.S(B77:B86)</f>
+        <v>2.9949965683526994E-2</v>
+      </c>
+      <c r="C88">
+        <f>_xlfn.STDEV.S(C77:C86)</f>
+        <v>2.5425717024741394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <v>0.9859</v>
+      </c>
+      <c r="C93">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="C94">
+        <v>5.0909000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="C95">
+        <v>8.4166000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="C96">
+        <v>7.4165999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="C97">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="C99">
+        <v>4.2727000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="C100">
+        <v>6.8333000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <f>AVERAGE(B92:B101)</f>
+        <v>0.94884999999999986</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(C92:C101)</f>
+        <v>4.9144555555555556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103">
+        <f>_xlfn.STDEV.S(B92:B101)</f>
+        <v>4.4592432093349649E-2</v>
+      </c>
+      <c r="C103">
+        <f>_xlfn.STDEV.S(C92:C101)</f>
+        <v>2.9505395151188507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11363,10 +15299,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11451,10 +15387,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="4">
-        <v>0.28439999999999999</v>
+        <v>0.71740000000000004</v>
       </c>
       <c r="O2" s="4">
-        <v>54.977200000000003</v>
+        <v>16.231999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -11489,10 +15425,10 @@
         <v>2</v>
       </c>
       <c r="N3" s="6">
-        <v>0.35070000000000001</v>
+        <v>0.46579999999999999</v>
       </c>
       <c r="O3" s="6">
-        <v>58.684199999999997</v>
+        <v>20.331299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -11523,10 +15459,10 @@
         <v>3</v>
       </c>
       <c r="N4" s="4">
-        <v>0.28370000000000001</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="O4" s="4">
-        <v>61.111899999999999</v>
+        <v>20.331299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -11557,10 +15493,10 @@
         <v>4</v>
       </c>
       <c r="N5" s="6">
-        <v>0.30840000000000001</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="O5" s="6">
-        <v>67.970500000000001</v>
+        <v>16.664899999999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -11591,10 +15527,10 @@
         <v>5</v>
       </c>
       <c r="N6" s="4">
-        <v>0.36830000000000002</v>
+        <v>0.69379999999999997</v>
       </c>
       <c r="O6" s="4">
-        <v>47.091700000000003</v>
+        <v>17.883900000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -11629,10 +15565,10 @@
         <v>6</v>
       </c>
       <c r="N7" s="6">
-        <v>0.2913</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="O7" s="6">
-        <v>59.819000000000003</v>
+        <v>17.633199999999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -11667,10 +15603,10 @@
         <v>7</v>
       </c>
       <c r="N8" s="4">
-        <v>0.3392</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="O8" s="4">
-        <v>58.918700000000001</v>
+        <v>18.511800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -11701,10 +15637,10 @@
         <v>8</v>
       </c>
       <c r="N9" s="6">
-        <v>0.28760000000000002</v>
+        <v>0.60850000000000004</v>
       </c>
       <c r="O9" s="6">
-        <v>48.863799999999998</v>
+        <v>20.4361</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -11739,10 +15675,10 @@
         <v>9</v>
       </c>
       <c r="N10" s="4">
-        <v>0.27300000000000002</v>
+        <v>0.74380000000000002</v>
       </c>
       <c r="O10" s="4">
-        <v>67.599400000000003</v>
+        <v>15.4239</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -11777,10 +15713,10 @@
         <v>10</v>
       </c>
       <c r="N11" s="6">
-        <v>0.26779999999999998</v>
+        <v>0.72709999999999997</v>
       </c>
       <c r="O11" s="6">
-        <v>53.935000000000002</v>
+        <v>15.7936</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -11822,11 +15758,11 @@
       </c>
       <c r="N12" s="4">
         <f>AVERAGE(N2:N11)</f>
-        <v>0.30543999999999999</v>
+        <v>0.6436400000000001</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" ref="O12" si="3">AVERAGE(O2:O11)</f>
-        <v>57.897139999999993</v>
+        <v>17.924200000000003</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -11868,11 +15804,11 @@
       </c>
       <c r="N13" s="6">
         <f>_xlfn.STDEV.S(N2:N11)</f>
-        <v>3.5041220171551396E-2</v>
+        <v>9.122559582339386E-2</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" ref="O13" si="7">_xlfn.STDEV.S(O2:O11)</f>
-        <v>6.9432707224253978</v>
+        <v>1.931315471669782</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -11891,8 +15827,8 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M17">
-        <f>_xlfn.T.TEST(N2:N11, 'Standard Training'!B16:B25, 2, 3)</f>
-        <v>0.91657178119352722</v>
+        <f>_xlfn.T.TEST(N2:N11, 'Standard Training'!B17:B25, 2, 3)</f>
+        <v>0.3955274870741402</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -11913,7 +15849,7 @@
       </c>
       <c r="M18">
         <f>_xlfn.T.TEST('Class-Based Contrastive'!O2:O11, 'Standard Training'!C16:C25, 2, 3)</f>
-        <v>0.86228730050467084</v>
+        <v>5.5915244529133462E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -13071,10 +17007,760 @@
         <v>0.92149597394671423</v>
       </c>
     </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="C111">
+        <v>11.017799999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>0.8599</v>
+      </c>
+      <c r="C112">
+        <v>10.420500000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="C113">
+        <v>8.1452000000000009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="C115">
+        <v>7.4683999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="C116">
+        <v>7.3125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="C117">
+        <v>9.8089999999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="C118">
+        <v>7.8727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="C119">
+        <v>14.8636</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="C120">
+        <v>6.9912000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <f>AVERAGE(B111:B120)</f>
+        <v>0.85594999999999999</v>
+      </c>
+      <c r="C121">
+        <f>AVERAGE(C111:C120)</f>
+        <v>9.1900900000000014</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <f>_xlfn.STDEV.S(B111:B120)</f>
+        <v>5.7559500615546606E-2</v>
+      </c>
+      <c r="C122">
+        <f>_xlfn.STDEV.S(C111:C120)</f>
+        <v>2.4265774147735071</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="C126">
+        <v>10.9664</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="C127">
+        <v>10.0913</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="C128">
+        <v>7.4010999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="C129">
+        <v>12.454000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="C130">
+        <v>10.953099999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C131">
+        <v>6.9943</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>0.92</v>
+      </c>
+      <c r="C132">
+        <v>7.3841999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="C133">
+        <v>8.3163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="C134">
+        <v>8.9184000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>10</v>
+      </c>
+      <c r="B135">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="C135">
+        <v>6.3021000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <f>AVERAGE(B126:B135)</f>
+        <v>0.90944999999999998</v>
+      </c>
+      <c r="C136">
+        <f>AVERAGE(C126:C135)</f>
+        <v>8.9781200000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <f>_xlfn.STDEV.S(B126:B135)</f>
+        <v>1.1719333503991508E-2</v>
+      </c>
+      <c r="C137">
+        <f>_xlfn.STDEV.S(C126:C135)</f>
+        <v>2.0477761627894941</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="C141">
+        <v>16.821400000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="C142">
+        <v>14.1785</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="C143">
+        <v>14.857100000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="C144">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>0.7601</v>
+      </c>
+      <c r="C145">
+        <v>15.1785</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="C146">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="C147">
+        <v>16.481400000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="C148">
+        <v>15.2857</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="C149">
+        <v>20.035699999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>10</v>
+      </c>
+      <c r="B150">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="C150">
+        <v>14.357100000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <f>AVERAGE(B141:B150)</f>
+        <v>0.76515999999999995</v>
+      </c>
+      <c r="C151">
+        <f>AVERAGE(C141:C150)</f>
+        <v>15.96954</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <f>_xlfn.STDEV.S(B141:B150)</f>
+        <v>1.292114546005887E-2</v>
+      </c>
+      <c r="C152">
+        <f>_xlfn.STDEV.S(C141:C150)</f>
+        <v>1.6936918945834689</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>0.7903</v>
+      </c>
+      <c r="C156">
+        <v>16.656199999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="C157">
+        <v>5.5453999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="C158">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="C159">
+        <v>5.923</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>5</v>
+      </c>
+      <c r="B160">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="C160">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>0.9385</v>
+      </c>
+      <c r="C161">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="C162">
+        <v>6.7727000000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C163">
+        <v>10.958299999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C164">
+        <v>4.3333000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="C165">
+        <v>4.4074</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166">
+        <f>AVERAGE(B156:B165)</f>
+        <v>0.89699000000000007</v>
+      </c>
+      <c r="C166">
+        <f>AVERAGE(C156:C165)</f>
+        <v>7.1056299999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <f>_xlfn.STDEV.S(B156:B165)</f>
+        <v>4.0506253289529948E-2</v>
+      </c>
+      <c r="C167">
+        <f>_xlfn.STDEV.S(C156:C165)</f>
+        <v>4.0076964769331314</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="C171">
+        <v>1.1818</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C172">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="C173">
+        <v>3.1665999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="C174">
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>5</v>
+      </c>
+      <c r="B175">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="C175">
+        <v>4.3333000000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="C176">
+        <v>5.4284999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="C177">
+        <v>8.6666000000000007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>8</v>
+      </c>
+      <c r="B178">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="C178">
+        <v>5.1111000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>10</v>
+      </c>
+      <c r="B180">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <f>AVERAGE(B171:B180)</f>
+        <v>0.97506000000000004</v>
+      </c>
+      <c r="C181">
+        <f>AVERAGE(C171:C180)</f>
+        <v>4.6962900000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182">
+        <f>_xlfn.STDEV.S(B171:B180)</f>
+        <v>2.6383757629774171E-2</v>
+      </c>
+      <c r="C182">
+        <f>_xlfn.STDEV.S(C171:C180)</f>
+        <v>2.4456908605636247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="9">
+  <tableParts count="14">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -13084,16 +17770,21 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13161,10 +17852,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>0.27429999999999999</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="K2" s="4">
-        <v>64.540400000000005</v>
+        <v>17.888000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -13186,10 +17877,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="6">
-        <v>0.26200000000000001</v>
+        <v>0.62439999999999996</v>
       </c>
       <c r="K3" s="6">
-        <v>66.343699999999998</v>
+        <v>20.567900000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -13211,10 +17902,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="4">
-        <v>0.31780000000000003</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="K4" s="4">
-        <v>67.181799999999996</v>
+        <v>18.7654</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -13240,10 +17931,10 @@
         <v>4</v>
       </c>
       <c r="J5" s="6">
-        <v>0.28970000000000001</v>
+        <v>0.73650000000000004</v>
       </c>
       <c r="K5" s="6">
-        <v>72.629199999999997</v>
+        <v>15.295</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -13269,10 +17960,10 @@
         <v>5</v>
       </c>
       <c r="J6" s="4">
-        <v>0.27850000000000003</v>
+        <v>0.59240000000000004</v>
       </c>
       <c r="K6" s="4">
-        <v>48.421199999999999</v>
+        <v>19.511800000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13294,10 +17985,10 @@
         <v>6</v>
       </c>
       <c r="J7" s="6">
-        <v>0.24260000000000001</v>
+        <v>0.6603</v>
       </c>
       <c r="K7" s="6">
-        <v>56.792900000000003</v>
+        <v>18.131599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13323,10 +18014,10 @@
         <v>7</v>
       </c>
       <c r="J8" s="4">
-        <v>0.34989999999999999</v>
+        <v>0.66190000000000004</v>
       </c>
       <c r="K8" s="4">
-        <v>60.761000000000003</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13348,10 +18039,10 @@
         <v>8</v>
       </c>
       <c r="J9" s="6">
-        <v>0.28960000000000002</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="K9" s="6">
-        <v>55.039299999999997</v>
+        <v>16.666699999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13377,10 +18068,10 @@
         <v>9</v>
       </c>
       <c r="J10" s="4">
-        <v>0.34610000000000002</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="K10" s="4">
-        <v>44.839500000000001</v>
+        <v>19.469899999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13402,10 +18093,10 @@
         <v>10</v>
       </c>
       <c r="J11" s="6">
-        <v>0.30969999999999998</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="K11" s="6">
-        <v>58.839100000000002</v>
+        <v>17.367100000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13436,11 +18127,11 @@
       </c>
       <c r="J12" s="4">
         <f>AVERAGE(J2:J11)</f>
-        <v>0.29602000000000001</v>
+        <v>0.65466999999999997</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" ref="K12" si="2">AVERAGE(K2:K11)</f>
-        <v>59.538810000000012</v>
+        <v>18.566339999999997</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13471,11 +18162,11 @@
       </c>
       <c r="J13" s="6">
         <f>_xlfn.STDEV.S(J2:J11)</f>
-        <v>3.4870388584011897E-2</v>
+        <v>5.5245915887260154E-2</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" ref="K13" si="5">_xlfn.STDEV.S(K2:K11)</f>
-        <v>8.6315696909592869</v>
+        <v>1.9420442186292031</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -14599,10 +19290,760 @@
         <v>0.90559662930026419</v>
       </c>
     </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>0.8236</v>
+      </c>
+      <c r="C111">
+        <v>10.308999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="C112">
+        <v>7.0641999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="C113">
+        <v>11.813000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114">
+        <v>0.63959999999999995</v>
+      </c>
+      <c r="C114">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="C115">
+        <v>25.741599999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="C116">
+        <v>6.6346999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>0.7984</v>
+      </c>
+      <c r="C117">
+        <v>7.5778999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="C118">
+        <v>6.6227999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>0.75519999999999998</v>
+      </c>
+      <c r="C119">
+        <v>6.2766999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="C120">
+        <v>8.0089000000000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <f>AVERAGE(B111:B120)</f>
+        <v>0.76427</v>
+      </c>
+      <c r="C121">
+        <f>AVERAGE(C111:C120)</f>
+        <v>10.78988</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <f>_xlfn.STDEV.S(B111:B120)</f>
+        <v>0.1012059072715942</v>
+      </c>
+      <c r="C122">
+        <f>_xlfn.STDEV.S(C111:C120)</f>
+        <v>6.3386597996036276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="C126">
+        <v>6.7267999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="C127">
+        <v>9.8449000000000009</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C128">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="C129">
+        <v>6.6477000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="C130">
+        <v>13.860799999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="C131">
+        <v>9.8518000000000008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>0.9042</v>
+      </c>
+      <c r="C132">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="C133">
+        <v>6.3947000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="C134">
+        <v>7.9405000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>10</v>
+      </c>
+      <c r="B135">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="C135">
+        <v>6.9488000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <f>AVERAGE(B126:B135)</f>
+        <v>0.89961000000000002</v>
+      </c>
+      <c r="C136">
+        <f>AVERAGE(C126:C135)</f>
+        <v>8.5706000000000007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <f>_xlfn.STDEV.S(B126:B135)</f>
+        <v>2.2657225975147285E-2</v>
+      </c>
+      <c r="C137">
+        <f>_xlfn.STDEV.S(C126:C135)</f>
+        <v>2.4709277519902426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="C141">
+        <v>11.821400000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>0.76580000000000004</v>
+      </c>
+      <c r="C142">
+        <v>17.321400000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="C143">
+        <v>16.321400000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="C144">
+        <v>12.9642</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="C145">
+        <v>14.142799999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="C146">
+        <v>17.214200000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="C148">
+        <v>13.571400000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="C149">
+        <v>15.7142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>10</v>
+      </c>
+      <c r="B150">
+        <v>0.76580000000000004</v>
+      </c>
+      <c r="C150">
+        <v>16.964200000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151">
+        <f>AVERAGE(B141:B150)</f>
+        <v>0.76841999999999988</v>
+      </c>
+      <c r="C151">
+        <f>AVERAGE(C141:C150)</f>
+        <v>15.00352</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <f>_xlfn.STDEV.S(B141:B150)</f>
+        <v>1.580807107496392E-2</v>
+      </c>
+      <c r="C152">
+        <f>_xlfn.STDEV.S(C141:C150)</f>
+        <v>1.955885316338001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="C156">
+        <v>8.3076000000000008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="C157">
+        <v>5.6153000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C158">
+        <v>4.0869</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C159">
+        <v>5.7096</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>5</v>
+      </c>
+      <c r="B160">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C160">
+        <v>124.55549999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="C161">
+        <v>6.5332999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="C163">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="C164">
+        <v>8.1922999999999995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="C165">
+        <v>7.5357000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166">
+        <f>AVERAGE(B156:B165)</f>
+        <v>0.82224000000000008</v>
+      </c>
+      <c r="C166">
+        <f>AVERAGE(C156:C165)</f>
+        <v>18.383620000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <f>_xlfn.STDEV.S(B156:B165)</f>
+        <v>0.23844931070937853</v>
+      </c>
+      <c r="C167">
+        <f>_xlfn.STDEV.S(C156:C165)</f>
+        <v>37.33187853638109</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>0.9466</v>
+      </c>
+      <c r="C171">
+        <v>5.4165999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="C172">
+        <v>6.4443999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="C173">
+        <v>1.3332999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="C174">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>5</v>
+      </c>
+      <c r="B175">
+        <v>0.1608</v>
+      </c>
+      <c r="C175">
+        <v>1.4615</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="C176">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="C177">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>8</v>
+      </c>
+      <c r="B178">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="C178">
+        <v>5.3333000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="C179">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>10</v>
+      </c>
+      <c r="B180">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="C180">
+        <v>5.3333000000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <f>AVERAGE(B171:B180)</f>
+        <v>0.89682999999999991</v>
+      </c>
+      <c r="C181">
+        <f>AVERAGE(C171:C180)</f>
+        <v>4.29474</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182">
+        <f>_xlfn.STDEV.S(B171:B180)</f>
+        <v>0.25908389482087774</v>
+      </c>
+      <c r="C182">
+        <f>_xlfn.STDEV.S(C171:C180)</f>
+        <v>2.5066445957361676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="9">
+  <tableParts count="14">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -14612,6 +20053,11 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CTLiverSegmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B8FC5E-DEB1-4C94-BA7A-C4992FD5D9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4B26D1-ABD1-46A3-995F-D27347BDCDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="704" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="704" firstSheet="2" activeTab="7" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="51">
   <si>
     <t>Iteration</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Dice</t>
   </si>
   <si>
-    <t>TotalSegmentator w/ FineTuning</t>
-  </si>
-  <si>
     <t>TotalSegmentator w/ Fine Tuning</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Scan 9</t>
+  </si>
+  <si>
+    <t>MSD</t>
   </si>
 </sst>
 </file>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -326,6 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9765,6 +9766,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{971C66A5-FDA7-4754-A0A8-57D9D47DE285}" name="Table13" displayName="Table13" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{936F31B2-61A2-4E97-8220-1E7FE1902A15}" name="Iteration"/>
+    <tableColumn id="4" xr3:uid="{0832F3AB-7C27-4062-89AD-82F1637522AA}" name="Classification Accuracy"/>
+    <tableColumn id="5" xr3:uid="{A5E9E0CE-1256-4002-BC45-327C677DE572}" name="Classification F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44D18B11-8DD6-45A6-87CF-63A4948A389E}" name="Table136" displayName="Table136" ref="A1:C13" totalsRowShown="0">
   <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="3">
@@ -9776,7 +9789,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECC1DCBB-E872-4D81-8A98-CF47BB1A52B8}" name="Table1357" displayName="Table1357" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="5">
@@ -9790,7 +9803,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FB4711C-FEAB-46E5-BBE5-75F1744FD7F2}" name="Table135" displayName="Table135" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="5">
@@ -9804,7 +9817,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="5">
@@ -9818,7 +9831,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}" name="Table7" displayName="Table7" ref="A18:C25" totalsRowShown="0" headerRowDxfId="214" headerRowBorderDxfId="213" tableBorderDxfId="212" totalsRowBorderDxfId="211">
   <autoFilter ref="A18:C25" xr:uid="{4854CEDD-7A8B-42C7-94DF-78377FF4822B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C25">
@@ -9833,7 +9846,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}" name="Table8" displayName="Table8" ref="A27:C34" totalsRowShown="0" headerRowDxfId="207" dataDxfId="205" headerRowBorderDxfId="206" tableBorderDxfId="204" totalsRowBorderDxfId="203">
   <autoFilter ref="A27:C34" xr:uid="{85F1C511-0D93-45AF-B69E-C09B42508221}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C34">
@@ -9848,7 +9861,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}" name="Table9" displayName="Table9" ref="A36:C41" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
   <autoFilter ref="A36:C41" xr:uid="{1DD111A3-F037-43FC-8096-E2AA4552B1C9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
@@ -9863,7 +9876,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}" name="Table10" displayName="Table10" ref="A45:C50" totalsRowShown="0" headerRowDxfId="191" dataDxfId="189" headerRowBorderDxfId="190" tableBorderDxfId="188" totalsRowBorderDxfId="187">
   <autoFilter ref="A45:C50" xr:uid="{82F705F9-F4D2-4841-83B4-18B7E815CA3F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
@@ -9878,7 +9891,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}" name="Table11" displayName="Table11" ref="A54:C64" totalsRowShown="0" headerRowDxfId="183" dataDxfId="181" headerRowBorderDxfId="182" tableBorderDxfId="180" totalsRowBorderDxfId="179">
   <autoFilter ref="A54:C64" xr:uid="{F2543028-685E-4FF6-8B35-BE5FEB147095}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C64">
@@ -9893,7 +9906,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9E9BCC6B-04ED-4952-B1D7-2567CD1EEE8D}" name="Table13417" displayName="Table13417" ref="E1:F13" totalsRowShown="0">
+  <autoFilter ref="E1:F13" xr:uid="{9E9BCC6B-04ED-4952-B1D7-2567CD1EEE8D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5B9086A6-00ED-41FC-BE83-E23F8207261A}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{EA740B8A-069C-4E32-8432-C65F4BE14C4A}" name="Dice Score"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}" name="Table12" displayName="Table12" ref="A68:C78" totalsRowShown="0" headerRowDxfId="175" dataDxfId="173" headerRowBorderDxfId="174" tableBorderDxfId="172" totalsRowBorderDxfId="171">
   <autoFilter ref="A68:C78" xr:uid="{E9B54982-DB42-425B-A10A-57ED6EFD727B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:C73">
@@ -9908,19 +9932,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{9E9BCC6B-04ED-4952-B1D7-2567CD1EEE8D}" name="Table13417" displayName="Table13417" ref="E1:G13" totalsRowShown="0">
-  <autoFilter ref="E1:G13" xr:uid="{9E9BCC6B-04ED-4952-B1D7-2567CD1EEE8D}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5B9086A6-00ED-41FC-BE83-E23F8207261A}" name="Iteration"/>
-    <tableColumn id="2" xr3:uid="{EA740B8A-069C-4E32-8432-C65F4BE14C4A}" name="Dice Score"/>
-    <tableColumn id="3" xr3:uid="{4BE36152-5AD7-480C-98BA-2EC942D4479B}" name="Hausdorff Distance"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}" name="Table14" displayName="Table14" ref="A82:C87" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164" totalsRowBorderDxfId="163">
   <autoFilter ref="A82:C87" xr:uid="{FB3D17D9-D339-47F8-AE23-B965BE06A9D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:C87">
@@ -9935,7 +9947,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}" name="Table15" displayName="Table15" ref="A91:C96" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156" totalsRowBorderDxfId="155">
   <autoFilter ref="A91:C96" xr:uid="{F7368D22-A06D-4B72-B654-01A01CEAF95C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A92:C96">
@@ -9950,7 +9962,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}" name="Table16" displayName="Table16" ref="A100:C105" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
   <autoFilter ref="A100:C105" xr:uid="{190D55FA-75ED-4099-A0AC-FD5E678DC527}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
@@ -9965,7 +9977,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{9987DB02-2827-4E5C-83AA-E0F0A30D7AE1}" name="Table134173742" displayName="Table134173742" ref="A110:C122" totalsRowShown="0">
   <autoFilter ref="A110:C122" xr:uid="{9987DB02-2827-4E5C-83AA-E0F0A30D7AE1}"/>
   <tableColumns count="3">
@@ -9977,7 +9989,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{9B9B2805-DA73-474D-8418-4C213CD74208}" name="Table13417373843" displayName="Table13417373843" ref="A125:C137" totalsRowShown="0">
   <autoFilter ref="A125:C137" xr:uid="{9B9B2805-DA73-474D-8418-4C213CD74208}"/>
   <tableColumns count="3">
@@ -9989,7 +10001,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{2606FB0F-5B7F-4B59-932F-60DDB4B84832}" name="Table1341737383944" displayName="Table1341737383944" ref="A140:C152" totalsRowShown="0">
   <autoFilter ref="A140:C152" xr:uid="{2606FB0F-5B7F-4B59-932F-60DDB4B84832}"/>
   <tableColumns count="3">
@@ -10001,7 +10013,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{9360634F-4E8F-495B-88C3-4C3931FFE317}" name="Table1341737384045" displayName="Table1341737384045" ref="A155:C167" totalsRowShown="0">
   <autoFilter ref="A155:C167" xr:uid="{9360634F-4E8F-495B-88C3-4C3931FFE317}"/>
   <tableColumns count="3">
@@ -10013,7 +10025,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{E69DFB13-3464-48FB-91A5-04BD1DEDFE8C}" name="Table1341737384146" displayName="Table1341737384146" ref="A170:C182" totalsRowShown="0">
   <autoFilter ref="A170:C182" xr:uid="{E69DFB13-3464-48FB-91A5-04BD1DEDFE8C}"/>
   <tableColumns count="3">
@@ -10025,7 +10037,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}" name="Table1126" displayName="Table1126" ref="A18:C23" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
   <autoFilter ref="A18:C23" xr:uid="{0086F0D3-C403-4B58-95D2-7A86627B5619}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:C23">
@@ -10035,21 +10047,6 @@
     <tableColumn id="1" xr3:uid="{4F637688-AA99-4296-B478-966FD5ED9C08}" name="Iteration" dataDxfId="138"/>
     <tableColumn id="2" xr3:uid="{8FDB03A6-76C2-4600-8489-35C46F2DA9A2}" name="Dice Score" dataDxfId="137"/>
     <tableColumn id="3" xr3:uid="{A41D579A-33CE-4B5B-81C2-F7B8415EA336}" name="Hausdorff Distance" dataDxfId="136"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
-  <autoFilter ref="A27:C32" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C32">
-    <sortCondition ref="A27:A32"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{788DA027-4758-45B7-A325-3B27EC92CC49}" name="Iteration" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{257FE13F-90B0-4E7F-84EA-3FA1DF74F7CB}" name="Dice Score" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{DE5F4771-E359-46A1-B6F2-FBB5418DBCFB}" name="Hausdorff Distance" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10068,6 +10065,21 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}" name="Table1127" displayName="Table1127" ref="A27:C32" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+  <autoFilter ref="A27:C32" xr:uid="{E01AF5AB-CDE3-4601-A8F7-74BA6F3D3C5F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A28:C32">
+    <sortCondition ref="A27:A32"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{788DA027-4758-45B7-A325-3B27EC92CC49}" name="Iteration" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{257FE13F-90B0-4E7F-84EA-3FA1DF74F7CB}" name="Dice Score" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{DE5F4771-E359-46A1-B6F2-FBB5418DBCFB}" name="Hausdorff Distance" dataDxfId="128"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}" name="Table1128" displayName="Table1128" ref="A36:C41" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
   <autoFilter ref="A36:C41" xr:uid="{F6B2EAB4-0595-421A-ABB3-CCF6E01F35DB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:C41">
@@ -10082,7 +10094,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}" name="Table1129" displayName="Table1129" ref="A45:C50" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
   <autoFilter ref="A45:C50" xr:uid="{D9AAA221-7033-47F7-B549-646CE69756A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:C50">
@@ -10097,7 +10109,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}" name="Table1130" displayName="Table1130" ref="A54:C59" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <autoFilter ref="A54:C59" xr:uid="{457AEBB1-6F63-436A-A9C9-DF97C377A383}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:C59">
@@ -10112,7 +10124,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}" name="Table1131" displayName="Table1131" ref="A63:C73" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
   <autoFilter ref="A63:C73" xr:uid="{35210DFD-3924-4A05-A296-3D2F50898843}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:C68">
@@ -10127,7 +10139,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}" name="Table1132" displayName="Table1132" ref="A77:C82" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
   <autoFilter ref="A77:C82" xr:uid="{8213FF16-18D0-475A-8905-EAA5F8772E87}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:C82">
@@ -10142,7 +10154,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}" name="Table1133" displayName="Table1133" ref="A86:C96" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="A86:C96" xr:uid="{7F68CA3E-7DC2-4A18-9DAF-29568DB415CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:C96">
@@ -10157,7 +10169,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}" name="Table1134" displayName="Table1134" ref="A100:C105" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A100:C105" xr:uid="{730F46C0-54DE-4909-9958-221A376E3F3B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A101:C105">
@@ -10172,7 +10184,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{173A7CFA-FCAF-4AB7-BE6A-3D9D15ECBB17}" name="Table13417374247" displayName="Table13417374247" ref="A110:C122" totalsRowShown="0">
   <autoFilter ref="A110:C122" xr:uid="{173A7CFA-FCAF-4AB7-BE6A-3D9D15ECBB17}"/>
   <tableColumns count="3">
@@ -10184,25 +10196,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{BD11FAB7-7476-4055-A34F-6DCC6C68E794}" name="Table1341737384348" displayName="Table1341737384348" ref="A125:C137" totalsRowShown="0">
   <autoFilter ref="A125:C137" xr:uid="{BD11FAB7-7476-4055-A34F-6DCC6C68E794}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{687F99E8-0820-4BC6-BFBD-04B2E4D3F1F0}" name="Iteration"/>
     <tableColumn id="2" xr3:uid="{B9C92D0B-1103-40E0-AFA4-4DD8461D753D}" name="Dice Score"/>
     <tableColumn id="3" xr3:uid="{A407CDE6-2B06-4A7F-8A8F-C0BCE7071386}" name="Hausdorff Distance"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{29B04189-4253-4608-B821-263C73D10A8F}" name="Table134173738394449" displayName="Table134173738394449" ref="A140:C152" totalsRowShown="0">
-  <autoFilter ref="A140:C152" xr:uid="{29B04189-4253-4608-B821-263C73D10A8F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8616D9E0-9251-4E01-BF51-DD9B0C63C2C5}" name="Iteration"/>
-    <tableColumn id="2" xr3:uid="{EAD6FDB3-8215-4092-ABCC-A588E2E13F8A}" name="Dice Score"/>
-    <tableColumn id="3" xr3:uid="{DA80F9CC-9DE7-4CEE-B395-2E124974CBE7}" name="Hausdorff Distance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10221,6 +10221,18 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{29B04189-4253-4608-B821-263C73D10A8F}" name="Table134173738394449" displayName="Table134173738394449" ref="A140:C152" totalsRowShown="0">
+  <autoFilter ref="A140:C152" xr:uid="{29B04189-4253-4608-B821-263C73D10A8F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8616D9E0-9251-4E01-BF51-DD9B0C63C2C5}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{EAD6FDB3-8215-4092-ABCC-A588E2E13F8A}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{DA80F9CC-9DE7-4CEE-B395-2E124974CBE7}" name="Hausdorff Distance"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{44F63D3B-55BA-4CA8-BAE0-30378515D606}" name="Table134173738404550" displayName="Table134173738404550" ref="A155:C167" totalsRowShown="0">
   <autoFilter ref="A155:C167" xr:uid="{44F63D3B-55BA-4CA8-BAE0-30378515D606}"/>
   <tableColumns count="3">
@@ -10232,7 +10244,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{82277556-4CC9-4A51-A5FF-024C79556F9D}" name="Table134173738414651" displayName="Table134173738414651" ref="A170:C182" totalsRowShown="0">
   <autoFilter ref="A170:C182" xr:uid="{82277556-4CC9-4A51-A5FF-024C79556F9D}"/>
   <tableColumns count="3">
@@ -10244,7 +10256,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}" name="Table18" displayName="Table18" ref="A15:C20" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="A15:C20" xr:uid="{4F3D2566-8DB9-4AC6-A27C-60E6BD37336D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:C20">
@@ -10259,7 +10271,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}" name="Table19" displayName="Table19" ref="A24:C29" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A24:C29" xr:uid="{E8A9E7EC-FBB8-41D4-9968-0D62BE428242}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:C29">
@@ -10274,7 +10286,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}" name="Table20" displayName="Table20" ref="A33:C38" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="A33:C38" xr:uid="{78488E60-6979-4C32-A6F2-7EE44157A047}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:C38">
@@ -10289,7 +10301,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}" name="Table21" displayName="Table21" ref="A42:C47" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A42:C47" xr:uid="{F7A21220-1AD9-4A8A-BA31-59260B10384B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:C47">
@@ -10304,7 +10316,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}" name="Table22" displayName="Table22" ref="A51:C56" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A51:C56" xr:uid="{7570FEDA-2A01-496A-91B1-39AC4F139C96}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:C56">
@@ -10319,7 +10331,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}" name="Table23" displayName="Table23" ref="A60:C65" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A60:C65" xr:uid="{28AD94E1-D662-46B1-8C5F-9C958A4FED86}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A61:C65">
@@ -10334,7 +10346,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}" name="Table24" displayName="Table24" ref="A69:C74" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A69:C74" xr:uid="{EC3838F9-6CB8-490A-9EF3-8FCD7254CF0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A70:C74">
@@ -10344,21 +10356,6 @@
     <tableColumn id="1" xr3:uid="{C2D24FD1-111A-47EA-BFED-05D9803D1EBC}" name="Iteration" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{E3479DB4-8990-4426-B76D-619E4197AE96}" name="Dice Score" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{C7977E73-E9CD-43E1-AA95-0BE2C0895A9D}" name="Hausdorff Distance" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}" name="Table34" displayName="Table34" ref="A78:C83" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A78:C83" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A79:C83">
-    <sortCondition ref="A78:A83"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EDC97D37-4229-4F9D-8C5E-2ADD04F7FA9D}" name="Iteration" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{3F1937B1-CC3F-406D-9E69-1F583F40E23E}" name="Dice Score" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{5788025C-4A15-44D1-87F1-1F2F52F9B17C}" name="Hausdorff Distance" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10377,6 +10374,21 @@
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}" name="Table34" displayName="Table34" ref="A78:C83" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A78:C83" xr:uid="{26889ECD-1B6E-45EE-82DC-9138DC8542BC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A79:C83">
+    <sortCondition ref="A78:A83"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EDC97D37-4229-4F9D-8C5E-2ADD04F7FA9D}" name="Iteration" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3F1937B1-CC3F-406D-9E69-1F583F40E23E}" name="Dice Score" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5788025C-4A15-44D1-87F1-1F2F52F9B17C}" name="Hausdorff Distance" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}" name="Table35" displayName="Table35" ref="A87:C92" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A87:C92" xr:uid="{D19F0CF6-9203-4F9B-BEF2-FB20A829B000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:C92">
@@ -10391,7 +10403,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{F48AB280-8F76-46E8-825D-DC33EC0A1DBA}" name="Table1341737424752" displayName="Table1341737424752" ref="A97:C109" totalsRowShown="0">
   <autoFilter ref="A97:C109" xr:uid="{F48AB280-8F76-46E8-825D-DC33EC0A1DBA}"/>
   <tableColumns count="3">
@@ -10403,7 +10415,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{9ADFD97F-3AB2-48B3-B990-92184A308401}" name="Table134173738434853" displayName="Table134173738434853" ref="A112:C124" totalsRowShown="0">
   <autoFilter ref="A112:C124" xr:uid="{9ADFD97F-3AB2-48B3-B990-92184A308401}"/>
   <tableColumns count="3">
@@ -10415,7 +10427,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{EFEA252A-490D-4114-A61A-0A1653E3E2EC}" name="Table13417373839444954" displayName="Table13417373839444954" ref="A127:C139" totalsRowShown="0">
   <autoFilter ref="A127:C139" xr:uid="{EFEA252A-490D-4114-A61A-0A1653E3E2EC}"/>
   <tableColumns count="3">
@@ -10427,7 +10439,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{ED75E4AD-FDBD-4E2A-9B1F-CC55719A40C9}" name="Table13417373840455055" displayName="Table13417373840455055" ref="A142:C154" totalsRowShown="0">
   <autoFilter ref="A142:C154" xr:uid="{ED75E4AD-FDBD-4E2A-9B1F-CC55719A40C9}"/>
   <tableColumns count="3">
@@ -10439,7 +10451,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{61C44276-6ECC-497F-84EA-A7BD2BFAA2F9}" name="Table13417373841465156" displayName="Table13417373841465156" ref="A157:C169" totalsRowShown="0">
   <autoFilter ref="A157:C169" xr:uid="{61C44276-6ECC-497F-84EA-A7BD2BFAA2F9}"/>
   <tableColumns count="3">
@@ -10488,12 +10500,12 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{971C66A5-FDA7-4754-A0A8-57D9D47DE285}" name="Table13" displayName="Table13" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{9FFFB93C-BCBC-4889-A2C0-3F118620AEFB}" name="Table13457" displayName="Table13457" ref="H1:J13" totalsRowShown="0">
+  <autoFilter ref="H1:J13" xr:uid="{9FFFB93C-BCBC-4889-A2C0-3F118620AEFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{936F31B2-61A2-4E97-8220-1E7FE1902A15}" name="Iteration"/>
-    <tableColumn id="4" xr3:uid="{0832F3AB-7C27-4062-89AD-82F1637522AA}" name="Classification Accuracy"/>
-    <tableColumn id="5" xr3:uid="{A5E9E0CE-1256-4002-BC45-327C677DE572}" name="Classification F1"/>
+    <tableColumn id="1" xr3:uid="{A3484F42-BE59-4FDD-9A80-0C3C84BFF4FE}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{315B0EF7-525E-499F-BF68-1A5CF343E46F}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{2AD9B2D1-9988-4197-930D-2D07298E29A8}" name="Hausdorff Distance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11098,10 +11110,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9EE4C0-4CF0-4381-B80F-8E9FC582ED4A}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11112,9 +11124,11 @@
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11133,8 +11147,14 @@
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11153,8 +11173,14 @@
       <c r="H2" s="4">
         <v>22.118300000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.73980000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11173,8 +11199,14 @@
       <c r="H3" s="6">
         <v>16.191700000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.82650000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -11193,8 +11225,14 @@
       <c r="H4" s="4">
         <v>24.9819</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.84330000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11213,8 +11251,14 @@
       <c r="H5" s="6">
         <v>19.306000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.79790000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -11233,8 +11277,14 @@
       <c r="H6" s="4">
         <v>38.9694</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.83760000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11253,8 +11303,14 @@
       <c r="H7" s="6">
         <v>19.064</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="5">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -11273,8 +11329,14 @@
       <c r="H8" s="4">
         <v>22.247900000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.84519999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11293,8 +11355,14 @@
       <c r="H9" s="6">
         <v>51.019100000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <v>8</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -11313,8 +11381,14 @@
       <c r="H10" s="4">
         <v>18.817</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>9</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.79530000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11333,8 +11407,14 @@
       <c r="H11" s="6">
         <v>18.4207</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="5">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -11357,8 +11437,15 @@
         <f t="shared" ref="H12" si="1">AVERAGE(H2:H11)</f>
         <v>25.113599999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4">
+        <f>AVERAGE(K2:K11)</f>
+        <v>0.81251000000000018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -11381,13 +11468,23 @@
         <f t="shared" ref="H13" si="3">_xlfn.STDEV.S(H2:H11)</f>
         <v>11.128780440621313</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="6">
+        <f>_xlfn.STDEV.S(K2:K11)</f>
+        <v>3.4009359822783421E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>0</v>
       </c>
@@ -11401,7 +11498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -11412,7 +11509,7 @@
         <v>95.767600000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -11422,8 +11519,17 @@
       <c r="C17" s="6">
         <v>96.348399999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -11433,8 +11539,17 @@
       <c r="C18" s="6">
         <v>81.941900000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.4929</v>
+      </c>
+      <c r="H18" s="4">
+        <v>39.963299999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -11444,8 +11559,17 @@
       <c r="C19" s="6">
         <v>86.222200000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.4098</v>
+      </c>
+      <c r="H19" s="6">
+        <v>52.090899999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -11455,8 +11579,17 @@
       <c r="C20" s="6">
         <v>101.2525</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.42020000000000002</v>
+      </c>
+      <c r="H20" s="4">
+        <v>74.407899999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -11468,8 +11601,17 @@
         <f>AVERAGE(C16:C20)</f>
         <v>92.306520000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <v>63.741300000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -11481,8 +11623,28 @@
         <f>_xlfn.STDEV.S(C16:C20)</f>
         <v>7.9496969198202745</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.45069999999999999</v>
+      </c>
+      <c r="H22" s="4">
+        <v>74.738399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.2712</v>
+      </c>
+      <c r="H23" s="6">
+        <v>117.3047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
@@ -11495,8 +11657,17 @@
       <c r="E24" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.4824</v>
+      </c>
+      <c r="H24" s="4">
+        <v>58.145699999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -11506,8 +11677,17 @@
       <c r="C25" s="6">
         <v>37.651499999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="H25" s="6">
+        <v>65.669499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2</v>
       </c>
@@ -11517,8 +11697,17 @@
       <c r="C26" s="6">
         <v>54.393900000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="H26" s="4">
+        <v>69.465000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>3</v>
       </c>
@@ -11528,8 +11717,17 @@
       <c r="C27" s="6">
         <v>31.835799999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.495</v>
+      </c>
+      <c r="H27" s="6">
+        <v>54.729500000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>4</v>
       </c>
@@ -11539,8 +11737,19 @@
       <c r="C28" s="6">
         <v>64.045400000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <f>AVERAGE(G18:G27)</f>
+        <v>0.43968999999999997</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" ref="H28" si="4">AVERAGE(H18:H27)</f>
+        <v>67.025620000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>5</v>
       </c>
@@ -11550,8 +11759,19 @@
       <c r="C29" s="6">
         <v>64.946899999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6">
+        <f>_xlfn.STDEV.S(G18:G27)</f>
+        <v>6.9631401760349196E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" ref="H29" si="5">_xlfn.STDEV.S(H18:H27)</f>
+        <v>20.672068876185982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -11563,8 +11783,11 @@
         <f>AVERAGE(C25:C29)</f>
         <v>50.5747</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
@@ -12253,7 +12476,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -12403,7 +12626,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -12553,7 +12776,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -12703,7 +12926,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -12853,7 +13076,7 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -13015,10 +13238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE7B198-A19B-493B-B085-8D5AE4C3117E}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13027,9 +13250,12 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13045,11 +13271,17 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13063,13 +13295,19 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.86519999999999997</v>
-      </c>
-      <c r="G2">
-        <v>13.8056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="J2">
+        <v>26.491900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13082,8 +13320,20 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.4889</v>
+      </c>
+      <c r="J3">
+        <v>56.903300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13097,13 +13347,19 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0.84040000000000004</v>
-      </c>
-      <c r="G4">
-        <v>22.534199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0.28489999999999999</v>
+      </c>
+      <c r="J4">
+        <v>84.396600000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13117,13 +13373,19 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>0.83109999999999995</v>
-      </c>
-      <c r="G5">
-        <v>10.5815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="J5">
+        <v>91.311800000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13137,13 +13399,19 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>0.81859999999999999</v>
-      </c>
-      <c r="G6">
-        <v>16.326799999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="J6">
+        <v>105.9119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13156,8 +13424,20 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="J7">
+        <v>55.699100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13171,13 +13451,19 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>0.83789999999999998</v>
-      </c>
-      <c r="G8">
-        <v>16.613800000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>0.46870000000000001</v>
+      </c>
+      <c r="J8">
+        <v>76.571399999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13191,13 +13477,19 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="G9">
-        <v>16.8384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="J9">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13210,8 +13502,20 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="J10">
+        <v>91.139200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13225,13 +13529,19 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>0.78810000000000002</v>
-      </c>
-      <c r="G11">
-        <v>25.437200000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="J11">
+        <v>85.416300000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -13248,14 +13558,21 @@
       </c>
       <c r="F12">
         <f>AVERAGE(F2:F11)</f>
-        <v>0.81955714285714287</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
-        <v>17.448214285714286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.8480700000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(I2:I10)</f>
+        <v>0.42016666666666669</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12" si="1">AVERAGE(J2:J11)</f>
+        <v>76.454149999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -13272,19 +13589,29 @@
       </c>
       <c r="F13">
         <f>_xlfn.STDEV.S(F2:F11)</f>
-        <v>3.6670553906499995E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ref="G13" si="3">_xlfn.STDEV.S(G2:G11)</f>
-        <v>5.0404569569397095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.6898721187645467E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <f>_xlfn.STDEV.S(I2:I10)</f>
+        <v>7.2406802166646869E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="3">_xlfn.STDEV.S(J2:J11)</f>
+        <v>23.475174565165688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -13295,7 +13622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -13311,13 +13638,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -13358,13 +13685,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -13453,7 +13780,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -13603,7 +13930,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -13753,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -13903,7 +14230,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -14053,7 +14380,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -14064,7 +14391,7 @@
         <v>0.92510000000000003</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -14195,7 +14522,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -14204,6 +14531,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15299,10 +15627,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DBECAB-5B38-4691-9341-2984E46A5BC3}">
-  <dimension ref="A1:R182"/>
+  <dimension ref="A1:S182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15319,9 +15647,12 @@
     <col min="13" max="13" width="16.5703125" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="24" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15346,9 +15677,6 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15358,8 +15686,17 @@
       <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -15381,8 +15718,9 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="J2" s="4">
+        <v>0.86570000000000003</v>
+      </c>
       <c r="M2" s="3">
         <v>1</v>
       </c>
@@ -15392,8 +15730,17 @@
       <c r="O2" s="4">
         <v>16.231999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="S2" s="4">
+        <v>76.174199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -15416,10 +15763,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="6">
-        <v>0.85070000000000001</v>
-      </c>
-      <c r="K3" s="6">
-        <v>20.409500000000001</v>
+        <v>0.83550000000000002</v>
       </c>
       <c r="M3" s="5">
         <v>2</v>
@@ -15430,8 +15774,17 @@
       <c r="O3" s="6">
         <v>20.331299999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="5">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.46889999999999998</v>
+      </c>
+      <c r="S3" s="6">
+        <v>84.804000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -15453,8 +15806,9 @@
       <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="J4" s="4">
+        <v>0.82020000000000004</v>
+      </c>
       <c r="M4" s="3">
         <v>3</v>
       </c>
@@ -15464,8 +15818,17 @@
       <c r="O4" s="4">
         <v>20.331299999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="3">
+        <v>3</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.3881</v>
+      </c>
+      <c r="S4" s="4">
+        <v>89.367000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -15487,8 +15850,9 @@
       <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="6">
+        <v>0.86839999999999995</v>
+      </c>
       <c r="M5" s="5">
         <v>4</v>
       </c>
@@ -15498,8 +15862,17 @@
       <c r="O5" s="6">
         <v>16.664899999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="5">
+        <v>4</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="S5" s="6">
+        <v>85.880899999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -15521,8 +15894,9 @@
       <c r="I6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="4">
+        <v>0.85470000000000002</v>
+      </c>
       <c r="M6" s="3">
         <v>5</v>
       </c>
@@ -15532,8 +15906,17 @@
       <c r="O6" s="4">
         <v>17.883900000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="S6" s="4">
+        <v>79.717399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -15556,10 +15939,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="6">
-        <v>0.82130000000000003</v>
-      </c>
-      <c r="K7" s="6">
-        <v>18.703299999999999</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="M7" s="5">
         <v>6</v>
@@ -15570,8 +15950,17 @@
       <c r="O7" s="6">
         <v>17.633199999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="5">
+        <v>6</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="S7" s="6">
+        <v>91.689099999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -15594,10 +15983,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="4">
-        <v>0.81610000000000005</v>
-      </c>
-      <c r="K8" s="4">
-        <v>13.474299999999999</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -15608,8 +15994,17 @@
       <c r="O8" s="4">
         <v>18.511800000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="3">
+        <v>7</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="S8" s="4">
+        <v>103.604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -15631,8 +16026,9 @@
       <c r="I9" s="5">
         <v>8</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="6">
+        <v>0.86229999999999996</v>
+      </c>
       <c r="M9" s="5">
         <v>8</v>
       </c>
@@ -15642,8 +16038,17 @@
       <c r="O9" s="6">
         <v>20.4361</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="5">
+        <v>8</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="S9" s="6">
+        <v>71.564099999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -15666,10 +16071,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="4">
-        <v>0.81179999999999997</v>
-      </c>
-      <c r="K10" s="4">
-        <v>16.055199999999999</v>
+        <v>0.80940000000000001</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -15680,8 +16082,17 @@
       <c r="O10" s="4">
         <v>15.4239</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3">
+        <v>9</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="S10" s="4">
+        <v>93.633700000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -15704,10 +16115,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="6">
-        <v>0.84460000000000002</v>
-      </c>
-      <c r="K11" s="6">
-        <v>15.795500000000001</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="M11" s="5">
         <v>10</v>
@@ -15718,8 +16126,17 @@
       <c r="O11" s="6">
         <v>15.7936</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="5">
+        <v>10</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="S11" s="6">
+        <v>73.618200000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -15747,11 +16164,7 @@
       </c>
       <c r="J12" s="4">
         <f>AVERAGE(J2:J11)</f>
-        <v>0.82889999999999997</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" ref="K12" si="2">AVERAGE(K2:K11)</f>
-        <v>16.887560000000001</v>
+        <v>0.84053</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -15761,11 +16174,22 @@
         <v>0.6436400000000001</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" ref="O12" si="3">AVERAGE(O2:O11)</f>
+        <f t="shared" ref="O12" si="2">AVERAGE(O2:O11)</f>
         <v>17.924200000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="4">
+        <f>AVERAGE(R2:R11)</f>
+        <v>0.44132999999999994</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" ref="S12" si="3">AVERAGE(S2:S11)</f>
+        <v>85.005259999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -15793,11 +16217,7 @@
       </c>
       <c r="J13" s="6">
         <f>_xlfn.STDEV.S(J2:J11)</f>
-        <v>1.7576546873604045E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" ref="K13" si="6">_xlfn.STDEV.S(K2:K11)</f>
-        <v>2.7035502192487328</v>
+        <v>2.4544927061298093E-2</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>6</v>
@@ -15807,11 +16227,22 @@
         <v>9.122559582339386E-2</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" ref="O13" si="7">_xlfn.STDEV.S(O2:O11)</f>
+        <f t="shared" ref="O13" si="6">_xlfn.STDEV.S(O2:O11)</f>
         <v>1.931315471669782</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="6">
+        <f>_xlfn.STDEV.S(R2:R11)</f>
+        <v>6.0200259320224409E-2</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" ref="S13" si="7">_xlfn.STDEV.S(S2:S11)</f>
+        <v>10.006374924039411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -15823,6 +16254,9 @@
       </c>
       <c r="M15" t="s">
         <v>38</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -15887,15 +16321,9 @@
         <f>_xlfn.T.TEST('Class-Based Contrastive'!C2:C11, SimCLR!C2:C11, 2, 3)</f>
         <v>1.9872755606033248E-3</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -15907,15 +16335,6 @@
       <c r="C21" s="6">
         <v>100.5758</v>
       </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0.30109999999999998</v>
-      </c>
-      <c r="O21" s="4">
-        <v>33.847000000000001</v>
-      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -15927,15 +16346,6 @@
       <c r="C22" s="6">
         <v>73.126300000000001</v>
       </c>
-      <c r="M22" s="5">
-        <v>2</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0.28270000000000001</v>
-      </c>
-      <c r="O22" s="6">
-        <v>29.665299999999998</v>
-      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -15947,15 +16357,6 @@
       <c r="C23" s="6">
         <v>84.174199999999999</v>
       </c>
-      <c r="M23" s="3">
-        <v>3</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0.3004</v>
-      </c>
-      <c r="O23" s="4">
-        <v>28.931100000000001</v>
-      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -15969,15 +16370,6 @@
         <f>AVERAGE(C16:C23)</f>
         <v>82.569220000000001</v>
       </c>
-      <c r="M24" s="5">
-        <v>4</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0.3014</v>
-      </c>
-      <c r="O24" s="6">
-        <v>34.869900000000001</v>
-      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -15991,26 +16383,6 @@
         <f>_xlfn.STDEV.S(C19:C24)</f>
         <v>10.566576153399973</v>
       </c>
-      <c r="M25" s="3">
-        <v>5</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0.2848</v>
-      </c>
-      <c r="O25" s="4">
-        <v>36.154800000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M26" s="5">
-        <v>6</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0.28360000000000002</v>
-      </c>
-      <c r="O26" s="6">
-        <v>36.520000000000003</v>
-      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -16025,15 +16397,6 @@
       <c r="E27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="3">
-        <v>7</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="O27" s="4">
-        <v>40.883299999999998</v>
-      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -16045,15 +16408,6 @@
       <c r="C28" s="6">
         <v>40.696899999999999</v>
       </c>
-      <c r="M28" s="5">
-        <v>8</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0.28289999999999998</v>
-      </c>
-      <c r="O28" s="6">
-        <v>51.175899999999999</v>
-      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -16065,15 +16419,6 @@
       <c r="C29" s="6">
         <v>37.058</v>
       </c>
-      <c r="M29" s="3">
-        <v>9</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="O29" s="4">
-        <v>44.667299999999997</v>
-      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
@@ -16085,15 +16430,6 @@
       <c r="C30" s="6">
         <v>36.590899999999998</v>
       </c>
-      <c r="M30" s="5">
-        <v>10</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0.28079999999999999</v>
-      </c>
-      <c r="O30" s="6">
-        <v>37.615600000000001</v>
-      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
@@ -16105,17 +16441,6 @@
       <c r="C31" s="6">
         <v>27.7348</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N31" s="4">
-        <f>AVERAGE(N21:N30)</f>
-        <v>0.28737000000000001</v>
-      </c>
-      <c r="O31" s="4">
-        <f t="shared" ref="O31" si="8">AVERAGE(O21:O30)</f>
-        <v>37.433019999999999</v>
-      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
@@ -16127,17 +16452,6 @@
       <c r="C32" s="6">
         <v>53.381300000000003</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N32" s="6">
-        <f>_xlfn.STDEV.S(N21:N30)</f>
-        <v>9.7439496897077319E-3</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" ref="O32" si="9">_xlfn.STDEV.S(O21:O30)</f>
-        <v>6.7301644234165634</v>
-      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -16164,9 +16478,6 @@
         <f>_xlfn.STDEV.S(C28:C33)</f>
         <v>8.8663949677873646</v>
       </c>
-      <c r="M34" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -16551,7 +16862,7 @@
         <v>0.84058999999999995</v>
       </c>
       <c r="C65" s="6">
-        <f t="shared" ref="C65" si="10">AVERAGE(C55:C64)</f>
+        <f t="shared" ref="C65" si="8">AVERAGE(C55:C64)</f>
         <v>16.649740000000001</v>
       </c>
     </row>
@@ -16564,7 +16875,7 @@
         <v>1.5752139184532634E-2</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" ref="C66" si="11">_xlfn.STDEV.S(C55:C64)</f>
+        <f t="shared" ref="C66" si="9">_xlfn.STDEV.S(C55:C64)</f>
         <v>4.8234779709251283</v>
       </c>
     </row>
@@ -17018,7 +17329,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -17168,7 +17479,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -17318,7 +17629,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -17468,7 +17779,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -17618,7 +17929,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -17781,10 +18092,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D92F3-DA9B-4EB2-80D8-46C073400D29}">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17798,9 +18109,12 @@
     <col min="9" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17816,9 +18130,7 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="G1" s="14"/>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17828,8 +18140,17 @@
       <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -17843,10 +18164,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>0.83609999999999995</v>
-      </c>
-      <c r="G2" s="4">
-        <v>15.829599999999999</v>
+        <v>0.83350000000000002</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -17857,8 +18175,17 @@
       <c r="K2" s="4">
         <v>17.888000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="O2" s="4">
+        <v>88.725700000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -17871,8 +18198,9 @@
       <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>0.84770000000000001</v>
+      </c>
       <c r="I3" s="5">
         <v>2</v>
       </c>
@@ -17882,8 +18210,17 @@
       <c r="K3" s="6">
         <v>20.567900000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.44369999999999998</v>
+      </c>
+      <c r="O3" s="6">
+        <v>89.800799999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -17896,8 +18233,9 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4">
+        <v>0.83440000000000003</v>
+      </c>
       <c r="I4" s="3">
         <v>3</v>
       </c>
@@ -17907,8 +18245,17 @@
       <c r="K4" s="4">
         <v>18.7654</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.4904</v>
+      </c>
+      <c r="O4" s="4">
+        <v>88.9328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -17922,10 +18269,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="6">
-        <v>0.74429999999999996</v>
-      </c>
-      <c r="G5" s="6">
-        <v>16.183</v>
+        <v>0.83360000000000001</v>
       </c>
       <c r="I5" s="5">
         <v>4</v>
@@ -17936,8 +18280,17 @@
       <c r="K5" s="6">
         <v>15.295</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="O5" s="6">
+        <v>97.664100000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -17951,10 +18304,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="4">
-        <v>0.84430000000000005</v>
-      </c>
-      <c r="G6" s="4">
-        <v>16.1662</v>
+        <v>0.82530000000000003</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -17965,8 +18315,17 @@
       <c r="K6" s="4">
         <v>19.511800000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="3">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="O6" s="4">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -17979,8 +18338,9 @@
       <c r="E7" s="5">
         <v>6</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="6">
+        <v>0.84130000000000005</v>
+      </c>
       <c r="I7" s="5">
         <v>6</v>
       </c>
@@ -17990,8 +18350,17 @@
       <c r="K7" s="6">
         <v>18.131599999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="5">
+        <v>6</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.4163</v>
+      </c>
+      <c r="O7" s="6">
+        <v>75.022000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -18005,10 +18374,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="4">
-        <v>0.82989999999999997</v>
-      </c>
-      <c r="G8" s="4">
-        <v>14.8093</v>
+        <v>0.83509999999999995</v>
       </c>
       <c r="I8" s="3">
         <v>7</v>
@@ -18019,8 +18385,17 @@
       <c r="K8" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="3">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.49309999999999998</v>
+      </c>
+      <c r="O8" s="4">
+        <v>83.2577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -18033,8 +18408,9 @@
       <c r="E9" s="5">
         <v>8</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="6">
+        <v>0.8508</v>
+      </c>
       <c r="I9" s="5">
         <v>8</v>
       </c>
@@ -18044,8 +18420,17 @@
       <c r="K9" s="6">
         <v>16.666699999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="5">
+        <v>8</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="O9" s="6">
+        <v>84.004099999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -18059,10 +18444,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="4">
-        <v>0.83520000000000005</v>
-      </c>
-      <c r="G10" s="4">
-        <v>15.7041</v>
+        <v>0.83919999999999995</v>
       </c>
       <c r="I10" s="3">
         <v>9</v>
@@ -18073,8 +18455,17 @@
       <c r="K10" s="4">
         <v>19.469899999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="3">
+        <v>9</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="O10" s="4">
+        <v>65.314800000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -18087,8 +18478,9 @@
       <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6">
+        <v>0.81699999999999995</v>
+      </c>
       <c r="I11" s="5">
         <v>10</v>
       </c>
@@ -18098,8 +18490,17 @@
       <c r="K11" s="6">
         <v>17.367100000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="5">
+        <v>10</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.4476</v>
+      </c>
+      <c r="O11" s="6">
+        <v>98.926400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -18116,11 +18517,7 @@
       </c>
       <c r="F12" s="4">
         <f>AVERAGE(F2:F11)</f>
-        <v>0.81796000000000002</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" ref="G12" si="1">AVERAGE(G2:G11)</f>
-        <v>15.738440000000001</v>
+        <v>0.83579000000000003</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -18130,11 +18527,22 @@
         <v>0.65466999999999997</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12" si="2">AVERAGE(K2:K11)</f>
+        <f t="shared" ref="K12" si="1">AVERAGE(K2:K11)</f>
         <v>18.566339999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.43522</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" ref="O12" si="2">AVERAGE(O2:O11)</f>
+        <v>85.484840000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -18151,11 +18559,7 @@
       </c>
       <c r="F13" s="6">
         <f>_xlfn.STDEV.S(F2:F11)</f>
-        <v>4.1498289121360193E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" ref="G13" si="4">_xlfn.STDEV.S(G2:G11)</f>
-        <v>0.5597773512745936</v>
+        <v>9.91457400889105E-3</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>6</v>
@@ -18165,11 +18569,22 @@
         <v>5.5245915887260154E-2</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" ref="K13" si="5">_xlfn.STDEV.S(K2:K11)</f>
+        <f t="shared" ref="K13" si="4">_xlfn.STDEV.S(K2:K11)</f>
         <v>1.9420442186292031</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="6">
+        <f>_xlfn.STDEV.S(N2:N11)</f>
+        <v>7.9939821810604064E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" ref="O13" si="5">_xlfn.STDEV.S(O2:O11)</f>
+        <v>9.9927962587720867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -18178,6 +18593,9 @@
       </c>
       <c r="I15" t="s">
         <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -18486,7 +18904,7 @@
         <v>44.987299999999998</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -19301,7 +19719,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -19451,7 +19869,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -19601,7 +20019,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -19751,7 +20169,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -19901,7 +20319,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
